--- a/app/download_dir/system_files/обувь_по коробам.xlsx
+++ b/app/download_dir/system_files/обувь_по коробам.xlsx
@@ -369,7 +369,7 @@
     <t xml:space="preserve">&lt;CERT_EAC_18_EAES&gt; Сертификат ЕАС '18 - вариант ЕАЭС</t>
   </si>
   <si>
-    <t xml:space="preserve">Замша</t>
+    <t xml:space="preserve">Натуральная замша</t>
   </si>
   <si>
     <t xml:space="preserve">Этиленвинилацетат</t>
@@ -3767,7 +3767,7 @@
     <numFmt numFmtId="168" formatCode="[$-419]dd\.mm\.yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4033,12 +4033,6 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4667,11 +4661,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="37" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4695,7 +4689,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -35660,8 +35654,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35761,7 +35755,7 @@
       <c r="F3" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="89" t="s">
         <v>105</v>
       </c>
       <c r="H3" s="0" t="s">
@@ -36303,7 +36297,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="90" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="0" t="s">

--- a/app/download_dir/system_files/обувь_по коробам.xlsx
+++ b/app/download_dir/system_files/обувь_по коробам.xlsx
@@ -4885,8 +4885,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1702"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35559,7 +35559,7 @@
   <mergeCells count="1">
     <mergeCell ref="R6:T6"/>
   </mergeCells>
-  <dataValidations count="19">
+  <dataValidations count="16">
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H6 K101:L101 N101:P101" type="textLength">
       <formula1>129</formula1>
       <formula2>0</formula2>
@@ -35592,10 +35592,6 @@
       <formula1>Справочники!$I$2:$I$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H1608:H1623" type="list">
-      <formula1>Справочники!$C$2:$C$96</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M8" type="list">
       <formula1>Справочники!$A$2:$A$246</formula1>
       <formula2>0</formula2>
@@ -35606,18 +35602,6 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R7:R1702" type="list">
       <formula1>Справочники!$J$2:$J$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H7" type="list">
-      <formula1>Справочники!$C$2:$C$112</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H8" type="list">
-      <formula1>Справочники!$C$2:$C$112</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H9:H1607" type="list">
-      <formula1>Справочники!$C$2:$C$112</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:D8" type="list">
@@ -35634,6 +35618,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="M9:M1600" type="list">
       <formula1>Справочники!$A$2:$A$243</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H2686" type="textLength">
+      <formula1>100</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -35654,7 +35642,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>

--- a/app/download_dir/system_files/обувь_по коробам.xlsx
+++ b/app/download_dir/system_files/обувь_по коробам.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1017">
   <si>
     <t xml:space="preserve">V_MANUFACTURER_CODE</t>
   </si>
@@ -840,7 +840,7 @@
     <t xml:space="preserve">Полиэфир</t>
   </si>
   <si>
-    <t xml:space="preserve">БЕЛОРУССИЯ</t>
+    <t xml:space="preserve">БЕЛАРУСЬ</t>
   </si>
   <si>
     <t xml:space="preserve">БОТЫ СПЕЦИАЛЬНЫЕ</t>
@@ -1188,7 +1188,7 @@
     <t xml:space="preserve">Экозамша</t>
   </si>
   <si>
-    <t xml:space="preserve">ВЕЛИКОБРИТАНИЯ</t>
+    <t xml:space="preserve">СОЕДИНЕННОЕ КОРОЛЕВСТВО</t>
   </si>
   <si>
     <t xml:space="preserve">ДОМАШНЯЯ ОБУВЬ</t>
@@ -2082,7 +2082,7 @@
     <t xml:space="preserve">&lt;6405100001&gt; -- с подошвой из дерева или пробки</t>
   </si>
   <si>
-    <t xml:space="preserve">СЕВЕРНАЯ КОРЕЯ</t>
+    <t xml:space="preserve">КОСТА-РИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ТОПСАЙДЕРЫ</t>
@@ -2097,7 +2097,7 @@
     <t xml:space="preserve">&lt;6405100009&gt; -- с подошвой из других материалов</t>
   </si>
   <si>
-    <t xml:space="preserve">КОСТА-РИКА</t>
+    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
   </si>
   <si>
     <t xml:space="preserve">ТУФЛИ</t>
@@ -2112,7 +2112,7 @@
     <t xml:space="preserve">&lt;6405100000&gt; - с верхом из натуральной или композиционной кожи</t>
   </si>
   <si>
-    <t xml:space="preserve">КОТ-Д'ИВУАР</t>
+    <t xml:space="preserve">КУБА</t>
   </si>
   <si>
     <t xml:space="preserve">ТУФЛИ ДЛЯ ХОЖДЕНИЯ ПО КОРАЛЛАМ</t>
@@ -2124,7 +2124,7 @@
     <t xml:space="preserve">34-35</t>
   </si>
   <si>
-    <t xml:space="preserve">КУБА</t>
+    <t xml:space="preserve">КУВЕЙТ</t>
   </si>
   <si>
     <t xml:space="preserve">ТУФЛИ ДОМАШНИЕ/КОМНАТНЫЕ</t>
@@ -2136,7 +2136,7 @@
     <t xml:space="preserve">35-36</t>
   </si>
   <si>
-    <t xml:space="preserve">КУВЕЙТ</t>
+    <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
     <t xml:space="preserve">ТУФЛИ КУПАЛЬНЫЕ</t>
@@ -2148,7 +2148,7 @@
     <t xml:space="preserve">36-37</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
+    <t xml:space="preserve">ЛАТВИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТУФЛИ ЛЕТНИЕ</t>
@@ -2160,7 +2160,7 @@
     <t xml:space="preserve">37-38</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛАТВИЯ</t>
+    <t xml:space="preserve">ЛЕСОТО</t>
   </si>
   <si>
     <t xml:space="preserve">ТУФЛИ ПЛЯЖНЫЕ</t>
@@ -2172,7 +2172,7 @@
     <t xml:space="preserve">38-39</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛЕСОТО</t>
+    <t xml:space="preserve">ЛИБЕРИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТУФЛИ ПРОИЗВОДСТВЕННЫЕ</t>
@@ -2184,7 +2184,7 @@
     <t xml:space="preserve">39-40</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИБЕРИЯ</t>
+    <t xml:space="preserve">ЛИВАН</t>
   </si>
   <si>
     <t xml:space="preserve">ТУФЛИ СПЕЦИАЛЬНЫЕ</t>
@@ -2196,7 +2196,7 @@
     <t xml:space="preserve">40-41</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИВАН</t>
+    <t xml:space="preserve">ЛИВИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ТУФЛИ ТАНЦЕВАЛЬНЫЕ</t>
@@ -2208,7 +2208,7 @@
     <t xml:space="preserve">41-42</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИВИЯ</t>
+    <t xml:space="preserve">ЛИТВА</t>
   </si>
   <si>
     <t xml:space="preserve">УГГИ</t>
@@ -2220,7 +2220,7 @@
     <t xml:space="preserve">42-43</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИТВА</t>
+    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
   </si>
   <si>
     <t xml:space="preserve">УНТЫ</t>
@@ -2232,7 +2232,7 @@
     <t xml:space="preserve">43-44</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛИХТЕНШТЕЙН</t>
+    <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
   </si>
   <si>
     <t xml:space="preserve">ЧЕЛСИ</t>
@@ -2244,7 +2244,7 @@
     <t xml:space="preserve">44-45</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
+    <t xml:space="preserve">МАВРИКИЙ</t>
   </si>
   <si>
     <t xml:space="preserve">ЧЕШКИ</t>
@@ -2253,7 +2253,7 @@
     <t xml:space="preserve">45-46</t>
   </si>
   <si>
-    <t xml:space="preserve">МАВРИКИЙ</t>
+    <t xml:space="preserve">МАВРИТАНИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">ЧУВЯКИ</t>
@@ -2262,7 +2262,7 @@
     <t xml:space="preserve">46-47</t>
   </si>
   <si>
-    <t xml:space="preserve">МАВРИТАНИЯ</t>
+    <t xml:space="preserve">МАДАГАСКАР</t>
   </si>
   <si>
     <t xml:space="preserve">ЧУНИ</t>
@@ -2271,7 +2271,7 @@
     <t xml:space="preserve">47-48</t>
   </si>
   <si>
-    <t xml:space="preserve">МАДАГАСКАР</t>
+    <t xml:space="preserve">МАЙОТТА</t>
   </si>
   <si>
     <t xml:space="preserve">ШИПОВКИ</t>
@@ -2280,7 +2280,7 @@
     <t xml:space="preserve">48-49</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЙОТТА</t>
+    <t xml:space="preserve">МАКАО</t>
   </si>
   <si>
     <t xml:space="preserve">ШЛЕПАНЦЫ</t>
@@ -2289,7 +2289,7 @@
     <t xml:space="preserve">49-50</t>
   </si>
   <si>
-    <t xml:space="preserve">МАКАО</t>
+    <t xml:space="preserve">МАЛАВИ</t>
   </si>
   <si>
     <t xml:space="preserve">ЭСПАДРИЛЬИ</t>
@@ -2298,15 +2298,12 @@
     <t xml:space="preserve">50-51</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛАВИ</t>
+    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
   </si>
   <si>
     <t xml:space="preserve">51-52</t>
   </si>
   <si>
-    <t xml:space="preserve">МАЛАЙЗИИЯ</t>
-  </si>
-  <si>
     <t xml:space="preserve">МАЛИ</t>
   </si>
   <si>
@@ -2385,7 +2382,7 @@
     <t xml:space="preserve">НОРВЕГИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">ОАЭ</t>
+    <t xml:space="preserve">ОБЪЕДИНЕННЫЕ АРАБСКИЕ ЭМИРАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">ОМАН</t>
@@ -2442,7 +2439,7 @@
     <t xml:space="preserve">РЕСПУБЛИКА КОНГО</t>
   </si>
   <si>
-    <t xml:space="preserve">ЮЖНАЯ КОРЕЯ</t>
+    <t xml:space="preserve">РЕСПУБЛИКА КОРЕЯ</t>
   </si>
   <si>
     <t xml:space="preserve">РЕСПУБЛИКА МАКЕДОНИЯ, БЫВШАЯ ЮГОСЛАВСКАЯ РЕСПУБЛИКА</t>
@@ -2514,7 +2511,7 @@
     <t xml:space="preserve">СЛОВЕНИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">США</t>
+    <t xml:space="preserve">СОЕДИНЕННЫЕ ШТАТЫ</t>
   </si>
   <si>
     <t xml:space="preserve">СОЛОМОНОВЫ ОСТРОВА</t>
@@ -3767,7 +3764,7 @@
     <numFmt numFmtId="168" formatCode="[$-419]dd\.mm\.yyyy"/>
     <numFmt numFmtId="169" formatCode="General"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4035,13 +4032,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF63666A"/>
       <name val="Arial"/>
@@ -4304,7 +4294,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4665,10 +4655,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4689,7 +4675,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -35642,8 +35628,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A243" activeCellId="0" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36285,7 +36271,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="84" t="s">
         <v>262</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -38418,7 +38404,7 @@
       <c r="E168" s="84"/>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="90" t="s">
+      <c r="A169" s="84" t="s">
         <v>799</v>
       </c>
       <c r="B169" s="84"/>
@@ -39040,7 +39026,7 @@
     </row>
     <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="84" t="s">
-        <v>868</v>
+        <v>83</v>
       </c>
       <c r="B238" s="84"/>
       <c r="C238" s="84"/>
@@ -39049,7 +39035,7 @@
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="84" t="s">
-        <v>83</v>
+        <v>868</v>
       </c>
       <c r="B239" s="84"/>
       <c r="C239" s="84"/>
@@ -39084,2286 +39070,2284 @@
       <c r="E242" s="84"/>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="84" t="s">
-        <v>872</v>
-      </c>
+      <c r="A243" s="84"/>
       <c r="B243" s="84"/>
       <c r="D243" s="84"/>
       <c r="E243" s="84"/>
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="84"/>
-      <c r="E244" s="91"/>
+      <c r="E244" s="90"/>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="84"/>
-      <c r="E245" s="91"/>
+      <c r="E245" s="90"/>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="84"/>
-      <c r="E246" s="91"/>
+      <c r="E246" s="90"/>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E247" s="91"/>
+      <c r="E247" s="90"/>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E248" s="91"/>
+      <c r="E248" s="90"/>
     </row>
     <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E249" s="91"/>
+      <c r="E249" s="90"/>
     </row>
     <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E250" s="91"/>
+      <c r="E250" s="90"/>
     </row>
     <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E251" s="91"/>
+      <c r="E251" s="90"/>
     </row>
     <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E252" s="91"/>
+      <c r="E252" s="90"/>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E253" s="91"/>
+      <c r="E253" s="90"/>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E254" s="91"/>
+      <c r="E254" s="90"/>
     </row>
     <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E255" s="91"/>
+      <c r="E255" s="90"/>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E256" s="91"/>
+      <c r="E256" s="90"/>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E257" s="91"/>
+      <c r="E257" s="90"/>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E258" s="91"/>
+      <c r="E258" s="90"/>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E259" s="91"/>
+      <c r="E259" s="90"/>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E260" s="91"/>
+      <c r="E260" s="90"/>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E261" s="91"/>
+      <c r="E261" s="90"/>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E262" s="91"/>
+      <c r="E262" s="90"/>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E263" s="91"/>
+      <c r="E263" s="90"/>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E264" s="91"/>
+      <c r="E264" s="90"/>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E265" s="91"/>
+      <c r="E265" s="90"/>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E266" s="91"/>
+      <c r="E266" s="90"/>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E267" s="91"/>
+      <c r="E267" s="90"/>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E268" s="91"/>
+      <c r="E268" s="90"/>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E269" s="91"/>
+      <c r="E269" s="90"/>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E270" s="91"/>
+      <c r="E270" s="90"/>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E271" s="91"/>
+      <c r="E271" s="90"/>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E272" s="91"/>
+      <c r="E272" s="90"/>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E273" s="91"/>
+      <c r="E273" s="90"/>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E274" s="91"/>
+      <c r="E274" s="90"/>
     </row>
     <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E275" s="91"/>
+      <c r="E275" s="90"/>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E276" s="91"/>
+      <c r="E276" s="90"/>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E277" s="91"/>
+      <c r="E277" s="90"/>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E278" s="91"/>
+      <c r="E278" s="90"/>
     </row>
     <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E279" s="91"/>
+      <c r="E279" s="90"/>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E280" s="91"/>
+      <c r="E280" s="90"/>
     </row>
     <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E281" s="91"/>
+      <c r="E281" s="90"/>
     </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E282" s="91"/>
+      <c r="E282" s="90"/>
     </row>
     <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E283" s="91"/>
+      <c r="E283" s="90"/>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E284" s="91"/>
+      <c r="E284" s="90"/>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E285" s="91"/>
+      <c r="E285" s="90"/>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E286" s="91"/>
+      <c r="E286" s="90"/>
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E287" s="91"/>
+      <c r="E287" s="90"/>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E288" s="91"/>
+      <c r="E288" s="90"/>
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E289" s="91"/>
+      <c r="E289" s="90"/>
     </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E290" s="91"/>
+      <c r="E290" s="90"/>
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E291" s="91"/>
+      <c r="E291" s="90"/>
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E292" s="91"/>
+      <c r="E292" s="90"/>
     </row>
     <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E293" s="91"/>
+      <c r="E293" s="90"/>
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E294" s="91"/>
+      <c r="E294" s="90"/>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E295" s="91"/>
+      <c r="E295" s="90"/>
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E296" s="91"/>
+      <c r="E296" s="90"/>
     </row>
     <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E297" s="91"/>
+      <c r="E297" s="90"/>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E298" s="91"/>
+      <c r="E298" s="90"/>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E299" s="91"/>
+      <c r="E299" s="90"/>
     </row>
     <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E300" s="91"/>
+      <c r="E300" s="90"/>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E301" s="91"/>
+      <c r="E301" s="90"/>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E302" s="91"/>
+      <c r="E302" s="90"/>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E303" s="91"/>
+      <c r="E303" s="90"/>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E304" s="91"/>
+      <c r="E304" s="90"/>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E305" s="91"/>
+      <c r="E305" s="90"/>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E306" s="91"/>
+      <c r="E306" s="90"/>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E307" s="91"/>
+      <c r="E307" s="90"/>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E308" s="91"/>
+      <c r="E308" s="90"/>
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E309" s="91"/>
+      <c r="E309" s="90"/>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E310" s="91"/>
+      <c r="E310" s="90"/>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E311" s="91"/>
+      <c r="E311" s="90"/>
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E312" s="91"/>
+      <c r="E312" s="90"/>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E313" s="91"/>
+      <c r="E313" s="90"/>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E314" s="91"/>
+      <c r="E314" s="90"/>
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E315" s="91"/>
+      <c r="E315" s="90"/>
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E316" s="91"/>
+      <c r="E316" s="90"/>
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E317" s="91"/>
+      <c r="E317" s="90"/>
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E318" s="91"/>
+      <c r="E318" s="90"/>
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E319" s="91"/>
+      <c r="E319" s="90"/>
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E320" s="91"/>
+      <c r="E320" s="90"/>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E321" s="91"/>
+      <c r="E321" s="90"/>
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E322" s="91"/>
+      <c r="E322" s="90"/>
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E323" s="91"/>
+      <c r="E323" s="90"/>
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E324" s="91"/>
+      <c r="E324" s="90"/>
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E325" s="91"/>
+      <c r="E325" s="90"/>
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E326" s="91"/>
+      <c r="E326" s="90"/>
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E327" s="91"/>
+      <c r="E327" s="90"/>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E328" s="91"/>
+      <c r="E328" s="90"/>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E329" s="91"/>
+      <c r="E329" s="90"/>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E330" s="91"/>
+      <c r="E330" s="90"/>
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E331" s="91"/>
+      <c r="E331" s="90"/>
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E332" s="91"/>
+      <c r="E332" s="90"/>
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E333" s="91"/>
+      <c r="E333" s="90"/>
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E334" s="91"/>
+      <c r="E334" s="90"/>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E335" s="91"/>
+      <c r="E335" s="90"/>
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E336" s="91"/>
+      <c r="E336" s="90"/>
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E337" s="91"/>
+      <c r="E337" s="90"/>
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E338" s="91"/>
+      <c r="E338" s="90"/>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E339" s="91"/>
+      <c r="E339" s="90"/>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E340" s="91"/>
+      <c r="E340" s="90"/>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E341" s="91"/>
+      <c r="E341" s="90"/>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E342" s="91"/>
+      <c r="E342" s="90"/>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E343" s="91"/>
+      <c r="E343" s="90"/>
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E344" s="91"/>
+      <c r="E344" s="90"/>
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E345" s="91"/>
+      <c r="E345" s="90"/>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E346" s="91"/>
+      <c r="E346" s="90"/>
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E347" s="91"/>
+      <c r="E347" s="90"/>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E348" s="91"/>
+      <c r="E348" s="90"/>
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E349" s="91"/>
+      <c r="E349" s="90"/>
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E350" s="91"/>
+      <c r="E350" s="90"/>
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E351" s="91"/>
+      <c r="E351" s="90"/>
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E352" s="91"/>
+      <c r="E352" s="90"/>
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E353" s="91"/>
+      <c r="E353" s="90"/>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E354" s="91"/>
+      <c r="E354" s="90"/>
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E355" s="91"/>
+      <c r="E355" s="90"/>
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E356" s="91"/>
+      <c r="E356" s="90"/>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E357" s="91"/>
+      <c r="E357" s="90"/>
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E358" s="91"/>
+      <c r="E358" s="90"/>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E359" s="91"/>
+      <c r="E359" s="90"/>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E360" s="91"/>
+      <c r="E360" s="90"/>
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E361" s="91"/>
+      <c r="E361" s="90"/>
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E362" s="91"/>
+      <c r="E362" s="90"/>
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E363" s="91"/>
+      <c r="E363" s="90"/>
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E364" s="91"/>
+      <c r="E364" s="90"/>
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E365" s="91"/>
+      <c r="E365" s="90"/>
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E366" s="91"/>
+      <c r="E366" s="90"/>
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E367" s="91"/>
+      <c r="E367" s="90"/>
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E368" s="91"/>
+      <c r="E368" s="90"/>
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E369" s="91"/>
+      <c r="E369" s="90"/>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E370" s="91"/>
+      <c r="E370" s="90"/>
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E371" s="91"/>
+      <c r="E371" s="90"/>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E372" s="91"/>
+      <c r="E372" s="90"/>
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E373" s="91"/>
+      <c r="E373" s="90"/>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E374" s="91"/>
+      <c r="E374" s="90"/>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E375" s="91"/>
+      <c r="E375" s="90"/>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E376" s="91"/>
+      <c r="E376" s="90"/>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E377" s="91"/>
+      <c r="E377" s="90"/>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E378" s="91"/>
+      <c r="E378" s="90"/>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E379" s="91"/>
+      <c r="E379" s="90"/>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E380" s="91"/>
+      <c r="E380" s="90"/>
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E381" s="91"/>
+      <c r="E381" s="90"/>
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E382" s="91"/>
+      <c r="E382" s="90"/>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E383" s="91"/>
+      <c r="E383" s="90"/>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E384" s="91"/>
+      <c r="E384" s="90"/>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E385" s="91"/>
+      <c r="E385" s="90"/>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E386" s="91"/>
+      <c r="E386" s="90"/>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E387" s="91"/>
+      <c r="E387" s="90"/>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E388" s="91"/>
+      <c r="E388" s="90"/>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E389" s="91"/>
+      <c r="E389" s="90"/>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E390" s="91"/>
+      <c r="E390" s="90"/>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E391" s="91"/>
+      <c r="E391" s="90"/>
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E392" s="91"/>
+      <c r="E392" s="90"/>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E393" s="91"/>
+      <c r="E393" s="90"/>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E394" s="91"/>
+      <c r="E394" s="90"/>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E395" s="91"/>
+      <c r="E395" s="90"/>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E396" s="91"/>
+      <c r="E396" s="90"/>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E397" s="91"/>
+      <c r="E397" s="90"/>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E398" s="91"/>
+      <c r="E398" s="90"/>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E399" s="91"/>
+      <c r="E399" s="90"/>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E400" s="91"/>
+      <c r="E400" s="90"/>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E401" s="91"/>
+      <c r="E401" s="90"/>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E402" s="91"/>
+      <c r="E402" s="90"/>
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E403" s="91"/>
+      <c r="E403" s="90"/>
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E404" s="91"/>
+      <c r="E404" s="90"/>
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E405" s="91"/>
+      <c r="E405" s="90"/>
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E406" s="91"/>
+      <c r="E406" s="90"/>
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E407" s="91"/>
+      <c r="E407" s="90"/>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E408" s="91"/>
+      <c r="E408" s="90"/>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E409" s="91"/>
+      <c r="E409" s="90"/>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E410" s="91"/>
+      <c r="E410" s="90"/>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E411" s="91"/>
+      <c r="E411" s="90"/>
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E412" s="91"/>
+      <c r="E412" s="90"/>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E413" s="91"/>
+      <c r="E413" s="90"/>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E414" s="91"/>
+      <c r="E414" s="90"/>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E415" s="91"/>
+      <c r="E415" s="90"/>
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E416" s="91"/>
+      <c r="E416" s="90"/>
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E417" s="91"/>
+      <c r="E417" s="90"/>
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E418" s="91"/>
+      <c r="E418" s="90"/>
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E419" s="91"/>
+      <c r="E419" s="90"/>
     </row>
     <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E420" s="91"/>
+      <c r="E420" s="90"/>
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E421" s="91"/>
+      <c r="E421" s="90"/>
     </row>
     <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E422" s="91"/>
+      <c r="E422" s="90"/>
     </row>
     <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E423" s="91"/>
+      <c r="E423" s="90"/>
     </row>
     <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E424" s="91"/>
+      <c r="E424" s="90"/>
     </row>
     <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E425" s="91"/>
+      <c r="E425" s="90"/>
     </row>
     <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E426" s="91"/>
+      <c r="E426" s="90"/>
     </row>
     <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E427" s="91"/>
+      <c r="E427" s="90"/>
     </row>
     <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E428" s="91"/>
+      <c r="E428" s="90"/>
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E429" s="91"/>
+      <c r="E429" s="90"/>
     </row>
     <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E430" s="91"/>
+      <c r="E430" s="90"/>
     </row>
     <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E431" s="91"/>
+      <c r="E431" s="90"/>
     </row>
     <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E432" s="91"/>
+      <c r="E432" s="90"/>
     </row>
     <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E433" s="91"/>
+      <c r="E433" s="90"/>
     </row>
     <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E434" s="91"/>
+      <c r="E434" s="90"/>
     </row>
     <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E435" s="91"/>
+      <c r="E435" s="90"/>
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E436" s="91"/>
+      <c r="E436" s="90"/>
     </row>
     <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E437" s="91"/>
+      <c r="E437" s="90"/>
     </row>
     <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E438" s="91"/>
+      <c r="E438" s="90"/>
     </row>
     <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E439" s="91"/>
+      <c r="E439" s="90"/>
     </row>
     <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E440" s="91"/>
+      <c r="E440" s="90"/>
     </row>
     <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E441" s="91"/>
+      <c r="E441" s="90"/>
     </row>
     <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E442" s="91"/>
+      <c r="E442" s="90"/>
     </row>
     <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E443" s="91"/>
+      <c r="E443" s="90"/>
     </row>
     <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E444" s="91"/>
+      <c r="E444" s="90"/>
     </row>
     <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E445" s="91"/>
+      <c r="E445" s="90"/>
     </row>
     <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E446" s="91"/>
+      <c r="E446" s="90"/>
     </row>
     <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E447" s="91"/>
+      <c r="E447" s="90"/>
     </row>
     <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E448" s="91"/>
+      <c r="E448" s="90"/>
     </row>
     <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E449" s="91"/>
+      <c r="E449" s="90"/>
     </row>
     <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E450" s="91"/>
+      <c r="E450" s="90"/>
     </row>
     <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E451" s="91"/>
+      <c r="E451" s="90"/>
     </row>
     <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E452" s="91"/>
+      <c r="E452" s="90"/>
     </row>
     <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E453" s="91"/>
+      <c r="E453" s="90"/>
     </row>
     <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E454" s="91"/>
+      <c r="E454" s="90"/>
     </row>
     <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E455" s="91"/>
+      <c r="E455" s="90"/>
     </row>
     <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E456" s="91"/>
+      <c r="E456" s="90"/>
     </row>
     <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E457" s="91"/>
+      <c r="E457" s="90"/>
     </row>
     <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E458" s="91"/>
+      <c r="E458" s="90"/>
     </row>
     <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E459" s="91"/>
+      <c r="E459" s="90"/>
     </row>
     <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E460" s="91"/>
+      <c r="E460" s="90"/>
     </row>
     <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E461" s="91"/>
+      <c r="E461" s="90"/>
     </row>
     <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E462" s="91"/>
+      <c r="E462" s="90"/>
     </row>
     <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E463" s="91"/>
+      <c r="E463" s="90"/>
     </row>
     <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E464" s="91"/>
+      <c r="E464" s="90"/>
     </row>
     <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E465" s="91"/>
+      <c r="E465" s="90"/>
     </row>
     <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E466" s="91"/>
+      <c r="E466" s="90"/>
     </row>
     <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E467" s="91"/>
+      <c r="E467" s="90"/>
     </row>
     <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E468" s="91"/>
+      <c r="E468" s="90"/>
     </row>
     <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E469" s="91"/>
+      <c r="E469" s="90"/>
     </row>
     <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E470" s="91"/>
+      <c r="E470" s="90"/>
     </row>
     <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E471" s="91"/>
+      <c r="E471" s="90"/>
     </row>
     <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E472" s="91"/>
+      <c r="E472" s="90"/>
     </row>
     <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E473" s="91"/>
+      <c r="E473" s="90"/>
     </row>
     <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E474" s="91"/>
+      <c r="E474" s="90"/>
     </row>
     <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E475" s="91"/>
+      <c r="E475" s="90"/>
     </row>
     <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E476" s="91"/>
+      <c r="E476" s="90"/>
     </row>
     <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E477" s="91"/>
+      <c r="E477" s="90"/>
     </row>
     <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E478" s="91"/>
+      <c r="E478" s="90"/>
     </row>
     <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E479" s="91"/>
+      <c r="E479" s="90"/>
     </row>
     <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E480" s="91"/>
+      <c r="E480" s="90"/>
     </row>
     <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E481" s="91"/>
+      <c r="E481" s="90"/>
     </row>
     <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E482" s="91"/>
+      <c r="E482" s="90"/>
     </row>
     <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E483" s="91"/>
+      <c r="E483" s="90"/>
     </row>
     <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E484" s="91"/>
+      <c r="E484" s="90"/>
     </row>
     <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E485" s="91"/>
+      <c r="E485" s="90"/>
     </row>
     <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E486" s="91"/>
+      <c r="E486" s="90"/>
     </row>
     <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E487" s="91"/>
+      <c r="E487" s="90"/>
     </row>
     <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E488" s="91"/>
+      <c r="E488" s="90"/>
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E489" s="91"/>
+      <c r="E489" s="90"/>
     </row>
     <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E490" s="91"/>
+      <c r="E490" s="90"/>
     </row>
     <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E491" s="91"/>
+      <c r="E491" s="90"/>
     </row>
     <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E492" s="91"/>
+      <c r="E492" s="90"/>
     </row>
     <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E493" s="91"/>
+      <c r="E493" s="90"/>
     </row>
     <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E494" s="91"/>
+      <c r="E494" s="90"/>
     </row>
     <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E495" s="91"/>
+      <c r="E495" s="90"/>
     </row>
     <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E496" s="91"/>
+      <c r="E496" s="90"/>
     </row>
     <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E497" s="91"/>
+      <c r="E497" s="90"/>
     </row>
     <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E498" s="91"/>
+      <c r="E498" s="90"/>
     </row>
     <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E499" s="91"/>
+      <c r="E499" s="90"/>
     </row>
     <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E500" s="91"/>
+      <c r="E500" s="90"/>
     </row>
     <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E501" s="91"/>
+      <c r="E501" s="90"/>
     </row>
     <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E502" s="91"/>
+      <c r="E502" s="90"/>
     </row>
     <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E503" s="91"/>
+      <c r="E503" s="90"/>
     </row>
     <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E504" s="91"/>
+      <c r="E504" s="90"/>
     </row>
     <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E505" s="91"/>
+      <c r="E505" s="90"/>
     </row>
     <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E506" s="91"/>
+      <c r="E506" s="90"/>
     </row>
     <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E507" s="91"/>
+      <c r="E507" s="90"/>
     </row>
     <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E508" s="91"/>
+      <c r="E508" s="90"/>
     </row>
     <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E509" s="91"/>
+      <c r="E509" s="90"/>
     </row>
     <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E510" s="91"/>
+      <c r="E510" s="90"/>
     </row>
     <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E511" s="91"/>
+      <c r="E511" s="90"/>
     </row>
     <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E512" s="91"/>
+      <c r="E512" s="90"/>
     </row>
     <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E513" s="91"/>
+      <c r="E513" s="90"/>
     </row>
     <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E514" s="91"/>
+      <c r="E514" s="90"/>
     </row>
     <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E515" s="91"/>
+      <c r="E515" s="90"/>
     </row>
     <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E516" s="91"/>
+      <c r="E516" s="90"/>
     </row>
     <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E517" s="91"/>
+      <c r="E517" s="90"/>
     </row>
     <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E518" s="91"/>
+      <c r="E518" s="90"/>
     </row>
     <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E519" s="91"/>
+      <c r="E519" s="90"/>
     </row>
     <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E520" s="91"/>
+      <c r="E520" s="90"/>
     </row>
     <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E521" s="91"/>
+      <c r="E521" s="90"/>
     </row>
     <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E522" s="91"/>
+      <c r="E522" s="90"/>
     </row>
     <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E523" s="91"/>
+      <c r="E523" s="90"/>
     </row>
     <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E524" s="91"/>
+      <c r="E524" s="90"/>
     </row>
     <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E525" s="91"/>
+      <c r="E525" s="90"/>
     </row>
     <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E526" s="91"/>
+      <c r="E526" s="90"/>
     </row>
     <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E527" s="91"/>
+      <c r="E527" s="90"/>
     </row>
     <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E528" s="91"/>
+      <c r="E528" s="90"/>
     </row>
     <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E529" s="91"/>
+      <c r="E529" s="90"/>
     </row>
     <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E530" s="91"/>
+      <c r="E530" s="90"/>
     </row>
     <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E531" s="91"/>
+      <c r="E531" s="90"/>
     </row>
     <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E532" s="91"/>
+      <c r="E532" s="90"/>
     </row>
     <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E533" s="91"/>
+      <c r="E533" s="90"/>
     </row>
     <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E534" s="91"/>
+      <c r="E534" s="90"/>
     </row>
     <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E535" s="91"/>
+      <c r="E535" s="90"/>
     </row>
     <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E536" s="91"/>
+      <c r="E536" s="90"/>
     </row>
     <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E537" s="91"/>
+      <c r="E537" s="90"/>
     </row>
     <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E538" s="91"/>
+      <c r="E538" s="90"/>
     </row>
     <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E539" s="91"/>
+      <c r="E539" s="90"/>
     </row>
     <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E540" s="91"/>
+      <c r="E540" s="90"/>
     </row>
     <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E541" s="91"/>
+      <c r="E541" s="90"/>
     </row>
     <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E542" s="91"/>
+      <c r="E542" s="90"/>
     </row>
     <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E543" s="91"/>
+      <c r="E543" s="90"/>
     </row>
     <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E544" s="91"/>
+      <c r="E544" s="90"/>
     </row>
     <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E545" s="91"/>
+      <c r="E545" s="90"/>
     </row>
     <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E546" s="91"/>
+      <c r="E546" s="90"/>
     </row>
     <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E547" s="91"/>
+      <c r="E547" s="90"/>
     </row>
     <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E548" s="91"/>
+      <c r="E548" s="90"/>
     </row>
     <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E549" s="91"/>
+      <c r="E549" s="90"/>
     </row>
     <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E550" s="91"/>
+      <c r="E550" s="90"/>
     </row>
     <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E551" s="91"/>
+      <c r="E551" s="90"/>
     </row>
     <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E552" s="91"/>
+      <c r="E552" s="90"/>
     </row>
     <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E553" s="91"/>
+      <c r="E553" s="90"/>
     </row>
     <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E554" s="91"/>
+      <c r="E554" s="90"/>
     </row>
     <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E555" s="91"/>
+      <c r="E555" s="90"/>
     </row>
     <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E556" s="91"/>
+      <c r="E556" s="90"/>
     </row>
     <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E557" s="91"/>
+      <c r="E557" s="90"/>
     </row>
     <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E558" s="91"/>
+      <c r="E558" s="90"/>
     </row>
     <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E559" s="91"/>
+      <c r="E559" s="90"/>
     </row>
     <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E560" s="91"/>
+      <c r="E560" s="90"/>
     </row>
     <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E561" s="91"/>
+      <c r="E561" s="90"/>
     </row>
     <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E562" s="91"/>
+      <c r="E562" s="90"/>
     </row>
     <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E563" s="91"/>
+      <c r="E563" s="90"/>
     </row>
     <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E564" s="91"/>
+      <c r="E564" s="90"/>
     </row>
     <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E565" s="91"/>
+      <c r="E565" s="90"/>
     </row>
     <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E566" s="91"/>
+      <c r="E566" s="90"/>
     </row>
     <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E567" s="91"/>
+      <c r="E567" s="90"/>
     </row>
     <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E568" s="91"/>
+      <c r="E568" s="90"/>
     </row>
     <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E569" s="91"/>
+      <c r="E569" s="90"/>
     </row>
     <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E570" s="91"/>
+      <c r="E570" s="90"/>
     </row>
     <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E571" s="91"/>
+      <c r="E571" s="90"/>
     </row>
     <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E572" s="91"/>
+      <c r="E572" s="90"/>
     </row>
     <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E573" s="91"/>
+      <c r="E573" s="90"/>
     </row>
     <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E574" s="91"/>
+      <c r="E574" s="90"/>
     </row>
     <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E575" s="91"/>
+      <c r="E575" s="90"/>
     </row>
     <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E576" s="91"/>
+      <c r="E576" s="90"/>
     </row>
     <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E577" s="91"/>
+      <c r="E577" s="90"/>
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E578" s="91"/>
+      <c r="E578" s="90"/>
     </row>
     <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E579" s="91"/>
+      <c r="E579" s="90"/>
     </row>
     <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E580" s="91"/>
+      <c r="E580" s="90"/>
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E581" s="91"/>
+      <c r="E581" s="90"/>
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E582" s="91"/>
+      <c r="E582" s="90"/>
     </row>
     <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E583" s="91"/>
+      <c r="E583" s="90"/>
     </row>
     <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E584" s="91"/>
+      <c r="E584" s="90"/>
     </row>
     <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E585" s="91"/>
+      <c r="E585" s="90"/>
     </row>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E586" s="91"/>
+      <c r="E586" s="90"/>
     </row>
     <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E587" s="91"/>
+      <c r="E587" s="90"/>
     </row>
     <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E588" s="91"/>
+      <c r="E588" s="90"/>
     </row>
     <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E589" s="91"/>
+      <c r="E589" s="90"/>
     </row>
     <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E590" s="91"/>
+      <c r="E590" s="90"/>
     </row>
     <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E591" s="91"/>
+      <c r="E591" s="90"/>
     </row>
     <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E592" s="91"/>
+      <c r="E592" s="90"/>
     </row>
     <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E593" s="91"/>
+      <c r="E593" s="90"/>
     </row>
     <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E594" s="91"/>
+      <c r="E594" s="90"/>
     </row>
     <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E595" s="91"/>
+      <c r="E595" s="90"/>
     </row>
     <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E596" s="91"/>
+      <c r="E596" s="90"/>
     </row>
     <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E597" s="91"/>
+      <c r="E597" s="90"/>
     </row>
     <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E598" s="91"/>
+      <c r="E598" s="90"/>
     </row>
     <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E599" s="91"/>
+      <c r="E599" s="90"/>
     </row>
     <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E600" s="91"/>
+      <c r="E600" s="90"/>
     </row>
     <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E601" s="91"/>
+      <c r="E601" s="90"/>
     </row>
     <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E602" s="91"/>
+      <c r="E602" s="90"/>
     </row>
     <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E603" s="91"/>
+      <c r="E603" s="90"/>
     </row>
     <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E604" s="91"/>
+      <c r="E604" s="90"/>
     </row>
     <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E605" s="91"/>
+      <c r="E605" s="90"/>
     </row>
     <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E606" s="91"/>
+      <c r="E606" s="90"/>
     </row>
     <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E607" s="91"/>
+      <c r="E607" s="90"/>
     </row>
     <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E608" s="91"/>
+      <c r="E608" s="90"/>
     </row>
     <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E609" s="91"/>
+      <c r="E609" s="90"/>
     </row>
     <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E610" s="91"/>
+      <c r="E610" s="90"/>
     </row>
     <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E611" s="91"/>
+      <c r="E611" s="90"/>
     </row>
     <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E612" s="91"/>
+      <c r="E612" s="90"/>
     </row>
     <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E613" s="91"/>
+      <c r="E613" s="90"/>
     </row>
     <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E614" s="91"/>
+      <c r="E614" s="90"/>
     </row>
     <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E615" s="91"/>
+      <c r="E615" s="90"/>
     </row>
     <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E616" s="91"/>
+      <c r="E616" s="90"/>
     </row>
     <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E617" s="91"/>
+      <c r="E617" s="90"/>
     </row>
     <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E618" s="91"/>
+      <c r="E618" s="90"/>
     </row>
     <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E619" s="91"/>
+      <c r="E619" s="90"/>
     </row>
     <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E620" s="91"/>
+      <c r="E620" s="90"/>
     </row>
     <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E621" s="91"/>
+      <c r="E621" s="90"/>
     </row>
     <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E622" s="91"/>
+      <c r="E622" s="90"/>
     </row>
     <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E623" s="91"/>
+      <c r="E623" s="90"/>
     </row>
     <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E624" s="91"/>
+      <c r="E624" s="90"/>
     </row>
     <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E625" s="91"/>
+      <c r="E625" s="90"/>
     </row>
     <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E626" s="91"/>
+      <c r="E626" s="90"/>
     </row>
     <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E627" s="91"/>
+      <c r="E627" s="90"/>
     </row>
     <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E628" s="91"/>
+      <c r="E628" s="90"/>
     </row>
     <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E629" s="91"/>
+      <c r="E629" s="90"/>
     </row>
     <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E630" s="91"/>
+      <c r="E630" s="90"/>
     </row>
     <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E631" s="91"/>
+      <c r="E631" s="90"/>
     </row>
     <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E632" s="91"/>
+      <c r="E632" s="90"/>
     </row>
     <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E633" s="91"/>
+      <c r="E633" s="90"/>
     </row>
     <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E634" s="91"/>
+      <c r="E634" s="90"/>
     </row>
     <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E635" s="91"/>
+      <c r="E635" s="90"/>
     </row>
     <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E636" s="91"/>
+      <c r="E636" s="90"/>
     </row>
     <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E637" s="91"/>
+      <c r="E637" s="90"/>
     </row>
     <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E638" s="91"/>
+      <c r="E638" s="90"/>
     </row>
     <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E639" s="91"/>
+      <c r="E639" s="90"/>
     </row>
     <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E640" s="91"/>
+      <c r="E640" s="90"/>
     </row>
     <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E641" s="91"/>
+      <c r="E641" s="90"/>
     </row>
     <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E642" s="91"/>
+      <c r="E642" s="90"/>
     </row>
     <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E643" s="91"/>
+      <c r="E643" s="90"/>
     </row>
     <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E644" s="91"/>
+      <c r="E644" s="90"/>
     </row>
     <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E645" s="91"/>
+      <c r="E645" s="90"/>
     </row>
     <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E646" s="91"/>
+      <c r="E646" s="90"/>
     </row>
     <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E647" s="91"/>
+      <c r="E647" s="90"/>
     </row>
     <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E648" s="91"/>
+      <c r="E648" s="90"/>
     </row>
     <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E649" s="91"/>
+      <c r="E649" s="90"/>
     </row>
     <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E650" s="91"/>
+      <c r="E650" s="90"/>
     </row>
     <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E651" s="91"/>
+      <c r="E651" s="90"/>
     </row>
     <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E652" s="91"/>
+      <c r="E652" s="90"/>
     </row>
     <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E653" s="91"/>
+      <c r="E653" s="90"/>
     </row>
     <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E654" s="91"/>
+      <c r="E654" s="90"/>
     </row>
     <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E655" s="91"/>
+      <c r="E655" s="90"/>
     </row>
     <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E656" s="91"/>
+      <c r="E656" s="90"/>
     </row>
     <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E657" s="91"/>
+      <c r="E657" s="90"/>
     </row>
     <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E658" s="91"/>
+      <c r="E658" s="90"/>
     </row>
     <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E659" s="91"/>
+      <c r="E659" s="90"/>
     </row>
     <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E660" s="91"/>
+      <c r="E660" s="90"/>
     </row>
     <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E661" s="91"/>
+      <c r="E661" s="90"/>
     </row>
     <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E662" s="91"/>
+      <c r="E662" s="90"/>
     </row>
     <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E663" s="91"/>
+      <c r="E663" s="90"/>
     </row>
     <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E664" s="91"/>
+      <c r="E664" s="90"/>
     </row>
     <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E665" s="91"/>
+      <c r="E665" s="90"/>
     </row>
     <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E666" s="91"/>
+      <c r="E666" s="90"/>
     </row>
     <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E667" s="91"/>
+      <c r="E667" s="90"/>
     </row>
     <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E668" s="91"/>
+      <c r="E668" s="90"/>
     </row>
     <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E669" s="91"/>
+      <c r="E669" s="90"/>
     </row>
     <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E670" s="91"/>
+      <c r="E670" s="90"/>
     </row>
     <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E671" s="91"/>
+      <c r="E671" s="90"/>
     </row>
     <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E672" s="91"/>
+      <c r="E672" s="90"/>
     </row>
     <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E673" s="91"/>
+      <c r="E673" s="90"/>
     </row>
     <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E674" s="91"/>
+      <c r="E674" s="90"/>
     </row>
     <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E675" s="91"/>
+      <c r="E675" s="90"/>
     </row>
     <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E676" s="91"/>
+      <c r="E676" s="90"/>
     </row>
     <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E677" s="91"/>
+      <c r="E677" s="90"/>
     </row>
     <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E678" s="91"/>
+      <c r="E678" s="90"/>
     </row>
     <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E679" s="91"/>
+      <c r="E679" s="90"/>
     </row>
     <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E680" s="91"/>
+      <c r="E680" s="90"/>
     </row>
     <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E681" s="91"/>
+      <c r="E681" s="90"/>
     </row>
     <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E682" s="91"/>
+      <c r="E682" s="90"/>
     </row>
     <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E683" s="91"/>
+      <c r="E683" s="90"/>
     </row>
     <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E684" s="91"/>
+      <c r="E684" s="90"/>
     </row>
     <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E685" s="91"/>
+      <c r="E685" s="90"/>
     </row>
     <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E686" s="91"/>
+      <c r="E686" s="90"/>
     </row>
     <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E687" s="91"/>
+      <c r="E687" s="90"/>
     </row>
     <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E688" s="91"/>
+      <c r="E688" s="90"/>
     </row>
     <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E689" s="91"/>
+      <c r="E689" s="90"/>
     </row>
     <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E690" s="91"/>
+      <c r="E690" s="90"/>
     </row>
     <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E691" s="91"/>
+      <c r="E691" s="90"/>
     </row>
     <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E692" s="91"/>
+      <c r="E692" s="90"/>
     </row>
     <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E693" s="91"/>
+      <c r="E693" s="90"/>
     </row>
     <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E694" s="91"/>
+      <c r="E694" s="90"/>
     </row>
     <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E695" s="91"/>
+      <c r="E695" s="90"/>
     </row>
     <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E696" s="91"/>
+      <c r="E696" s="90"/>
     </row>
     <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E697" s="91"/>
+      <c r="E697" s="90"/>
     </row>
     <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E698" s="91"/>
+      <c r="E698" s="90"/>
     </row>
     <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E699" s="91"/>
+      <c r="E699" s="90"/>
     </row>
     <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E700" s="91"/>
+      <c r="E700" s="90"/>
     </row>
     <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E701" s="91"/>
+      <c r="E701" s="90"/>
     </row>
     <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E702" s="91"/>
+      <c r="E702" s="90"/>
     </row>
     <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E703" s="91"/>
+      <c r="E703" s="90"/>
     </row>
     <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E704" s="91"/>
+      <c r="E704" s="90"/>
     </row>
     <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E705" s="91"/>
+      <c r="E705" s="90"/>
     </row>
     <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E706" s="91"/>
+      <c r="E706" s="90"/>
     </row>
     <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E707" s="91"/>
+      <c r="E707" s="90"/>
     </row>
     <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E708" s="91"/>
+      <c r="E708" s="90"/>
     </row>
     <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E709" s="91"/>
+      <c r="E709" s="90"/>
     </row>
     <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E710" s="91"/>
+      <c r="E710" s="90"/>
     </row>
     <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E711" s="91"/>
+      <c r="E711" s="90"/>
     </row>
     <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E712" s="91"/>
+      <c r="E712" s="90"/>
     </row>
     <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E713" s="91"/>
+      <c r="E713" s="90"/>
     </row>
     <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E714" s="91"/>
+      <c r="E714" s="90"/>
     </row>
     <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E715" s="91"/>
+      <c r="E715" s="90"/>
     </row>
     <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E716" s="91"/>
+      <c r="E716" s="90"/>
     </row>
     <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E717" s="91"/>
+      <c r="E717" s="90"/>
     </row>
     <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E718" s="91"/>
+      <c r="E718" s="90"/>
     </row>
     <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E719" s="91"/>
+      <c r="E719" s="90"/>
     </row>
     <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E720" s="91"/>
+      <c r="E720" s="90"/>
     </row>
     <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E721" s="91"/>
+      <c r="E721" s="90"/>
     </row>
     <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E722" s="91"/>
+      <c r="E722" s="90"/>
     </row>
     <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E723" s="91"/>
+      <c r="E723" s="90"/>
     </row>
     <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E724" s="91"/>
+      <c r="E724" s="90"/>
     </row>
     <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E725" s="91"/>
+      <c r="E725" s="90"/>
     </row>
     <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E726" s="91"/>
+      <c r="E726" s="90"/>
     </row>
     <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E727" s="91"/>
+      <c r="E727" s="90"/>
     </row>
     <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E728" s="91"/>
+      <c r="E728" s="90"/>
     </row>
     <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E729" s="91"/>
+      <c r="E729" s="90"/>
     </row>
     <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E730" s="91"/>
+      <c r="E730" s="90"/>
     </row>
     <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E731" s="91"/>
+      <c r="E731" s="90"/>
     </row>
     <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E732" s="91"/>
+      <c r="E732" s="90"/>
     </row>
     <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E733" s="91"/>
+      <c r="E733" s="90"/>
     </row>
     <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E734" s="91"/>
+      <c r="E734" s="90"/>
     </row>
     <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E735" s="91"/>
+      <c r="E735" s="90"/>
     </row>
     <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E736" s="91"/>
+      <c r="E736" s="90"/>
     </row>
     <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E737" s="91"/>
+      <c r="E737" s="90"/>
     </row>
     <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E738" s="91"/>
+      <c r="E738" s="90"/>
     </row>
     <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E739" s="91"/>
+      <c r="E739" s="90"/>
     </row>
     <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E740" s="91"/>
+      <c r="E740" s="90"/>
     </row>
     <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E741" s="91"/>
+      <c r="E741" s="90"/>
     </row>
     <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E742" s="91"/>
+      <c r="E742" s="90"/>
     </row>
     <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E743" s="91"/>
+      <c r="E743" s="90"/>
     </row>
     <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E744" s="91"/>
+      <c r="E744" s="90"/>
     </row>
     <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E745" s="91"/>
+      <c r="E745" s="90"/>
     </row>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E746" s="91"/>
+      <c r="E746" s="90"/>
     </row>
     <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E747" s="91"/>
+      <c r="E747" s="90"/>
     </row>
     <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E748" s="91"/>
+      <c r="E748" s="90"/>
     </row>
     <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E749" s="91"/>
+      <c r="E749" s="90"/>
     </row>
     <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E750" s="91"/>
+      <c r="E750" s="90"/>
     </row>
     <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E751" s="91"/>
+      <c r="E751" s="90"/>
     </row>
     <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E752" s="91"/>
+      <c r="E752" s="90"/>
     </row>
     <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E753" s="91"/>
+      <c r="E753" s="90"/>
     </row>
     <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E754" s="91"/>
+      <c r="E754" s="90"/>
     </row>
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E755" s="91"/>
+      <c r="E755" s="90"/>
     </row>
     <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E756" s="91"/>
+      <c r="E756" s="90"/>
     </row>
     <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E757" s="91"/>
+      <c r="E757" s="90"/>
     </row>
     <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E758" s="91"/>
+      <c r="E758" s="90"/>
     </row>
     <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E759" s="91"/>
+      <c r="E759" s="90"/>
     </row>
     <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E760" s="91"/>
+      <c r="E760" s="90"/>
     </row>
     <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E761" s="91"/>
+      <c r="E761" s="90"/>
     </row>
     <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E762" s="91"/>
+      <c r="E762" s="90"/>
     </row>
     <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E763" s="91"/>
+      <c r="E763" s="90"/>
     </row>
     <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E764" s="91"/>
+      <c r="E764" s="90"/>
     </row>
     <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E765" s="91"/>
+      <c r="E765" s="90"/>
     </row>
     <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E766" s="91"/>
+      <c r="E766" s="90"/>
     </row>
     <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E767" s="91"/>
+      <c r="E767" s="90"/>
     </row>
     <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E768" s="91"/>
+      <c r="E768" s="90"/>
     </row>
     <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E769" s="91"/>
+      <c r="E769" s="90"/>
     </row>
     <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E770" s="91"/>
+      <c r="E770" s="90"/>
     </row>
     <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E771" s="91"/>
+      <c r="E771" s="90"/>
     </row>
     <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E772" s="91"/>
+      <c r="E772" s="90"/>
     </row>
     <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E773" s="91"/>
+      <c r="E773" s="90"/>
     </row>
     <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E774" s="91"/>
+      <c r="E774" s="90"/>
     </row>
     <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E775" s="91"/>
+      <c r="E775" s="90"/>
     </row>
     <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E776" s="91"/>
+      <c r="E776" s="90"/>
     </row>
     <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E777" s="91"/>
+      <c r="E777" s="90"/>
     </row>
     <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E778" s="91"/>
+      <c r="E778" s="90"/>
     </row>
     <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E779" s="91"/>
+      <c r="E779" s="90"/>
     </row>
     <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E780" s="91"/>
+      <c r="E780" s="90"/>
     </row>
     <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E781" s="91"/>
+      <c r="E781" s="90"/>
     </row>
     <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E782" s="91"/>
+      <c r="E782" s="90"/>
     </row>
     <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E783" s="91"/>
+      <c r="E783" s="90"/>
     </row>
     <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E784" s="91"/>
+      <c r="E784" s="90"/>
     </row>
     <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E785" s="91"/>
+      <c r="E785" s="90"/>
     </row>
     <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E786" s="91"/>
+      <c r="E786" s="90"/>
     </row>
     <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E787" s="91"/>
+      <c r="E787" s="90"/>
     </row>
     <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E788" s="91"/>
+      <c r="E788" s="90"/>
     </row>
     <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E789" s="91"/>
+      <c r="E789" s="90"/>
     </row>
     <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E790" s="91"/>
+      <c r="E790" s="90"/>
     </row>
     <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E791" s="91"/>
+      <c r="E791" s="90"/>
     </row>
     <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E792" s="91"/>
+      <c r="E792" s="90"/>
     </row>
     <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E793" s="91"/>
+      <c r="E793" s="90"/>
     </row>
     <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E794" s="91"/>
+      <c r="E794" s="90"/>
     </row>
     <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E795" s="91"/>
+      <c r="E795" s="90"/>
     </row>
     <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E796" s="91"/>
+      <c r="E796" s="90"/>
     </row>
     <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E797" s="91"/>
+      <c r="E797" s="90"/>
     </row>
     <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E798" s="91"/>
+      <c r="E798" s="90"/>
     </row>
     <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E799" s="91"/>
+      <c r="E799" s="90"/>
     </row>
     <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E800" s="91"/>
+      <c r="E800" s="90"/>
     </row>
     <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E801" s="91"/>
+      <c r="E801" s="90"/>
     </row>
     <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E802" s="91"/>
+      <c r="E802" s="90"/>
     </row>
     <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E803" s="91"/>
+      <c r="E803" s="90"/>
     </row>
     <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E804" s="91"/>
+      <c r="E804" s="90"/>
     </row>
     <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E805" s="91"/>
+      <c r="E805" s="90"/>
     </row>
     <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E806" s="91"/>
+      <c r="E806" s="90"/>
     </row>
     <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E807" s="91"/>
+      <c r="E807" s="90"/>
     </row>
     <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E808" s="91"/>
+      <c r="E808" s="90"/>
     </row>
     <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E809" s="91"/>
+      <c r="E809" s="90"/>
     </row>
     <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E810" s="91"/>
+      <c r="E810" s="90"/>
     </row>
     <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E811" s="91"/>
+      <c r="E811" s="90"/>
     </row>
     <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E812" s="91"/>
+      <c r="E812" s="90"/>
     </row>
     <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E813" s="91"/>
+      <c r="E813" s="90"/>
     </row>
     <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E814" s="91"/>
+      <c r="E814" s="90"/>
     </row>
     <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E815" s="91"/>
+      <c r="E815" s="90"/>
     </row>
     <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E816" s="91"/>
+      <c r="E816" s="90"/>
     </row>
     <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E817" s="91"/>
+      <c r="E817" s="90"/>
     </row>
     <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E818" s="91"/>
+      <c r="E818" s="90"/>
     </row>
     <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E819" s="91"/>
+      <c r="E819" s="90"/>
     </row>
     <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E820" s="91"/>
+      <c r="E820" s="90"/>
     </row>
     <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E821" s="91"/>
+      <c r="E821" s="90"/>
     </row>
     <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E822" s="91"/>
+      <c r="E822" s="90"/>
     </row>
     <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E823" s="91"/>
+      <c r="E823" s="90"/>
     </row>
     <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E824" s="91"/>
+      <c r="E824" s="90"/>
     </row>
     <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E825" s="91"/>
+      <c r="E825" s="90"/>
     </row>
     <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E826" s="91"/>
+      <c r="E826" s="90"/>
     </row>
     <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E827" s="91"/>
+      <c r="E827" s="90"/>
     </row>
     <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E828" s="91"/>
+      <c r="E828" s="90"/>
     </row>
     <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E829" s="91"/>
+      <c r="E829" s="90"/>
     </row>
     <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E830" s="91"/>
+      <c r="E830" s="90"/>
     </row>
     <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E831" s="91"/>
+      <c r="E831" s="90"/>
     </row>
     <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E832" s="91"/>
+      <c r="E832" s="90"/>
     </row>
     <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E833" s="91"/>
+      <c r="E833" s="90"/>
     </row>
     <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E834" s="91"/>
+      <c r="E834" s="90"/>
     </row>
     <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E835" s="91"/>
+      <c r="E835" s="90"/>
     </row>
     <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E836" s="91"/>
+      <c r="E836" s="90"/>
     </row>
     <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E837" s="91"/>
+      <c r="E837" s="90"/>
     </row>
     <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E838" s="91"/>
+      <c r="E838" s="90"/>
     </row>
     <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E839" s="91"/>
+      <c r="E839" s="90"/>
     </row>
     <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E840" s="91"/>
+      <c r="E840" s="90"/>
     </row>
     <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E841" s="91"/>
+      <c r="E841" s="90"/>
     </row>
     <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E842" s="91"/>
+      <c r="E842" s="90"/>
     </row>
     <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E843" s="91"/>
+      <c r="E843" s="90"/>
     </row>
     <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E844" s="91"/>
+      <c r="E844" s="90"/>
     </row>
     <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E845" s="91"/>
+      <c r="E845" s="90"/>
     </row>
     <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E846" s="91"/>
+      <c r="E846" s="90"/>
     </row>
     <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E847" s="91"/>
+      <c r="E847" s="90"/>
     </row>
     <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E848" s="91"/>
+      <c r="E848" s="90"/>
     </row>
     <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E849" s="91"/>
+      <c r="E849" s="90"/>
     </row>
     <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E850" s="91"/>
+      <c r="E850" s="90"/>
     </row>
     <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E851" s="91"/>
+      <c r="E851" s="90"/>
     </row>
     <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E852" s="91"/>
+      <c r="E852" s="90"/>
     </row>
     <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E853" s="91"/>
+      <c r="E853" s="90"/>
     </row>
     <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E854" s="91"/>
+      <c r="E854" s="90"/>
     </row>
     <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E855" s="91"/>
+      <c r="E855" s="90"/>
     </row>
     <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E856" s="91"/>
+      <c r="E856" s="90"/>
     </row>
     <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E857" s="91"/>
+      <c r="E857" s="90"/>
     </row>
     <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E858" s="91"/>
+      <c r="E858" s="90"/>
     </row>
     <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E859" s="91"/>
+      <c r="E859" s="90"/>
     </row>
     <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E860" s="91"/>
+      <c r="E860" s="90"/>
     </row>
     <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E861" s="91"/>
+      <c r="E861" s="90"/>
     </row>
     <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E862" s="91"/>
+      <c r="E862" s="90"/>
     </row>
     <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E863" s="91"/>
+      <c r="E863" s="90"/>
     </row>
     <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E864" s="91"/>
+      <c r="E864" s="90"/>
     </row>
     <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E865" s="91"/>
+      <c r="E865" s="90"/>
     </row>
     <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E866" s="91"/>
+      <c r="E866" s="90"/>
     </row>
     <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E867" s="91"/>
+      <c r="E867" s="90"/>
     </row>
     <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E868" s="91"/>
+      <c r="E868" s="90"/>
     </row>
     <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E869" s="91"/>
+      <c r="E869" s="90"/>
     </row>
     <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E870" s="91"/>
+      <c r="E870" s="90"/>
     </row>
     <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E871" s="91"/>
+      <c r="E871" s="90"/>
     </row>
     <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E872" s="91"/>
+      <c r="E872" s="90"/>
     </row>
     <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E873" s="91"/>
+      <c r="E873" s="90"/>
     </row>
     <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E874" s="91"/>
+      <c r="E874" s="90"/>
     </row>
     <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E875" s="91"/>
+      <c r="E875" s="90"/>
     </row>
     <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E876" s="91"/>
+      <c r="E876" s="90"/>
     </row>
     <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E877" s="91"/>
+      <c r="E877" s="90"/>
     </row>
     <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E878" s="91"/>
+      <c r="E878" s="90"/>
     </row>
     <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E879" s="91"/>
+      <c r="E879" s="90"/>
     </row>
     <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E880" s="91"/>
+      <c r="E880" s="90"/>
     </row>
     <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E881" s="91"/>
+      <c r="E881" s="90"/>
     </row>
     <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E882" s="91"/>
+      <c r="E882" s="90"/>
     </row>
     <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E883" s="91"/>
+      <c r="E883" s="90"/>
     </row>
     <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E884" s="91"/>
+      <c r="E884" s="90"/>
     </row>
     <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E885" s="91"/>
+      <c r="E885" s="90"/>
     </row>
     <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E886" s="91"/>
+      <c r="E886" s="90"/>
     </row>
     <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E887" s="91"/>
+      <c r="E887" s="90"/>
     </row>
     <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E888" s="91"/>
+      <c r="E888" s="90"/>
     </row>
     <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E889" s="91"/>
+      <c r="E889" s="90"/>
     </row>
     <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E890" s="91"/>
+      <c r="E890" s="90"/>
     </row>
     <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E891" s="91"/>
+      <c r="E891" s="90"/>
     </row>
     <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E892" s="91"/>
+      <c r="E892" s="90"/>
     </row>
     <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E893" s="91"/>
+      <c r="E893" s="90"/>
     </row>
     <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E894" s="91"/>
+      <c r="E894" s="90"/>
     </row>
     <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E895" s="91"/>
+      <c r="E895" s="90"/>
     </row>
     <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E896" s="91"/>
+      <c r="E896" s="90"/>
     </row>
     <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E897" s="91"/>
+      <c r="E897" s="90"/>
     </row>
     <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E898" s="91"/>
+      <c r="E898" s="90"/>
     </row>
     <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E899" s="91"/>
+      <c r="E899" s="90"/>
     </row>
     <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E900" s="91"/>
+      <c r="E900" s="90"/>
     </row>
     <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E901" s="91"/>
+      <c r="E901" s="90"/>
     </row>
     <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E902" s="91"/>
+      <c r="E902" s="90"/>
     </row>
     <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E903" s="91"/>
+      <c r="E903" s="90"/>
     </row>
     <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E904" s="91"/>
+      <c r="E904" s="90"/>
     </row>
     <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E905" s="91"/>
+      <c r="E905" s="90"/>
     </row>
     <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E906" s="91"/>
+      <c r="E906" s="90"/>
     </row>
     <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E907" s="91"/>
+      <c r="E907" s="90"/>
     </row>
     <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E908" s="91"/>
+      <c r="E908" s="90"/>
     </row>
     <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E909" s="91"/>
+      <c r="E909" s="90"/>
     </row>
     <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E910" s="91"/>
+      <c r="E910" s="90"/>
     </row>
     <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E911" s="91"/>
+      <c r="E911" s="90"/>
     </row>
     <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E912" s="91"/>
+      <c r="E912" s="90"/>
     </row>
     <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E913" s="91"/>
+      <c r="E913" s="90"/>
     </row>
     <row r="914" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E914" s="91"/>
+      <c r="E914" s="90"/>
     </row>
     <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E915" s="91"/>
+      <c r="E915" s="90"/>
     </row>
     <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E916" s="91"/>
+      <c r="E916" s="90"/>
     </row>
     <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E917" s="91"/>
+      <c r="E917" s="90"/>
     </row>
     <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E918" s="91"/>
+      <c r="E918" s="90"/>
     </row>
     <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E919" s="91"/>
+      <c r="E919" s="90"/>
     </row>
     <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E920" s="91"/>
+      <c r="E920" s="90"/>
     </row>
     <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E921" s="91"/>
+      <c r="E921" s="90"/>
     </row>
     <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E922" s="91"/>
+      <c r="E922" s="90"/>
     </row>
     <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E923" s="91"/>
+      <c r="E923" s="90"/>
     </row>
     <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E924" s="91"/>
+      <c r="E924" s="90"/>
     </row>
     <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E925" s="91"/>
+      <c r="E925" s="90"/>
     </row>
     <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E926" s="91"/>
+      <c r="E926" s="90"/>
     </row>
     <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E927" s="91"/>
+      <c r="E927" s="90"/>
     </row>
     <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E928" s="91"/>
+      <c r="E928" s="90"/>
     </row>
     <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E929" s="91"/>
+      <c r="E929" s="90"/>
     </row>
     <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E930" s="91"/>
+      <c r="E930" s="90"/>
     </row>
     <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E931" s="91"/>
+      <c r="E931" s="90"/>
     </row>
     <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E932" s="91"/>
+      <c r="E932" s="90"/>
     </row>
     <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E933" s="91"/>
+      <c r="E933" s="90"/>
     </row>
     <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E934" s="91"/>
+      <c r="E934" s="90"/>
     </row>
     <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E935" s="91"/>
+      <c r="E935" s="90"/>
     </row>
     <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E936" s="91"/>
+      <c r="E936" s="90"/>
     </row>
     <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E937" s="91"/>
+      <c r="E937" s="90"/>
     </row>
     <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E938" s="91"/>
+      <c r="E938" s="90"/>
     </row>
     <row r="939" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E939" s="91"/>
+      <c r="E939" s="90"/>
     </row>
     <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E940" s="91"/>
+      <c r="E940" s="90"/>
     </row>
     <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E941" s="91"/>
+      <c r="E941" s="90"/>
     </row>
     <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E942" s="91"/>
+      <c r="E942" s="90"/>
     </row>
     <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E943" s="91"/>
+      <c r="E943" s="90"/>
     </row>
     <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E944" s="91"/>
+      <c r="E944" s="90"/>
     </row>
     <row r="945" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E945" s="91"/>
+      <c r="E945" s="90"/>
     </row>
     <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E946" s="91"/>
+      <c r="E946" s="90"/>
     </row>
     <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E947" s="91"/>
+      <c r="E947" s="90"/>
     </row>
     <row r="948" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E948" s="91"/>
+      <c r="E948" s="90"/>
     </row>
     <row r="949" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E949" s="91"/>
+      <c r="E949" s="90"/>
     </row>
     <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E950" s="91"/>
+      <c r="E950" s="90"/>
     </row>
     <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E951" s="91"/>
+      <c r="E951" s="90"/>
     </row>
     <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E952" s="91"/>
+      <c r="E952" s="90"/>
     </row>
     <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E953" s="91"/>
+      <c r="E953" s="90"/>
     </row>
     <row r="954" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E954" s="91"/>
+      <c r="E954" s="90"/>
     </row>
     <row r="955" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E955" s="91"/>
+      <c r="E955" s="90"/>
     </row>
     <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E956" s="91"/>
+      <c r="E956" s="90"/>
     </row>
     <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E957" s="91"/>
+      <c r="E957" s="90"/>
     </row>
     <row r="958" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E958" s="91"/>
+      <c r="E958" s="90"/>
     </row>
     <row r="959" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E959" s="91"/>
+      <c r="E959" s="90"/>
     </row>
     <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E960" s="91"/>
+      <c r="E960" s="90"/>
     </row>
     <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E961" s="91"/>
+      <c r="E961" s="90"/>
     </row>
     <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E962" s="91"/>
+      <c r="E962" s="90"/>
     </row>
     <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E963" s="91"/>
+      <c r="E963" s="90"/>
     </row>
     <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E964" s="91"/>
+      <c r="E964" s="90"/>
     </row>
     <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E965" s="91"/>
+      <c r="E965" s="90"/>
     </row>
     <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E966" s="91"/>
+      <c r="E966" s="90"/>
     </row>
     <row r="967" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E967" s="91"/>
+      <c r="E967" s="90"/>
     </row>
     <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E968" s="91"/>
+      <c r="E968" s="90"/>
     </row>
     <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E969" s="91"/>
+      <c r="E969" s="90"/>
     </row>
     <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E970" s="91"/>
+      <c r="E970" s="90"/>
     </row>
     <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E971" s="91"/>
+      <c r="E971" s="90"/>
     </row>
     <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E972" s="91"/>
+      <c r="E972" s="90"/>
     </row>
     <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E973" s="91"/>
+      <c r="E973" s="90"/>
     </row>
     <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E974" s="91"/>
+      <c r="E974" s="90"/>
     </row>
     <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E975" s="91"/>
+      <c r="E975" s="90"/>
     </row>
     <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E976" s="91"/>
+      <c r="E976" s="90"/>
     </row>
     <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E977" s="91"/>
+      <c r="E977" s="90"/>
     </row>
     <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E978" s="91"/>
+      <c r="E978" s="90"/>
     </row>
     <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E979" s="91"/>
+      <c r="E979" s="90"/>
     </row>
     <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E980" s="91"/>
+      <c r="E980" s="90"/>
     </row>
     <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E981" s="91"/>
+      <c r="E981" s="90"/>
     </row>
     <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E982" s="91"/>
+      <c r="E982" s="90"/>
     </row>
     <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E983" s="91"/>
+      <c r="E983" s="90"/>
     </row>
     <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E984" s="91"/>
+      <c r="E984" s="90"/>
     </row>
     <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E985" s="91"/>
+      <c r="E985" s="90"/>
     </row>
     <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E986" s="91"/>
+      <c r="E986" s="90"/>
     </row>
     <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E987" s="91"/>
+      <c r="E987" s="90"/>
     </row>
     <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E988" s="91"/>
+      <c r="E988" s="90"/>
     </row>
     <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E989" s="91"/>
+      <c r="E989" s="90"/>
     </row>
     <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E990" s="91"/>
+      <c r="E990" s="90"/>
     </row>
     <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E991" s="91"/>
+      <c r="E991" s="90"/>
     </row>
     <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E992" s="91"/>
+      <c r="E992" s="90"/>
     </row>
     <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E993" s="91"/>
+      <c r="E993" s="90"/>
     </row>
     <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E994" s="91"/>
+      <c r="E994" s="90"/>
     </row>
     <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E995" s="91"/>
+      <c r="E995" s="90"/>
     </row>
     <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E996" s="91"/>
+      <c r="E996" s="90"/>
     </row>
     <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E997" s="91"/>
+      <c r="E997" s="90"/>
     </row>
     <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E998" s="91"/>
+      <c r="E998" s="90"/>
     </row>
     <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E999" s="91"/>
+      <c r="E999" s="90"/>
     </row>
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1000" s="91"/>
+      <c r="E1000" s="90"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C112">
@@ -41397,1163 +41381,1163 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1" s="90" t="s">
         <v>873</v>
       </c>
-      <c r="B1" s="91" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="92" t="n">
+        <v>4203</v>
+      </c>
+      <c r="B2" s="93" t="s">
         <v>874</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="93" t="n">
-        <v>4203</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="n">
         <v>4203100001</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>876</v>
+      <c r="B3" s="94" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="n">
         <v>4203100009</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="94" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="92" t="n">
+        <v>6106</v>
+      </c>
+      <c r="B5" s="93" t="s">
         <v>877</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="93" t="n">
-        <v>6106</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>879</v>
+      <c r="B6" s="95" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>880</v>
+      <c r="B7" s="95" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="n">
         <v>6106901000</v>
       </c>
-      <c r="B8" s="95" t="s">
-        <v>881</v>
+      <c r="B8" s="94" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="n">
         <v>6106903000</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>882</v>
+      <c r="B9" s="94" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="n">
         <v>6106905000</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>883</v>
+      <c r="B10" s="94" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
         <v>6106909000</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="94" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="92" t="n">
+        <v>6201</v>
+      </c>
+      <c r="B12" s="93" t="s">
         <v>884</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="93" t="n">
-        <v>6201</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="n">
         <v>6201200000</v>
       </c>
-      <c r="B13" s="95" t="s">
-        <v>886</v>
+      <c r="B13" s="94" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="n">
         <v>6201300000</v>
       </c>
-      <c r="B14" s="95" t="s">
-        <v>887</v>
+      <c r="B14" s="94" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="n">
         <v>6201400000</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>888</v>
+      <c r="B15" s="94" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="n">
         <v>6201900000</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="94" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="92" t="n">
+        <v>6202</v>
+      </c>
+      <c r="B17" s="93" t="s">
         <v>889</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="93" t="n">
-        <v>6202</v>
-      </c>
-      <c r="B17" s="94" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="n">
         <v>6202200000</v>
       </c>
-      <c r="B18" s="95" t="s">
-        <v>891</v>
+      <c r="B18" s="94" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="n">
         <v>6202300000</v>
       </c>
-      <c r="B19" s="95" t="s">
-        <v>892</v>
+      <c r="B19" s="94" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="n">
         <v>6202400001</v>
       </c>
-      <c r="B20" s="95" t="s">
-        <v>893</v>
+      <c r="B20" s="94" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="n">
         <v>6202400009</v>
       </c>
-      <c r="B21" s="95" t="s">
-        <v>894</v>
+      <c r="B21" s="94" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="n">
         <v>6202900001</v>
       </c>
-      <c r="B22" s="95" t="s">
-        <v>895</v>
+      <c r="B22" s="94" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="n">
         <v>6202900009</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="94" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="92" t="n">
+        <v>6302</v>
+      </c>
+      <c r="B24" s="93" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="93" t="n">
-        <v>6302</v>
-      </c>
-      <c r="B24" s="94" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="n">
         <v>6302100001</v>
       </c>
-      <c r="B25" s="95" t="s">
-        <v>898</v>
+      <c r="B25" s="94" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="n">
         <v>6302100009</v>
       </c>
-      <c r="B26" s="95" t="s">
-        <v>899</v>
+      <c r="B26" s="94" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="n">
         <v>6302210000</v>
       </c>
-      <c r="B27" s="95" t="s">
-        <v>900</v>
+      <c r="B27" s="94" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="n">
         <v>6302221000</v>
       </c>
-      <c r="B28" s="95" t="s">
-        <v>901</v>
+      <c r="B28" s="94" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="n">
         <v>6302229000</v>
       </c>
-      <c r="B29" s="95" t="s">
-        <v>902</v>
+      <c r="B29" s="94" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="n">
         <v>6302310001</v>
       </c>
-      <c r="B30" s="95" t="s">
-        <v>903</v>
+      <c r="B30" s="94" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="n">
         <v>6302310009</v>
       </c>
-      <c r="B31" s="95" t="s">
-        <v>904</v>
+      <c r="B31" s="94" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="n">
         <v>6302321000</v>
       </c>
-      <c r="B32" s="95" t="s">
-        <v>905</v>
+      <c r="B32" s="94" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="n">
         <v>6302329000</v>
       </c>
-      <c r="B33" s="95" t="s">
-        <v>906</v>
+      <c r="B33" s="94" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="n">
         <v>6302392001</v>
       </c>
-      <c r="B34" s="95" t="s">
-        <v>907</v>
+      <c r="B34" s="94" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="n">
         <v>6302392009</v>
       </c>
-      <c r="B35" s="95" t="s">
-        <v>908</v>
+      <c r="B35" s="94" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="n">
         <v>6302399000</v>
       </c>
-      <c r="B36" s="95" t="s">
-        <v>909</v>
+      <c r="B36" s="94" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="n">
         <v>6302400000</v>
       </c>
-      <c r="B37" s="95" t="s">
-        <v>910</v>
+      <c r="B37" s="94" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="n">
         <v>6302510001</v>
       </c>
-      <c r="B38" s="95" t="s">
-        <v>911</v>
+      <c r="B38" s="94" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="n">
         <v>6302510009</v>
       </c>
-      <c r="B39" s="95" t="s">
-        <v>912</v>
+      <c r="B39" s="94" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="n">
         <v>6302531000</v>
       </c>
-      <c r="B40" s="95" t="s">
-        <v>913</v>
+      <c r="B40" s="94" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="n">
         <v>6302539000</v>
       </c>
-      <c r="B41" s="95" t="s">
-        <v>914</v>
+      <c r="B41" s="94" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="n">
         <v>6302591000</v>
       </c>
-      <c r="B42" s="95" t="s">
-        <v>915</v>
+      <c r="B42" s="94" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="n">
         <v>6302599000</v>
       </c>
-      <c r="B43" s="95" t="s">
-        <v>916</v>
+      <c r="B43" s="94" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="n">
         <v>6302600000</v>
       </c>
-      <c r="B44" s="95" t="s">
-        <v>917</v>
+      <c r="B44" s="94" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="n">
         <v>6302910000</v>
       </c>
-      <c r="B45" s="95" t="s">
-        <v>918</v>
+      <c r="B45" s="94" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="n">
         <v>6302931000</v>
       </c>
-      <c r="B46" s="95" t="s">
-        <v>919</v>
+      <c r="B46" s="94" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="n">
         <v>6302939000</v>
       </c>
-      <c r="B47" s="95" t="s">
-        <v>920</v>
+      <c r="B47" s="94" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="n">
         <v>6302991000</v>
       </c>
-      <c r="B48" s="95" t="s">
-        <v>921</v>
+      <c r="B48" s="94" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="n">
         <v>6302999000</v>
       </c>
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="94" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="92" t="n">
+        <v>4303</v>
+      </c>
+      <c r="B50" s="93" t="s">
         <v>922</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="93" t="n">
-        <v>4303</v>
-      </c>
-      <c r="B50" s="94" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="n">
         <v>4303109010</v>
       </c>
-      <c r="B51" s="95" t="s">
-        <v>924</v>
+      <c r="B51" s="94" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="n">
         <v>4303109020</v>
       </c>
-      <c r="B52" s="95" t="s">
-        <v>925</v>
+      <c r="B52" s="94" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="n">
         <v>4303109030</v>
       </c>
-      <c r="B53" s="95" t="s">
-        <v>926</v>
+      <c r="B53" s="94" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="n">
         <v>4303109040</v>
       </c>
-      <c r="B54" s="95" t="s">
-        <v>927</v>
+      <c r="B54" s="94" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="n">
         <v>4303109050</v>
       </c>
-      <c r="B55" s="95" t="s">
-        <v>928</v>
+      <c r="B55" s="94" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="n">
         <v>4303109060</v>
       </c>
-      <c r="B56" s="95" t="s">
-        <v>929</v>
+      <c r="B56" s="94" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="n">
         <v>4303109080</v>
       </c>
-      <c r="B57" s="95" t="s">
+      <c r="B57" s="94" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="92" t="n">
+        <v>3303</v>
+      </c>
+      <c r="B58" s="96" t="s">
         <v>930</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="93" t="n">
-        <v>3303</v>
-      </c>
-      <c r="B58" s="97" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="n">
         <v>3303001000</v>
       </c>
-      <c r="B59" s="95" t="s">
-        <v>932</v>
+      <c r="B59" s="94" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="n">
         <v>3303009000</v>
       </c>
-      <c r="B60" s="95" t="s">
+      <c r="B60" s="94" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="92" t="n">
+        <v>4011</v>
+      </c>
+      <c r="B61" s="93" t="s">
         <v>933</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="93" t="n">
-        <v>4011</v>
-      </c>
-      <c r="B61" s="94" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="n">
         <v>4011100003</v>
       </c>
-      <c r="B62" s="95" t="s">
-        <v>935</v>
+      <c r="B62" s="94" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="n">
         <v>4011100009</v>
       </c>
-      <c r="B63" s="95" t="s">
-        <v>936</v>
+      <c r="B63" s="94" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="n">
         <v>4011201000</v>
       </c>
-      <c r="B64" s="95" t="s">
-        <v>937</v>
+      <c r="B64" s="94" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="n">
         <v>4011209000</v>
       </c>
-      <c r="B65" s="95" t="s">
-        <v>938</v>
+      <c r="B65" s="94" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="n">
         <v>4011400000</v>
       </c>
-      <c r="B66" s="95" t="s">
-        <v>939</v>
+      <c r="B66" s="94" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="n">
         <v>4011700000</v>
       </c>
-      <c r="B67" s="95" t="s">
-        <v>940</v>
+      <c r="B67" s="94" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="n">
         <v>4011800000</v>
       </c>
-      <c r="B68" s="95" t="s">
-        <v>941</v>
+      <c r="B68" s="94" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="n">
         <v>4011900000</v>
       </c>
-      <c r="B69" s="95" t="s">
+      <c r="B69" s="94" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="92" t="n">
+        <v>6401</v>
+      </c>
+      <c r="B70" s="93" t="s">
         <v>942</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="93" t="n">
-        <v>6401</v>
-      </c>
-      <c r="B70" s="94" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="n">
         <v>6401100000</v>
       </c>
-      <c r="B71" s="95" t="s">
-        <v>944</v>
+      <c r="B71" s="94" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="n">
         <v>6401921000</v>
       </c>
-      <c r="B72" s="95" t="s">
-        <v>945</v>
+      <c r="B72" s="94" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="n">
         <v>6401929000</v>
       </c>
-      <c r="B73" s="95" t="s">
-        <v>946</v>
+      <c r="B73" s="94" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="n">
         <v>6401990000</v>
       </c>
-      <c r="B74" s="95" t="s">
+      <c r="B74" s="94" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="92" t="n">
+        <v>6402</v>
+      </c>
+      <c r="B75" s="93" t="s">
         <v>947</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="93" t="n">
-        <v>6402</v>
-      </c>
-      <c r="B75" s="94" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="n">
         <v>6402121000</v>
       </c>
-      <c r="B76" s="95" t="s">
-        <v>949</v>
+      <c r="B76" s="94" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="21" t="n">
         <v>6402129000</v>
       </c>
-      <c r="B77" s="95" t="s">
-        <v>950</v>
+      <c r="B77" s="94" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21" t="n">
         <v>6402190000</v>
       </c>
-      <c r="B78" s="95" t="s">
-        <v>951</v>
+      <c r="B78" s="94" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="21" t="n">
         <v>6402200000</v>
       </c>
-      <c r="B79" s="95" t="s">
-        <v>952</v>
+      <c r="B79" s="94" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="21" t="n">
         <v>6402911000</v>
       </c>
-      <c r="B80" s="95" t="s">
-        <v>953</v>
+      <c r="B80" s="94" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="n">
         <v>6402919000</v>
       </c>
-      <c r="B81" s="95" t="s">
-        <v>954</v>
+      <c r="B81" s="94" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="21" t="n">
         <v>6402990500</v>
       </c>
-      <c r="B82" s="95" t="s">
-        <v>955</v>
+      <c r="B82" s="94" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21" t="n">
         <v>6402991000</v>
       </c>
-      <c r="B83" s="95" t="s">
-        <v>956</v>
+      <c r="B83" s="94" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21" t="n">
         <v>6402993100</v>
       </c>
-      <c r="B84" s="95" t="s">
-        <v>957</v>
+      <c r="B84" s="94" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21" t="n">
         <v>6402993900</v>
       </c>
-      <c r="B85" s="95" t="s">
-        <v>958</v>
+      <c r="B85" s="94" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="n">
         <v>6402995000</v>
       </c>
-      <c r="B86" s="95" t="s">
-        <v>959</v>
+      <c r="B86" s="94" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21" t="n">
         <v>6402999100</v>
       </c>
-      <c r="B87" s="95" t="s">
-        <v>960</v>
+      <c r="B87" s="94" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21" t="n">
         <v>6402999300</v>
       </c>
-      <c r="B88" s="95" t="s">
-        <v>961</v>
+      <c r="B88" s="94" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="21" t="n">
         <v>6402999600</v>
       </c>
-      <c r="B89" s="95" t="s">
-        <v>962</v>
+      <c r="B89" s="94" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="21" t="n">
         <v>6402999800</v>
       </c>
-      <c r="B90" s="95" t="s">
+      <c r="B90" s="94" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="92" t="n">
+        <v>6403</v>
+      </c>
+      <c r="B91" s="93" t="s">
         <v>962</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="93" t="n">
-        <v>6403</v>
-      </c>
-      <c r="B91" s="94" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21" t="n">
         <v>6403120000</v>
       </c>
-      <c r="B92" s="95" t="s">
-        <v>964</v>
+      <c r="B92" s="94" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21" t="n">
         <v>6403190000</v>
       </c>
-      <c r="B93" s="95" t="s">
-        <v>965</v>
+      <c r="B93" s="94" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21" t="n">
         <v>6403200000</v>
       </c>
-      <c r="B94" s="95" t="s">
-        <v>966</v>
+      <c r="B94" s="94" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21" t="n">
         <v>6403400000</v>
       </c>
-      <c r="B95" s="95" t="s">
-        <v>967</v>
+      <c r="B95" s="94" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="n">
         <v>6403510500</v>
       </c>
-      <c r="B96" s="95" t="s">
-        <v>968</v>
+      <c r="B96" s="94" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21" t="n">
         <v>6403511100</v>
       </c>
-      <c r="B97" s="95" t="s">
-        <v>969</v>
+      <c r="B97" s="94" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21" t="n">
         <v>6403511500</v>
       </c>
-      <c r="B98" s="95" t="s">
-        <v>970</v>
+      <c r="B98" s="94" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21" t="n">
         <v>6403511900</v>
       </c>
-      <c r="B99" s="95" t="s">
-        <v>971</v>
+      <c r="B99" s="94" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21" t="n">
         <v>6403519100</v>
       </c>
-      <c r="B100" s="95" t="s">
-        <v>972</v>
+      <c r="B100" s="94" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21" t="n">
         <v>6403519500</v>
       </c>
-      <c r="B101" s="95" t="s">
-        <v>973</v>
+      <c r="B101" s="94" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="21" t="n">
         <v>6403519900</v>
       </c>
-      <c r="B102" s="95" t="s">
-        <v>974</v>
+      <c r="B102" s="94" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="21" t="n">
         <v>6403590500</v>
       </c>
-      <c r="B103" s="95" t="s">
-        <v>975</v>
+      <c r="B103" s="94" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21" t="n">
         <v>6403591100</v>
       </c>
-      <c r="B104" s="95" t="s">
-        <v>976</v>
+      <c r="B104" s="94" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="21" t="n">
         <v>6403593100</v>
       </c>
-      <c r="B105" s="95" t="s">
-        <v>977</v>
+      <c r="B105" s="94" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="n">
         <v>6403593500</v>
       </c>
-      <c r="B106" s="95" t="s">
-        <v>978</v>
+      <c r="B106" s="94" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="21" t="n">
         <v>6403593900</v>
       </c>
-      <c r="B107" s="95" t="s">
-        <v>979</v>
+      <c r="B107" s="94" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="21" t="n">
         <v>6403595000</v>
       </c>
-      <c r="B108" s="95" t="s">
-        <v>980</v>
+      <c r="B108" s="94" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="21" t="n">
         <v>6403599100</v>
       </c>
-      <c r="B109" s="95" t="s">
-        <v>981</v>
+      <c r="B109" s="94" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="n">
         <v>6403599500</v>
       </c>
-      <c r="B110" s="95" t="s">
-        <v>982</v>
+      <c r="B110" s="94" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21" t="n">
         <v>6403599900</v>
       </c>
-      <c r="B111" s="95" t="s">
+      <c r="B111" s="94" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="97" t="n">
+        <v>6403910500</v>
+      </c>
+      <c r="B112" s="94" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="98" t="n">
-        <v>6403910500</v>
-      </c>
-      <c r="B112" s="95" t="s">
+    <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="97" t="n">
+        <v>6403911100</v>
+      </c>
+      <c r="B113" s="94" t="s">
         <v>984</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="98" t="n">
-        <v>6403911100</v>
-      </c>
-      <c r="B113" s="95" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="21" t="n">
         <v>6403911300</v>
       </c>
-      <c r="B114" s="95" t="s">
-        <v>986</v>
+      <c r="B114" s="94" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="21" t="n">
         <v>6403911600</v>
       </c>
-      <c r="B115" s="95" t="s">
-        <v>987</v>
+      <c r="B115" s="94" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="21" t="n">
         <v>6403911800</v>
       </c>
-      <c r="B116" s="95" t="s">
-        <v>988</v>
+      <c r="B116" s="94" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="21" t="n">
         <v>6403919100</v>
       </c>
-      <c r="B117" s="95" t="s">
-        <v>989</v>
+      <c r="B117" s="94" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="21" t="n">
         <v>6403919300</v>
       </c>
-      <c r="B118" s="95" t="s">
-        <v>990</v>
+      <c r="B118" s="94" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="21" t="n">
         <v>6403919600</v>
       </c>
-      <c r="B119" s="95" t="s">
-        <v>991</v>
+      <c r="B119" s="94" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="21" t="n">
         <v>6403919800</v>
       </c>
-      <c r="B120" s="95" t="s">
-        <v>992</v>
+      <c r="B120" s="94" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="n">
         <v>6403990500</v>
       </c>
-      <c r="B121" s="95" t="s">
-        <v>993</v>
+      <c r="B121" s="94" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="21" t="n">
         <v>6403991100</v>
       </c>
-      <c r="B122" s="95" t="s">
-        <v>994</v>
+      <c r="B122" s="94" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="21" t="n">
         <v>6403993100</v>
       </c>
-      <c r="B123" s="95" t="s">
-        <v>995</v>
+      <c r="B123" s="94" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="21" t="n">
         <v>6403993300</v>
       </c>
-      <c r="B124" s="95" t="s">
-        <v>996</v>
+      <c r="B124" s="94" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="21" t="n">
         <v>6403993600</v>
       </c>
-      <c r="B125" s="95" t="s">
-        <v>997</v>
+      <c r="B125" s="94" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="21" t="n">
         <v>6403993800</v>
       </c>
-      <c r="B126" s="95" t="s">
-        <v>998</v>
+      <c r="B126" s="94" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="21" t="n">
         <v>6403995000</v>
       </c>
-      <c r="B127" s="95" t="s">
-        <v>999</v>
+      <c r="B127" s="94" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="21" t="n">
         <v>6403999100</v>
       </c>
-      <c r="B128" s="95" t="s">
-        <v>1000</v>
+      <c r="B128" s="94" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="21" t="n">
         <v>6403999300</v>
       </c>
-      <c r="B129" s="95" t="s">
-        <v>1001</v>
+      <c r="B129" s="94" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="21" t="n">
         <v>6403999600</v>
       </c>
-      <c r="B130" s="95" t="s">
-        <v>1002</v>
+      <c r="B130" s="94" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="21" t="n">
         <v>6403999800</v>
       </c>
-      <c r="B131" s="95" t="s">
+      <c r="B131" s="94" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="92" t="n">
+        <v>6404</v>
+      </c>
+      <c r="B132" s="93" t="s">
         <v>1003</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="93" t="n">
-        <v>6404</v>
-      </c>
-      <c r="B132" s="94" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="21" t="n">
         <v>6404110000</v>
       </c>
-      <c r="B133" s="95" t="s">
-        <v>1005</v>
+      <c r="B133" s="94" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="21" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B134" s="95" t="s">
-        <v>1006</v>
+      <c r="B134" s="94" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="21" t="n">
         <v>6404199000</v>
       </c>
-      <c r="B135" s="95" t="s">
-        <v>1007</v>
+      <c r="B135" s="94" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="21" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B136" s="95" t="s">
-        <v>1008</v>
+      <c r="B136" s="94" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="21" t="n">
         <v>6404209000</v>
       </c>
-      <c r="B137" s="95" t="s">
+      <c r="B137" s="94" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="92" t="n">
+        <v>6405</v>
+      </c>
+      <c r="B138" s="93" t="s">
         <v>1009</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="93" t="n">
-        <v>6405</v>
-      </c>
-      <c r="B138" s="94" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="21" t="n">
         <v>6405100001</v>
       </c>
-      <c r="B139" s="95" t="s">
-        <v>1011</v>
+      <c r="B139" s="94" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="21" t="n">
         <v>6405100009</v>
       </c>
-      <c r="B140" s="95" t="s">
-        <v>1012</v>
+      <c r="B140" s="94" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="21" t="n">
         <v>6405201000</v>
       </c>
-      <c r="B141" s="95" t="s">
-        <v>1013</v>
+      <c r="B141" s="94" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="21" t="n">
         <v>6405209100</v>
       </c>
-      <c r="B142" s="95" t="s">
-        <v>1014</v>
+      <c r="B142" s="94" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="21" t="n">
         <v>6405209900</v>
       </c>
-      <c r="B143" s="95" t="s">
-        <v>1015</v>
+      <c r="B143" s="94" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="21" t="n">
         <v>6405901000</v>
       </c>
-      <c r="B144" s="95" t="s">
-        <v>1016</v>
+      <c r="B144" s="94" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="21" t="n">
         <v>6405909000</v>
       </c>
-      <c r="B145" s="95" t="s">
-        <v>1017</v>
+      <c r="B145" s="94" t="s">
+        <v>1016</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/обувь_по коробам.xlsx
+++ b/app/download_dir/system_files/обувь_по коробам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1017">
   <si>
     <t xml:space="preserve">V_MANUFACTURER_CODE</t>
   </si>
@@ -2223,6 +2223,9 @@
     <t xml:space="preserve">УНТЫ</t>
   </si>
   <si>
+    <t xml:space="preserve">СЕРО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
     <t xml:space="preserve">43-44</t>
   </si>
   <si>
@@ -2230,6 +2233,9 @@
   </si>
   <si>
     <t xml:space="preserve">ЧЕЛСИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРО-ЗЕЛЁНЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">44-45</t>
@@ -4067,7 +4073,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4268,7 +4274,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4312,7 +4318,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4429,6 +4435,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4556,7 +4566,7 @@
   <dimension ref="A1:AMJ2686"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4903,7 +4913,7 @@
       </c>
       <c r="B7" s="50" t="str">
         <f aca="false">CONCATENATE(MID(D7, 13, 30), " ", Q7, ", ", "арт. ", A7, ", цвет ", H7, ", р.", L7, )</f>
-        <v>СОКИЕ Женские, арт. ТЕСТ01, цвет БЕЛЫЙ/БЕЖЕВЫЙ, р.36-37-38-39-40-41(1-1-2-2-1-1) </v>
+        <v>СОКИЕ Женские, арт. ТЕСТ01, цвет БЕЛЫЙ/БЕЖЕВЫЙ, р.36-37-38-39-40-41(1-1-2-2-1-1)</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>68</v>
@@ -4973,7 +4983,7 @@
       </c>
       <c r="B8" s="50" t="str">
         <f aca="false">CONCATENATE(MID(D8, 13, 30), " ", Q8, ", ", "арт. ", A8, ", цвет ", H8, ", р.", L8, )</f>
-        <v>СОКИЕ Женские, арт. ТЕСТ01, цвет БЕЛЫЙ, р.36-37-38-39-40-41(1-1-2-2-1-1) </v>
+        <v>СОКИЕ Женские, арт. ТЕСТ01, цвет БЕЛЫЙ, р.36-37-38-39-40-41(1-1-2-2-1-1)</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>68</v>
@@ -5030,7 +5040,7 @@
       <c r="A9" s="60"/>
       <c r="B9" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D9, 13, 30), " ", Q9, ", ", "арт. ", A9, ", цвет ", H9, ", р.", L9, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C9" s="60"/>
       <c r="D9" s="62"/>
@@ -5056,7 +5066,7 @@
       <c r="A10" s="60"/>
       <c r="B10" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D10, 13, 30), " ", Q10, ", ", "арт. ", A10, ", цвет ", H10, ", р.", L10, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="62"/>
@@ -5085,7 +5095,7 @@
       <c r="A11" s="60"/>
       <c r="B11" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D11, 13, 30), " ", Q11, ", ", "арт. ", A11, ", цвет ", H11, ", р.", L11, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="62"/>
@@ -5114,7 +5124,7 @@
       <c r="A12" s="60"/>
       <c r="B12" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D12, 13, 30), " ", Q12, ", ", "арт. ", A12, ", цвет ", H12, ", р.", L12, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="62"/>
@@ -5143,7 +5153,7 @@
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D13, 13, 30), " ", Q13, ", ", "арт. ", A13, ", цвет ", H13, ", р.", L13, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C13" s="60"/>
       <c r="D13" s="62"/>
@@ -5172,7 +5182,7 @@
       <c r="A14" s="60"/>
       <c r="B14" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D14, 13, 30), " ", Q14, ", ", "арт. ", A14, ", цвет ", H14, ", р.", L14, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="62"/>
@@ -5201,7 +5211,7 @@
       <c r="A15" s="60"/>
       <c r="B15" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D15, 13, 30), " ", Q15, ", ", "арт. ", A15, ", цвет ", H15, ", р.", L15, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="62"/>
@@ -5230,7 +5240,7 @@
       <c r="A16" s="60"/>
       <c r="B16" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D16, 13, 30), " ", Q16, ", ", "арт. ", A16, ", цвет ", H16, ", р.", L16, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="62"/>
@@ -5259,7 +5269,7 @@
       <c r="A17" s="60"/>
       <c r="B17" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D17, 13, 30), " ", Q17, ", ", "арт. ", A17, ", цвет ", H17, ", р.", L17, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="62"/>
@@ -5288,7 +5298,7 @@
       <c r="A18" s="60"/>
       <c r="B18" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D18, 13, 30), " ", Q18, ", ", "арт. ", A18, ", цвет ", H18, ", р.", L18, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="62"/>
@@ -5317,7 +5327,7 @@
       <c r="A19" s="60"/>
       <c r="B19" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D19, 13, 30), " ", Q19, ", ", "арт. ", A19, ", цвет ", H19, ", р.", L19, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="62"/>
@@ -5346,7 +5356,7 @@
       <c r="A20" s="60"/>
       <c r="B20" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D20, 13, 30), " ", Q20, ", ", "арт. ", A20, ", цвет ", H20, ", р.", L20, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C20" s="60"/>
       <c r="D20" s="62"/>
@@ -5375,7 +5385,7 @@
       <c r="A21" s="60"/>
       <c r="B21" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D21, 13, 30), " ", Q21, ", ", "арт. ", A21, ", цвет ", H21, ", р.", L21, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="62"/>
@@ -5404,7 +5414,7 @@
       <c r="A22" s="60"/>
       <c r="B22" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D22, 13, 30), " ", Q22, ", ", "арт. ", A22, ", цвет ", H22, ", р.", L22, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C22" s="60"/>
       <c r="D22" s="62"/>
@@ -5433,7 +5443,7 @@
       <c r="A23" s="60"/>
       <c r="B23" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D23, 13, 30), " ", Q23, ", ", "арт. ", A23, ", цвет ", H23, ", р.", L23, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C23" s="60"/>
       <c r="D23" s="62"/>
@@ -5462,7 +5472,7 @@
       <c r="A24" s="60"/>
       <c r="B24" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D24, 13, 30), " ", Q24, ", ", "арт. ", A24, ", цвет ", H24, ", р.", L24, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="62"/>
@@ -5491,7 +5501,7 @@
       <c r="A25" s="60"/>
       <c r="B25" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D25, 13, 30), " ", Q25, ", ", "арт. ", A25, ", цвет ", H25, ", р.", L25, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" s="62"/>
@@ -5520,7 +5530,7 @@
       <c r="A26" s="60"/>
       <c r="B26" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D26, 13, 30), " ", Q26, ", ", "арт. ", A26, ", цвет ", H26, ", р.", L26, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C26" s="60"/>
       <c r="D26" s="62"/>
@@ -5549,7 +5559,7 @@
       <c r="A27" s="60"/>
       <c r="B27" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D27, 13, 30), " ", Q27, ", ", "арт. ", A27, ", цвет ", H27, ", р.", L27, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C27" s="60"/>
       <c r="D27" s="62"/>
@@ -5578,7 +5588,7 @@
       <c r="A28" s="60"/>
       <c r="B28" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D28, 13, 30), " ", Q28, ", ", "арт. ", A28, ", цвет ", H28, ", р.", L28, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C28" s="60"/>
       <c r="D28" s="62"/>
@@ -5607,7 +5617,7 @@
       <c r="A29" s="60"/>
       <c r="B29" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D29, 13, 30), " ", Q29, ", ", "арт. ", A29, ", цвет ", H29, ", р.", L29, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C29" s="60"/>
       <c r="D29" s="62"/>
@@ -5636,7 +5646,7 @@
       <c r="A30" s="60"/>
       <c r="B30" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D30, 13, 30), " ", Q30, ", ", "арт. ", A30, ", цвет ", H30, ", р.", L30, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C30" s="60"/>
       <c r="D30" s="62"/>
@@ -5665,7 +5675,7 @@
       <c r="A31" s="60"/>
       <c r="B31" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D31, 13, 30), " ", Q31, ", ", "арт. ", A31, ", цвет ", H31, ", р.", L31, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C31" s="60"/>
       <c r="D31" s="62"/>
@@ -5694,7 +5704,7 @@
       <c r="A32" s="60"/>
       <c r="B32" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D32, 13, 30), " ", Q32, ", ", "арт. ", A32, ", цвет ", H32, ", р.", L32, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C32" s="60"/>
       <c r="D32" s="62"/>
@@ -5723,7 +5733,7 @@
       <c r="A33" s="60"/>
       <c r="B33" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D33, 13, 30), " ", Q33, ", ", "арт. ", A33, ", цвет ", H33, ", р.", L33, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" s="62"/>
@@ -5752,7 +5762,7 @@
       <c r="A34" s="60"/>
       <c r="B34" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D34, 13, 30), " ", Q34, ", ", "арт. ", A34, ", цвет ", H34, ", р.", L34, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C34" s="60"/>
       <c r="D34" s="62"/>
@@ -5781,7 +5791,7 @@
       <c r="A35" s="60"/>
       <c r="B35" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D35, 13, 30), " ", Q35, ", ", "арт. ", A35, ", цвет ", H35, ", р.", L35, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C35" s="60"/>
       <c r="D35" s="62"/>
@@ -5810,7 +5820,7 @@
       <c r="A36" s="60"/>
       <c r="B36" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D36, 13, 30), " ", Q36, ", ", "арт. ", A36, ", цвет ", H36, ", р.", L36, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="62"/>
@@ -5839,7 +5849,7 @@
       <c r="A37" s="60"/>
       <c r="B37" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D37, 13, 30), " ", Q37, ", ", "арт. ", A37, ", цвет ", H37, ", р.", L37, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C37" s="60"/>
       <c r="D37" s="62"/>
@@ -5868,7 +5878,7 @@
       <c r="A38" s="60"/>
       <c r="B38" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D38, 13, 30), " ", Q38, ", ", "арт. ", A38, ", цвет ", H38, ", р.", L38, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C38" s="60"/>
       <c r="D38" s="62"/>
@@ -5897,7 +5907,7 @@
       <c r="A39" s="60"/>
       <c r="B39" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D39, 13, 30), " ", Q39, ", ", "арт. ", A39, ", цвет ", H39, ", р.", L39, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C39" s="60"/>
       <c r="D39" s="62"/>
@@ -5926,7 +5936,7 @@
       <c r="A40" s="60"/>
       <c r="B40" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D40, 13, 30), " ", Q40, ", ", "арт. ", A40, ", цвет ", H40, ", р.", L40, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C40" s="60"/>
       <c r="D40" s="62"/>
@@ -5955,7 +5965,7 @@
       <c r="A41" s="60"/>
       <c r="B41" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D41, 13, 30), " ", Q41, ", ", "арт. ", A41, ", цвет ", H41, ", р.", L41, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C41" s="60"/>
       <c r="D41" s="62"/>
@@ -5984,7 +5994,7 @@
       <c r="A42" s="60"/>
       <c r="B42" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D42, 13, 30), " ", Q42, ", ", "арт. ", A42, ", цвет ", H42, ", р.", L42, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C42" s="60"/>
       <c r="D42" s="62"/>
@@ -6013,7 +6023,7 @@
       <c r="A43" s="60"/>
       <c r="B43" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D43, 13, 30), " ", Q43, ", ", "арт. ", A43, ", цвет ", H43, ", р.", L43, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C43" s="60"/>
       <c r="D43" s="62"/>
@@ -6042,7 +6052,7 @@
       <c r="A44" s="60"/>
       <c r="B44" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D44, 13, 30), " ", Q44, ", ", "арт. ", A44, ", цвет ", H44, ", р.", L44, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C44" s="60"/>
       <c r="D44" s="62"/>
@@ -6071,7 +6081,7 @@
       <c r="A45" s="60"/>
       <c r="B45" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D45, 13, 30), " ", Q45, ", ", "арт. ", A45, ", цвет ", H45, ", р.", L45, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C45" s="60"/>
       <c r="D45" s="62"/>
@@ -6100,7 +6110,7 @@
       <c r="A46" s="60"/>
       <c r="B46" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D46, 13, 30), " ", Q46, ", ", "арт. ", A46, ", цвет ", H46, ", р.", L46, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C46" s="60"/>
       <c r="D46" s="62"/>
@@ -6129,7 +6139,7 @@
       <c r="A47" s="60"/>
       <c r="B47" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D47, 13, 30), " ", Q47, ", ", "арт. ", A47, ", цвет ", H47, ", р.", L47, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C47" s="60"/>
       <c r="D47" s="62"/>
@@ -6158,7 +6168,7 @@
       <c r="A48" s="60"/>
       <c r="B48" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D48, 13, 30), " ", Q48, ", ", "арт. ", A48, ", цвет ", H48, ", р.", L48, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C48" s="60"/>
       <c r="D48" s="62"/>
@@ -6187,7 +6197,7 @@
       <c r="A49" s="60"/>
       <c r="B49" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D49, 13, 30), " ", Q49, ", ", "арт. ", A49, ", цвет ", H49, ", р.", L49, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C49" s="60"/>
       <c r="D49" s="62"/>
@@ -6216,7 +6226,7 @@
       <c r="A50" s="60"/>
       <c r="B50" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D50, 13, 30), " ", Q50, ", ", "арт. ", A50, ", цвет ", H50, ", р.", L50, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C50" s="60"/>
       <c r="D50" s="62"/>
@@ -6245,7 +6255,7 @@
       <c r="A51" s="60"/>
       <c r="B51" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D51, 13, 30), " ", Q51, ", ", "арт. ", A51, ", цвет ", H51, ", р.", L51, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C51" s="60"/>
       <c r="D51" s="62"/>
@@ -6274,7 +6284,7 @@
       <c r="A52" s="60"/>
       <c r="B52" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D52, 13, 30), " ", Q52, ", ", "арт. ", A52, ", цвет ", H52, ", р.", L52, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C52" s="60"/>
       <c r="D52" s="62"/>
@@ -6303,7 +6313,7 @@
       <c r="A53" s="60"/>
       <c r="B53" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D53, 13, 30), " ", Q53, ", ", "арт. ", A53, ", цвет ", H53, ", р.", L53, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C53" s="60"/>
       <c r="D53" s="62"/>
@@ -6332,7 +6342,7 @@
       <c r="A54" s="60"/>
       <c r="B54" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D54, 13, 30), " ", Q54, ", ", "арт. ", A54, ", цвет ", H54, ", р.", L54, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C54" s="60"/>
       <c r="D54" s="62"/>
@@ -6361,7 +6371,7 @@
       <c r="A55" s="60"/>
       <c r="B55" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D55, 13, 30), " ", Q55, ", ", "арт. ", A55, ", цвет ", H55, ", р.", L55, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C55" s="60"/>
       <c r="D55" s="62"/>
@@ -6390,7 +6400,7 @@
       <c r="A56" s="60"/>
       <c r="B56" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D56, 13, 30), " ", Q56, ", ", "арт. ", A56, ", цвет ", H56, ", р.", L56, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C56" s="60"/>
       <c r="D56" s="62"/>
@@ -6419,7 +6429,7 @@
       <c r="A57" s="60"/>
       <c r="B57" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D57, 13, 30), " ", Q57, ", ", "арт. ", A57, ", цвет ", H57, ", р.", L57, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C57" s="60"/>
       <c r="D57" s="62"/>
@@ -6448,7 +6458,7 @@
       <c r="A58" s="60"/>
       <c r="B58" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D58, 13, 30), " ", Q58, ", ", "арт. ", A58, ", цвет ", H58, ", р.", L58, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C58" s="60"/>
       <c r="D58" s="62"/>
@@ -6477,7 +6487,7 @@
       <c r="A59" s="60"/>
       <c r="B59" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D59, 13, 30), " ", Q59, ", ", "арт. ", A59, ", цвет ", H59, ", р.", L59, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C59" s="60"/>
       <c r="D59" s="62"/>
@@ -6506,7 +6516,7 @@
       <c r="A60" s="60"/>
       <c r="B60" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D60, 13, 30), " ", Q60, ", ", "арт. ", A60, ", цвет ", H60, ", р.", L60, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C60" s="60"/>
       <c r="D60" s="62"/>
@@ -6535,7 +6545,7 @@
       <c r="A61" s="60"/>
       <c r="B61" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D61, 13, 30), " ", Q61, ", ", "арт. ", A61, ", цвет ", H61, ", р.", L61, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C61" s="60"/>
       <c r="D61" s="62"/>
@@ -6564,7 +6574,7 @@
       <c r="A62" s="60"/>
       <c r="B62" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D62, 13, 30), " ", Q62, ", ", "арт. ", A62, ", цвет ", H62, ", р.", L62, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C62" s="60"/>
       <c r="D62" s="62"/>
@@ -6593,7 +6603,7 @@
       <c r="A63" s="60"/>
       <c r="B63" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D63, 13, 30), " ", Q63, ", ", "арт. ", A63, ", цвет ", H63, ", р.", L63, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C63" s="60"/>
       <c r="D63" s="62"/>
@@ -6622,7 +6632,7 @@
       <c r="A64" s="60"/>
       <c r="B64" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D64, 13, 30), " ", Q64, ", ", "арт. ", A64, ", цвет ", H64, ", р.", L64, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C64" s="60"/>
       <c r="D64" s="62"/>
@@ -6651,7 +6661,7 @@
       <c r="A65" s="60"/>
       <c r="B65" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D65, 13, 30), " ", Q65, ", ", "арт. ", A65, ", цвет ", H65, ", р.", L65, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C65" s="60"/>
       <c r="D65" s="62"/>
@@ -6680,7 +6690,7 @@
       <c r="A66" s="60"/>
       <c r="B66" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D66, 13, 30), " ", Q66, ", ", "арт. ", A66, ", цвет ", H66, ", р.", L66, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C66" s="60"/>
       <c r="D66" s="62"/>
@@ -6709,7 +6719,7 @@
       <c r="A67" s="60"/>
       <c r="B67" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D67, 13, 30), " ", Q67, ", ", "арт. ", A67, ", цвет ", H67, ", р.", L67, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C67" s="60"/>
       <c r="D67" s="62"/>
@@ -6738,7 +6748,7 @@
       <c r="A68" s="60"/>
       <c r="B68" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D68, 13, 30), " ", Q68, ", ", "арт. ", A68, ", цвет ", H68, ", р.", L68, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C68" s="60"/>
       <c r="D68" s="62"/>
@@ -6767,7 +6777,7 @@
       <c r="A69" s="60"/>
       <c r="B69" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D69, 13, 30), " ", Q69, ", ", "арт. ", A69, ", цвет ", H69, ", р.", L69, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C69" s="60"/>
       <c r="D69" s="62"/>
@@ -6796,7 +6806,7 @@
       <c r="A70" s="60"/>
       <c r="B70" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D70, 13, 30), " ", Q70, ", ", "арт. ", A70, ", цвет ", H70, ", р.", L70, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C70" s="60"/>
       <c r="D70" s="62"/>
@@ -6825,7 +6835,7 @@
       <c r="A71" s="60"/>
       <c r="B71" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D71, 13, 30), " ", Q71, ", ", "арт. ", A71, ", цвет ", H71, ", р.", L71, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C71" s="60"/>
       <c r="D71" s="62"/>
@@ -6854,7 +6864,7 @@
       <c r="A72" s="60"/>
       <c r="B72" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D72, 13, 30), " ", Q72, ", ", "арт. ", A72, ", цвет ", H72, ", р.", L72, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C72" s="60"/>
       <c r="D72" s="62"/>
@@ -6883,7 +6893,7 @@
       <c r="A73" s="60"/>
       <c r="B73" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D73, 13, 30), " ", Q73, ", ", "арт. ", A73, ", цвет ", H73, ", р.", L73, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C73" s="60"/>
       <c r="D73" s="62"/>
@@ -6912,7 +6922,7 @@
       <c r="A74" s="60"/>
       <c r="B74" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D74, 13, 30), " ", Q74, ", ", "арт. ", A74, ", цвет ", H74, ", р.", L74, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C74" s="60"/>
       <c r="D74" s="62"/>
@@ -6941,7 +6951,7 @@
       <c r="A75" s="60"/>
       <c r="B75" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D75, 13, 30), " ", Q75, ", ", "арт. ", A75, ", цвет ", H75, ", р.", L75, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C75" s="60"/>
       <c r="D75" s="62"/>
@@ -6970,7 +6980,7 @@
       <c r="A76" s="60"/>
       <c r="B76" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D76, 13, 30), " ", Q76, ", ", "арт. ", A76, ", цвет ", H76, ", р.", L76, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C76" s="60"/>
       <c r="D76" s="62"/>
@@ -6999,7 +7009,7 @@
       <c r="A77" s="60"/>
       <c r="B77" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D77, 13, 30), " ", Q77, ", ", "арт. ", A77, ", цвет ", H77, ", р.", L77, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C77" s="60"/>
       <c r="D77" s="62"/>
@@ -7028,7 +7038,7 @@
       <c r="A78" s="60"/>
       <c r="B78" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D78, 13, 30), " ", Q78, ", ", "арт. ", A78, ", цвет ", H78, ", р.", L78, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C78" s="60"/>
       <c r="D78" s="62"/>
@@ -7057,7 +7067,7 @@
       <c r="A79" s="60"/>
       <c r="B79" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D79, 13, 30), " ", Q79, ", ", "арт. ", A79, ", цвет ", H79, ", р.", L79, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C79" s="60"/>
       <c r="D79" s="62"/>
@@ -7086,7 +7096,7 @@
       <c r="A80" s="60"/>
       <c r="B80" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D80, 13, 30), " ", Q80, ", ", "арт. ", A80, ", цвет ", H80, ", р.", L80, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C80" s="60"/>
       <c r="D80" s="62"/>
@@ -7115,7 +7125,7 @@
       <c r="A81" s="60"/>
       <c r="B81" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D81, 13, 30), " ", Q81, ", ", "арт. ", A81, ", цвет ", H81, ", р.", L81, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C81" s="60"/>
       <c r="D81" s="62"/>
@@ -7144,7 +7154,7 @@
       <c r="A82" s="60"/>
       <c r="B82" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D82, 13, 30), " ", Q82, ", ", "арт. ", A82, ", цвет ", H82, ", р.", L82, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C82" s="60"/>
       <c r="D82" s="62"/>
@@ -7173,7 +7183,7 @@
       <c r="A83" s="60"/>
       <c r="B83" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D83, 13, 30), " ", Q83, ", ", "арт. ", A83, ", цвет ", H83, ", р.", L83, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C83" s="60"/>
       <c r="D83" s="62"/>
@@ -7202,7 +7212,7 @@
       <c r="A84" s="60"/>
       <c r="B84" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D84, 13, 30), " ", Q84, ", ", "арт. ", A84, ", цвет ", H84, ", р.", L84, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C84" s="60"/>
       <c r="D84" s="62"/>
@@ -7231,7 +7241,7 @@
       <c r="A85" s="60"/>
       <c r="B85" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D85, 13, 30), " ", Q85, ", ", "арт. ", A85, ", цвет ", H85, ", р.", L85, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C85" s="60"/>
       <c r="D85" s="62"/>
@@ -7260,7 +7270,7 @@
       <c r="A86" s="60"/>
       <c r="B86" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D86, 13, 30), " ", Q86, ", ", "арт. ", A86, ", цвет ", H86, ", р.", L86, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C86" s="60"/>
       <c r="D86" s="62"/>
@@ -7289,7 +7299,7 @@
       <c r="A87" s="60"/>
       <c r="B87" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D87, 13, 30), " ", Q87, ", ", "арт. ", A87, ", цвет ", H87, ", р.", L87, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="62"/>
@@ -7318,7 +7328,7 @@
       <c r="A88" s="60"/>
       <c r="B88" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D88, 13, 30), " ", Q88, ", ", "арт. ", A88, ", цвет ", H88, ", р.", L88, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C88" s="60"/>
       <c r="D88" s="62"/>
@@ -7347,7 +7357,7 @@
       <c r="A89" s="60"/>
       <c r="B89" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D89, 13, 30), " ", Q89, ", ", "арт. ", A89, ", цвет ", H89, ", р.", L89, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C89" s="60"/>
       <c r="D89" s="62"/>
@@ -7376,7 +7386,7 @@
       <c r="A90" s="60"/>
       <c r="B90" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D90, 13, 30), " ", Q90, ", ", "арт. ", A90, ", цвет ", H90, ", р.", L90, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C90" s="60"/>
       <c r="D90" s="62"/>
@@ -7405,7 +7415,7 @@
       <c r="A91" s="60"/>
       <c r="B91" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D91, 13, 30), " ", Q91, ", ", "арт. ", A91, ", цвет ", H91, ", р.", L91, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C91" s="60"/>
       <c r="D91" s="62"/>
@@ -7434,7 +7444,7 @@
       <c r="A92" s="60"/>
       <c r="B92" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D92, 13, 30), " ", Q92, ", ", "арт. ", A92, ", цвет ", H92, ", р.", L92, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C92" s="60"/>
       <c r="D92" s="62"/>
@@ -7463,7 +7473,7 @@
       <c r="A93" s="60"/>
       <c r="B93" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D93, 13, 30), " ", Q93, ", ", "арт. ", A93, ", цвет ", H93, ", р.", L93, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C93" s="60"/>
       <c r="D93" s="62"/>
@@ -7492,7 +7502,7 @@
       <c r="A94" s="60"/>
       <c r="B94" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D94, 13, 30), " ", Q94, ", ", "арт. ", A94, ", цвет ", H94, ", р.", L94, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C94" s="60"/>
       <c r="D94" s="62"/>
@@ -7521,7 +7531,7 @@
       <c r="A95" s="60"/>
       <c r="B95" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D95, 13, 30), " ", Q95, ", ", "арт. ", A95, ", цвет ", H95, ", р.", L95, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C95" s="60"/>
       <c r="D95" s="62"/>
@@ -7550,7 +7560,7 @@
       <c r="A96" s="60"/>
       <c r="B96" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D96, 13, 30), " ", Q96, ", ", "арт. ", A96, ", цвет ", H96, ", р.", L96, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C96" s="60"/>
       <c r="D96" s="62"/>
@@ -7579,7 +7589,7 @@
       <c r="A97" s="60"/>
       <c r="B97" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D97, 13, 30), " ", Q97, ", ", "арт. ", A97, ", цвет ", H97, ", р.", L97, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C97" s="60"/>
       <c r="D97" s="62"/>
@@ -7608,7 +7618,7 @@
       <c r="A98" s="60"/>
       <c r="B98" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D98, 13, 30), " ", Q98, ", ", "арт. ", A98, ", цвет ", H98, ", р.", L98, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C98" s="60"/>
       <c r="D98" s="62"/>
@@ -7637,7 +7647,7 @@
       <c r="A99" s="60"/>
       <c r="B99" s="61" t="str">
         <f aca="false">CONCATENATE(MID(D99, 13, 30), " ", Q99, ", ", "арт. ", A99, ", цвет ", H99, ", р.", L99, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C99" s="60"/>
       <c r="D99" s="62"/>
@@ -7666,7 +7676,7 @@
       <c r="A100" s="69"/>
       <c r="B100" s="70" t="str">
         <f aca="false">CONCATENATE(MID(D100, 13, 30), " ", Q100, ", ", "арт. ", A100, ", цвет ", H100, ", р.", L100, )</f>
-        <v> , арт. , цвет , р.</v>
+        <v>, арт. , цвет , р.</v>
       </c>
       <c r="C100" s="69"/>
       <c r="D100" s="62"/>
@@ -38343,8 +38353,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40565,115 +40575,121 @@
       <c r="B111" s="86" t="s">
         <v>723</v>
       </c>
+      <c r="C111" s="91" t="s">
+        <v>724</v>
+      </c>
       <c r="D111" s="88" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E111" s="86"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="86" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B112" s="86" t="s">
-        <v>726</v>
+        <v>727</v>
+      </c>
+      <c r="C112" s="91" t="s">
+        <v>728</v>
       </c>
       <c r="D112" s="88" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E112" s="86"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="86" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B113" s="86" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C113" s="87"/>
       <c r="D113" s="88" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E113" s="86"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="86" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B114" s="86" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C114" s="87"/>
       <c r="D114" s="88" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E114" s="86"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="86" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B115" s="86" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C115" s="87"/>
       <c r="D115" s="88" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E115" s="86"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="86" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B116" s="86" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C116" s="87"/>
       <c r="D116" s="88" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E116" s="86"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="86" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B117" s="86" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C117" s="87"/>
       <c r="D117" s="88" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E117" s="86"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="86" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B118" s="86" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C118" s="87"/>
       <c r="D118" s="88" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E118" s="86"/>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="86" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B119" s="86"/>
       <c r="C119" s="87"/>
       <c r="D119" s="88" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E119" s="86"/>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="86" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B120" s="86"/>
       <c r="C120" s="87"/>
@@ -40682,7 +40698,7 @@
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="86" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B121" s="86"/>
       <c r="C121" s="87"/>
@@ -40691,7 +40707,7 @@
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="86" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B122" s="86"/>
       <c r="C122" s="87"/>
@@ -40700,7 +40716,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="86" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B123" s="86"/>
       <c r="C123" s="87"/>
@@ -40709,7 +40725,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="86" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B124" s="86"/>
       <c r="C124" s="87"/>
@@ -40718,7 +40734,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="86" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B125" s="86"/>
       <c r="C125" s="87"/>
@@ -40727,7 +40743,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="86" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B126" s="86"/>
       <c r="C126" s="87"/>
@@ -40736,7 +40752,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="86" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B127" s="86"/>
       <c r="C127" s="87"/>
@@ -40745,7 +40761,7 @@
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="86" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B128" s="86"/>
       <c r="C128" s="87"/>
@@ -40754,7 +40770,7 @@
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="86" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B129" s="86"/>
       <c r="C129" s="87"/>
@@ -40763,7 +40779,7 @@
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="86" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B130" s="86"/>
       <c r="C130" s="87"/>
@@ -40772,7 +40788,7 @@
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="86" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B131" s="86"/>
       <c r="C131" s="87"/>
@@ -40781,7 +40797,7 @@
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="86" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B132" s="86"/>
       <c r="C132" s="87"/>
@@ -40790,7 +40806,7 @@
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="86" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B133" s="86"/>
       <c r="C133" s="87"/>
@@ -40799,7 +40815,7 @@
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="86" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B134" s="86"/>
       <c r="C134" s="87"/>
@@ -40808,7 +40824,7 @@
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="86" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B135" s="86"/>
       <c r="C135" s="87"/>
@@ -40817,7 +40833,7 @@
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="86" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B136" s="86"/>
       <c r="C136" s="87"/>
@@ -40826,7 +40842,7 @@
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="86" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B137" s="86"/>
       <c r="C137" s="87"/>
@@ -40835,7 +40851,7 @@
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="86" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B138" s="86"/>
       <c r="C138" s="87"/>
@@ -40844,7 +40860,7 @@
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="86" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B139" s="86"/>
       <c r="C139" s="87"/>
@@ -40853,7 +40869,7 @@
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="86" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B140" s="86"/>
       <c r="C140" s="87"/>
@@ -40862,7 +40878,7 @@
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="86" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B141" s="86"/>
       <c r="C141" s="87"/>
@@ -40871,7 +40887,7 @@
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="86" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B142" s="86"/>
       <c r="C142" s="87"/>
@@ -40880,7 +40896,7 @@
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="86" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B143" s="86"/>
       <c r="C143" s="87"/>
@@ -40889,7 +40905,7 @@
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="86" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B144" s="86"/>
       <c r="C144" s="87"/>
@@ -40898,7 +40914,7 @@
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="86" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B145" s="86"/>
       <c r="C145" s="87"/>
@@ -40907,7 +40923,7 @@
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="86" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B146" s="86"/>
       <c r="C146" s="87"/>
@@ -40916,7 +40932,7 @@
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="86" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B147" s="86"/>
       <c r="C147" s="87"/>
@@ -40925,7 +40941,7 @@
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="86" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B148" s="86"/>
       <c r="C148" s="87"/>
@@ -40934,7 +40950,7 @@
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="86" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B149" s="86"/>
       <c r="C149" s="87"/>
@@ -40943,7 +40959,7 @@
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="86" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B150" s="86"/>
       <c r="C150" s="87"/>
@@ -40952,7 +40968,7 @@
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="86" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B151" s="86"/>
       <c r="C151" s="87"/>
@@ -40961,7 +40977,7 @@
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="86" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B152" s="86"/>
       <c r="C152" s="87"/>
@@ -40970,7 +40986,7 @@
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="86" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B153" s="86"/>
       <c r="C153" s="87"/>
@@ -40979,7 +40995,7 @@
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="86" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B154" s="86"/>
       <c r="C154" s="87"/>
@@ -40988,7 +41004,7 @@
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="86" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B155" s="86"/>
       <c r="C155" s="87"/>
@@ -40997,7 +41013,7 @@
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="86" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B156" s="86"/>
       <c r="C156" s="87"/>
@@ -41006,7 +41022,7 @@
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="86" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B157" s="86"/>
       <c r="C157" s="87"/>
@@ -41015,7 +41031,7 @@
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="86" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B158" s="86"/>
       <c r="C158" s="87"/>
@@ -41024,7 +41040,7 @@
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="86" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B159" s="86"/>
       <c r="C159" s="87"/>
@@ -41033,7 +41049,7 @@
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="86" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B160" s="86"/>
       <c r="C160" s="87"/>
@@ -41042,7 +41058,7 @@
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="86" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B161" s="86"/>
       <c r="C161" s="87"/>
@@ -41051,7 +41067,7 @@
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="86" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B162" s="86"/>
       <c r="C162" s="87"/>
@@ -41060,7 +41076,7 @@
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="86" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B163" s="86"/>
       <c r="C163" s="87"/>
@@ -41069,7 +41085,7 @@
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="86" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B164" s="86"/>
       <c r="C164" s="87"/>
@@ -41078,7 +41094,7 @@
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="86" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B165" s="86"/>
       <c r="C165" s="87"/>
@@ -41087,7 +41103,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="86" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B166" s="86"/>
       <c r="C166" s="87"/>
@@ -41096,7 +41112,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="86" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B167" s="86"/>
       <c r="C167" s="87"/>
@@ -41105,7 +41121,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="86" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B168" s="86"/>
       <c r="C168" s="87"/>
@@ -41114,7 +41130,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="86" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B169" s="86"/>
       <c r="C169" s="87"/>
@@ -41123,7 +41139,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="86" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B170" s="86"/>
       <c r="C170" s="87"/>
@@ -41132,7 +41148,7 @@
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="86" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B171" s="86"/>
       <c r="C171" s="87"/>
@@ -41141,7 +41157,7 @@
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="86" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B172" s="86"/>
       <c r="C172" s="87"/>
@@ -41150,7 +41166,7 @@
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="86" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B173" s="86"/>
       <c r="C173" s="87"/>
@@ -41159,7 +41175,7 @@
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="86" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B174" s="86"/>
       <c r="C174" s="87"/>
@@ -41168,7 +41184,7 @@
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="86" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B175" s="86"/>
       <c r="C175" s="87"/>
@@ -41177,7 +41193,7 @@
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="86" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B176" s="86"/>
       <c r="C176" s="87"/>
@@ -41186,7 +41202,7 @@
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="86" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B177" s="86"/>
       <c r="C177" s="87"/>
@@ -41195,7 +41211,7 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="86" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B178" s="86"/>
       <c r="C178" s="87"/>
@@ -41204,7 +41220,7 @@
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="86" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B179" s="86"/>
       <c r="C179" s="87"/>
@@ -41213,7 +41229,7 @@
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="86" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B180" s="86"/>
       <c r="C180" s="87"/>
@@ -41222,7 +41238,7 @@
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="86" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B181" s="86"/>
       <c r="C181" s="87"/>
@@ -41231,7 +41247,7 @@
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="86" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B182" s="86"/>
       <c r="C182" s="87"/>
@@ -41240,7 +41256,7 @@
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="86" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B183" s="86"/>
       <c r="C183" s="87"/>
@@ -41249,7 +41265,7 @@
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="86" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B184" s="86"/>
       <c r="C184" s="87"/>
@@ -41258,7 +41274,7 @@
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="86" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B185" s="86"/>
       <c r="C185" s="87"/>
@@ -41267,7 +41283,7 @@
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="86" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B186" s="86"/>
       <c r="C186" s="87"/>
@@ -41276,7 +41292,7 @@
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="86" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B187" s="86"/>
       <c r="C187" s="87"/>
@@ -41285,7 +41301,7 @@
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="86" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B188" s="86"/>
       <c r="C188" s="87"/>
@@ -41294,7 +41310,7 @@
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="86" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B189" s="86"/>
       <c r="C189" s="87"/>
@@ -41303,7 +41319,7 @@
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="86" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B190" s="86"/>
       <c r="C190" s="87"/>
@@ -41312,7 +41328,7 @@
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="86" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B191" s="86"/>
       <c r="C191" s="87"/>
@@ -41321,7 +41337,7 @@
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="86" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B192" s="86"/>
       <c r="C192" s="87"/>
@@ -41330,7 +41346,7 @@
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="86" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B193" s="86"/>
       <c r="C193" s="87"/>
@@ -41339,7 +41355,7 @@
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="86" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B194" s="86"/>
       <c r="C194" s="87"/>
@@ -41348,7 +41364,7 @@
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="86" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B195" s="86"/>
       <c r="C195" s="87"/>
@@ -41357,7 +41373,7 @@
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="86" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B196" s="86"/>
       <c r="C196" s="87"/>
@@ -41366,7 +41382,7 @@
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="86" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B197" s="86"/>
       <c r="C197" s="87"/>
@@ -41375,7 +41391,7 @@
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="86" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B198" s="86"/>
       <c r="C198" s="87"/>
@@ -41384,7 +41400,7 @@
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="86" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B199" s="86"/>
       <c r="C199" s="87"/>
@@ -41393,7 +41409,7 @@
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="86" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B200" s="86"/>
       <c r="C200" s="87"/>
@@ -41402,7 +41418,7 @@
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="86" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B201" s="86"/>
       <c r="C201" s="87"/>
@@ -41411,7 +41427,7 @@
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="86" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B202" s="86"/>
       <c r="C202" s="87"/>
@@ -41420,7 +41436,7 @@
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="86" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B203" s="86"/>
       <c r="C203" s="87"/>
@@ -41429,7 +41445,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="86" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B204" s="86"/>
       <c r="C204" s="87"/>
@@ -41438,7 +41454,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="86" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B205" s="86"/>
       <c r="C205" s="87"/>
@@ -41447,7 +41463,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="86" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B206" s="86"/>
       <c r="C206" s="87"/>
@@ -41456,7 +41472,7 @@
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="86" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B207" s="86"/>
       <c r="C207" s="87"/>
@@ -41465,7 +41481,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="86" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B208" s="86"/>
       <c r="C208" s="87"/>
@@ -41474,7 +41490,7 @@
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="86" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B209" s="86"/>
       <c r="C209" s="87"/>
@@ -41483,7 +41499,7 @@
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="86" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B210" s="86"/>
       <c r="C210" s="87"/>
@@ -41492,7 +41508,7 @@
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="86" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B211" s="86"/>
       <c r="C211" s="87"/>
@@ -41501,7 +41517,7 @@
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="86" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B212" s="86"/>
       <c r="C212" s="87"/>
@@ -41510,7 +41526,7 @@
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="86" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B213" s="86"/>
       <c r="C213" s="87"/>
@@ -41519,7 +41535,7 @@
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="86" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B214" s="86"/>
       <c r="C214" s="87"/>
@@ -41528,7 +41544,7 @@
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="86" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B215" s="86"/>
       <c r="C215" s="87"/>
@@ -41537,7 +41553,7 @@
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="86" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B216" s="86"/>
       <c r="C216" s="87"/>
@@ -41546,7 +41562,7 @@
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="86" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B217" s="86"/>
       <c r="C217" s="87"/>
@@ -41555,7 +41571,7 @@
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="86" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B218" s="86"/>
       <c r="C218" s="87"/>
@@ -41564,7 +41580,7 @@
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="86" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B219" s="86"/>
       <c r="C219" s="87"/>
@@ -41573,7 +41589,7 @@
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="86" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B220" s="86"/>
       <c r="C220" s="87"/>
@@ -41582,7 +41598,7 @@
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="86" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B221" s="86"/>
       <c r="C221" s="87"/>
@@ -41591,7 +41607,7 @@
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="86" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B222" s="86"/>
       <c r="C222" s="87"/>
@@ -41600,7 +41616,7 @@
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="86" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B223" s="86"/>
       <c r="C223" s="87"/>
@@ -41609,7 +41625,7 @@
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="86" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B224" s="86"/>
       <c r="C224" s="87"/>
@@ -41618,7 +41634,7 @@
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="86" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B225" s="86"/>
       <c r="C225" s="87"/>
@@ -41627,7 +41643,7 @@
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="86" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B226" s="86"/>
       <c r="C226" s="87"/>
@@ -41636,7 +41652,7 @@
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="86" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B227" s="86"/>
       <c r="C227" s="87"/>
@@ -41645,7 +41661,7 @@
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="86" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B228" s="86"/>
       <c r="C228" s="87"/>
@@ -41654,7 +41670,7 @@
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="86" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B229" s="86"/>
       <c r="C229" s="87"/>
@@ -41663,7 +41679,7 @@
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="86" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B230" s="86"/>
       <c r="C230" s="87"/>
@@ -41672,7 +41688,7 @@
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="86" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B231" s="86"/>
       <c r="C231" s="87"/>
@@ -41681,7 +41697,7 @@
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="86" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B232" s="86"/>
       <c r="C232" s="87"/>
@@ -41690,7 +41706,7 @@
     </row>
     <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="86" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B233" s="86"/>
       <c r="C233" s="87"/>
@@ -41699,7 +41715,7 @@
     </row>
     <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="86" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B234" s="86"/>
       <c r="C234" s="87"/>
@@ -41708,7 +41724,7 @@
     </row>
     <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="86" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B235" s="86"/>
       <c r="C235" s="87"/>
@@ -41717,7 +41733,7 @@
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="86" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B236" s="86"/>
       <c r="C236" s="87"/>
@@ -41726,7 +41742,7 @@
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="86" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B237" s="86"/>
       <c r="C237" s="87"/>
@@ -41744,7 +41760,7 @@
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="86" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B239" s="86"/>
       <c r="C239" s="87"/>
@@ -41753,7 +41769,7 @@
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="86" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B240" s="86"/>
       <c r="C240" s="87"/>
@@ -41762,7 +41778,7 @@
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="86" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B241" s="86"/>
       <c r="C241" s="87"/>
@@ -41771,7 +41787,7 @@
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="86" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B242" s="86"/>
       <c r="C242" s="87"/>
@@ -41788,2279 +41804,2279 @@
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="86"/>
       <c r="C244" s="87"/>
-      <c r="E244" s="91"/>
+      <c r="E244" s="92"/>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="86"/>
       <c r="C245" s="87"/>
-      <c r="E245" s="91"/>
+      <c r="E245" s="92"/>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="86"/>
       <c r="C246" s="87"/>
-      <c r="E246" s="91"/>
+      <c r="E246" s="92"/>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E247" s="91"/>
+      <c r="E247" s="92"/>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E248" s="91"/>
+      <c r="E248" s="92"/>
     </row>
     <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E249" s="91"/>
+      <c r="E249" s="92"/>
     </row>
     <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E250" s="91"/>
+      <c r="E250" s="92"/>
     </row>
     <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E251" s="91"/>
+      <c r="E251" s="92"/>
     </row>
     <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E252" s="91"/>
+      <c r="E252" s="92"/>
     </row>
     <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E253" s="91"/>
+      <c r="E253" s="92"/>
     </row>
     <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E254" s="91"/>
+      <c r="E254" s="92"/>
     </row>
     <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E255" s="91"/>
+      <c r="E255" s="92"/>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E256" s="91"/>
+      <c r="E256" s="92"/>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E257" s="91"/>
+      <c r="E257" s="92"/>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E258" s="91"/>
+      <c r="E258" s="92"/>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E259" s="91"/>
+      <c r="E259" s="92"/>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E260" s="91"/>
+      <c r="E260" s="92"/>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E261" s="91"/>
+      <c r="E261" s="92"/>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E262" s="91"/>
+      <c r="E262" s="92"/>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E263" s="91"/>
+      <c r="E263" s="92"/>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E264" s="91"/>
+      <c r="E264" s="92"/>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E265" s="91"/>
+      <c r="E265" s="92"/>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E266" s="91"/>
+      <c r="E266" s="92"/>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E267" s="91"/>
+      <c r="E267" s="92"/>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E268" s="91"/>
+      <c r="E268" s="92"/>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E269" s="91"/>
+      <c r="E269" s="92"/>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E270" s="91"/>
+      <c r="E270" s="92"/>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E271" s="91"/>
+      <c r="E271" s="92"/>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E272" s="91"/>
+      <c r="E272" s="92"/>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E273" s="91"/>
+      <c r="E273" s="92"/>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E274" s="91"/>
+      <c r="E274" s="92"/>
     </row>
     <row r="275" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E275" s="91"/>
+      <c r="E275" s="92"/>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E276" s="91"/>
+      <c r="E276" s="92"/>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E277" s="91"/>
+      <c r="E277" s="92"/>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E278" s="91"/>
+      <c r="E278" s="92"/>
     </row>
     <row r="279" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E279" s="91"/>
+      <c r="E279" s="92"/>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E280" s="91"/>
+      <c r="E280" s="92"/>
     </row>
     <row r="281" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E281" s="91"/>
+      <c r="E281" s="92"/>
     </row>
     <row r="282" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E282" s="91"/>
+      <c r="E282" s="92"/>
     </row>
     <row r="283" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E283" s="91"/>
+      <c r="E283" s="92"/>
     </row>
     <row r="284" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E284" s="91"/>
+      <c r="E284" s="92"/>
     </row>
     <row r="285" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E285" s="91"/>
+      <c r="E285" s="92"/>
     </row>
     <row r="286" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E286" s="91"/>
+      <c r="E286" s="92"/>
     </row>
     <row r="287" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E287" s="91"/>
+      <c r="E287" s="92"/>
     </row>
     <row r="288" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E288" s="91"/>
+      <c r="E288" s="92"/>
     </row>
     <row r="289" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E289" s="91"/>
+      <c r="E289" s="92"/>
     </row>
     <row r="290" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E290" s="91"/>
+      <c r="E290" s="92"/>
     </row>
     <row r="291" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E291" s="91"/>
+      <c r="E291" s="92"/>
     </row>
     <row r="292" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E292" s="91"/>
+      <c r="E292" s="92"/>
     </row>
     <row r="293" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E293" s="91"/>
+      <c r="E293" s="92"/>
     </row>
     <row r="294" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E294" s="91"/>
+      <c r="E294" s="92"/>
     </row>
     <row r="295" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E295" s="91"/>
+      <c r="E295" s="92"/>
     </row>
     <row r="296" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E296" s="91"/>
+      <c r="E296" s="92"/>
     </row>
     <row r="297" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E297" s="91"/>
+      <c r="E297" s="92"/>
     </row>
     <row r="298" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E298" s="91"/>
+      <c r="E298" s="92"/>
     </row>
     <row r="299" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E299" s="91"/>
+      <c r="E299" s="92"/>
     </row>
     <row r="300" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E300" s="91"/>
+      <c r="E300" s="92"/>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E301" s="91"/>
+      <c r="E301" s="92"/>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E302" s="91"/>
+      <c r="E302" s="92"/>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E303" s="91"/>
+      <c r="E303" s="92"/>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E304" s="91"/>
+      <c r="E304" s="92"/>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E305" s="91"/>
+      <c r="E305" s="92"/>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E306" s="91"/>
+      <c r="E306" s="92"/>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E307" s="91"/>
+      <c r="E307" s="92"/>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E308" s="91"/>
+      <c r="E308" s="92"/>
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E309" s="91"/>
+      <c r="E309" s="92"/>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E310" s="91"/>
+      <c r="E310" s="92"/>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E311" s="91"/>
+      <c r="E311" s="92"/>
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E312" s="91"/>
+      <c r="E312" s="92"/>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E313" s="91"/>
+      <c r="E313" s="92"/>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E314" s="91"/>
+      <c r="E314" s="92"/>
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E315" s="91"/>
+      <c r="E315" s="92"/>
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E316" s="91"/>
+      <c r="E316" s="92"/>
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E317" s="91"/>
+      <c r="E317" s="92"/>
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E318" s="91"/>
+      <c r="E318" s="92"/>
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E319" s="91"/>
+      <c r="E319" s="92"/>
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E320" s="91"/>
+      <c r="E320" s="92"/>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E321" s="91"/>
+      <c r="E321" s="92"/>
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E322" s="91"/>
+      <c r="E322" s="92"/>
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E323" s="91"/>
+      <c r="E323" s="92"/>
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E324" s="91"/>
+      <c r="E324" s="92"/>
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E325" s="91"/>
+      <c r="E325" s="92"/>
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E326" s="91"/>
+      <c r="E326" s="92"/>
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E327" s="91"/>
+      <c r="E327" s="92"/>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E328" s="91"/>
+      <c r="E328" s="92"/>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E329" s="91"/>
+      <c r="E329" s="92"/>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E330" s="91"/>
+      <c r="E330" s="92"/>
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E331" s="91"/>
+      <c r="E331" s="92"/>
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E332" s="91"/>
+      <c r="E332" s="92"/>
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E333" s="91"/>
+      <c r="E333" s="92"/>
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E334" s="91"/>
+      <c r="E334" s="92"/>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E335" s="91"/>
+      <c r="E335" s="92"/>
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E336" s="91"/>
+      <c r="E336" s="92"/>
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E337" s="91"/>
+      <c r="E337" s="92"/>
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E338" s="91"/>
+      <c r="E338" s="92"/>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E339" s="91"/>
+      <c r="E339" s="92"/>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E340" s="91"/>
+      <c r="E340" s="92"/>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E341" s="91"/>
+      <c r="E341" s="92"/>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E342" s="91"/>
+      <c r="E342" s="92"/>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E343" s="91"/>
+      <c r="E343" s="92"/>
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E344" s="91"/>
+      <c r="E344" s="92"/>
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E345" s="91"/>
+      <c r="E345" s="92"/>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E346" s="91"/>
+      <c r="E346" s="92"/>
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E347" s="91"/>
+      <c r="E347" s="92"/>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E348" s="91"/>
+      <c r="E348" s="92"/>
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E349" s="91"/>
+      <c r="E349" s="92"/>
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E350" s="91"/>
+      <c r="E350" s="92"/>
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E351" s="91"/>
+      <c r="E351" s="92"/>
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E352" s="91"/>
+      <c r="E352" s="92"/>
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E353" s="91"/>
+      <c r="E353" s="92"/>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E354" s="91"/>
+      <c r="E354" s="92"/>
     </row>
     <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E355" s="91"/>
+      <c r="E355" s="92"/>
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E356" s="91"/>
+      <c r="E356" s="92"/>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E357" s="91"/>
+      <c r="E357" s="92"/>
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E358" s="91"/>
+      <c r="E358" s="92"/>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E359" s="91"/>
+      <c r="E359" s="92"/>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E360" s="91"/>
+      <c r="E360" s="92"/>
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E361" s="91"/>
+      <c r="E361" s="92"/>
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E362" s="91"/>
+      <c r="E362" s="92"/>
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E363" s="91"/>
+      <c r="E363" s="92"/>
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E364" s="91"/>
+      <c r="E364" s="92"/>
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E365" s="91"/>
+      <c r="E365" s="92"/>
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E366" s="91"/>
+      <c r="E366" s="92"/>
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E367" s="91"/>
+      <c r="E367" s="92"/>
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E368" s="91"/>
+      <c r="E368" s="92"/>
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E369" s="91"/>
+      <c r="E369" s="92"/>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E370" s="91"/>
+      <c r="E370" s="92"/>
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E371" s="91"/>
+      <c r="E371" s="92"/>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E372" s="91"/>
+      <c r="E372" s="92"/>
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E373" s="91"/>
+      <c r="E373" s="92"/>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E374" s="91"/>
+      <c r="E374" s="92"/>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E375" s="91"/>
+      <c r="E375" s="92"/>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E376" s="91"/>
+      <c r="E376" s="92"/>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E377" s="91"/>
+      <c r="E377" s="92"/>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E378" s="91"/>
+      <c r="E378" s="92"/>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E379" s="91"/>
+      <c r="E379" s="92"/>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E380" s="91"/>
+      <c r="E380" s="92"/>
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E381" s="91"/>
+      <c r="E381" s="92"/>
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E382" s="91"/>
+      <c r="E382" s="92"/>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E383" s="91"/>
+      <c r="E383" s="92"/>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E384" s="91"/>
+      <c r="E384" s="92"/>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E385" s="91"/>
+      <c r="E385" s="92"/>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E386" s="91"/>
+      <c r="E386" s="92"/>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E387" s="91"/>
+      <c r="E387" s="92"/>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E388" s="91"/>
+      <c r="E388" s="92"/>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E389" s="91"/>
+      <c r="E389" s="92"/>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E390" s="91"/>
+      <c r="E390" s="92"/>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E391" s="91"/>
+      <c r="E391" s="92"/>
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E392" s="91"/>
+      <c r="E392" s="92"/>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E393" s="91"/>
+      <c r="E393" s="92"/>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E394" s="91"/>
+      <c r="E394" s="92"/>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E395" s="91"/>
+      <c r="E395" s="92"/>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E396" s="91"/>
+      <c r="E396" s="92"/>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E397" s="91"/>
+      <c r="E397" s="92"/>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E398" s="91"/>
+      <c r="E398" s="92"/>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E399" s="91"/>
+      <c r="E399" s="92"/>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E400" s="91"/>
+      <c r="E400" s="92"/>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E401" s="91"/>
+      <c r="E401" s="92"/>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E402" s="91"/>
+      <c r="E402" s="92"/>
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E403" s="91"/>
+      <c r="E403" s="92"/>
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E404" s="91"/>
+      <c r="E404" s="92"/>
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E405" s="91"/>
+      <c r="E405" s="92"/>
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E406" s="91"/>
+      <c r="E406" s="92"/>
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E407" s="91"/>
+      <c r="E407" s="92"/>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E408" s="91"/>
+      <c r="E408" s="92"/>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E409" s="91"/>
+      <c r="E409" s="92"/>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E410" s="91"/>
+      <c r="E410" s="92"/>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E411" s="91"/>
+      <c r="E411" s="92"/>
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E412" s="91"/>
+      <c r="E412" s="92"/>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E413" s="91"/>
+      <c r="E413" s="92"/>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E414" s="91"/>
+      <c r="E414" s="92"/>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E415" s="91"/>
+      <c r="E415" s="92"/>
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E416" s="91"/>
+      <c r="E416" s="92"/>
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E417" s="91"/>
+      <c r="E417" s="92"/>
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E418" s="91"/>
+      <c r="E418" s="92"/>
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E419" s="91"/>
+      <c r="E419" s="92"/>
     </row>
     <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E420" s="91"/>
+      <c r="E420" s="92"/>
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E421" s="91"/>
+      <c r="E421" s="92"/>
     </row>
     <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E422" s="91"/>
+      <c r="E422" s="92"/>
     </row>
     <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E423" s="91"/>
+      <c r="E423" s="92"/>
     </row>
     <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E424" s="91"/>
+      <c r="E424" s="92"/>
     </row>
     <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E425" s="91"/>
+      <c r="E425" s="92"/>
     </row>
     <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E426" s="91"/>
+      <c r="E426" s="92"/>
     </row>
     <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E427" s="91"/>
+      <c r="E427" s="92"/>
     </row>
     <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E428" s="91"/>
+      <c r="E428" s="92"/>
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E429" s="91"/>
+      <c r="E429" s="92"/>
     </row>
     <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E430" s="91"/>
+      <c r="E430" s="92"/>
     </row>
     <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E431" s="91"/>
+      <c r="E431" s="92"/>
     </row>
     <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E432" s="91"/>
+      <c r="E432" s="92"/>
     </row>
     <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E433" s="91"/>
+      <c r="E433" s="92"/>
     </row>
     <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E434" s="91"/>
+      <c r="E434" s="92"/>
     </row>
     <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E435" s="91"/>
+      <c r="E435" s="92"/>
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E436" s="91"/>
+      <c r="E436" s="92"/>
     </row>
     <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E437" s="91"/>
+      <c r="E437" s="92"/>
     </row>
     <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E438" s="91"/>
+      <c r="E438" s="92"/>
     </row>
     <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E439" s="91"/>
+      <c r="E439" s="92"/>
     </row>
     <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E440" s="91"/>
+      <c r="E440" s="92"/>
     </row>
     <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E441" s="91"/>
+      <c r="E441" s="92"/>
     </row>
     <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E442" s="91"/>
+      <c r="E442" s="92"/>
     </row>
     <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E443" s="91"/>
+      <c r="E443" s="92"/>
     </row>
     <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E444" s="91"/>
+      <c r="E444" s="92"/>
     </row>
     <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E445" s="91"/>
+      <c r="E445" s="92"/>
     </row>
     <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E446" s="91"/>
+      <c r="E446" s="92"/>
     </row>
     <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E447" s="91"/>
+      <c r="E447" s="92"/>
     </row>
     <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E448" s="91"/>
+      <c r="E448" s="92"/>
     </row>
     <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E449" s="91"/>
+      <c r="E449" s="92"/>
     </row>
     <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E450" s="91"/>
+      <c r="E450" s="92"/>
     </row>
     <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E451" s="91"/>
+      <c r="E451" s="92"/>
     </row>
     <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E452" s="91"/>
+      <c r="E452" s="92"/>
     </row>
     <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E453" s="91"/>
+      <c r="E453" s="92"/>
     </row>
     <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E454" s="91"/>
+      <c r="E454" s="92"/>
     </row>
     <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E455" s="91"/>
+      <c r="E455" s="92"/>
     </row>
     <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E456" s="91"/>
+      <c r="E456" s="92"/>
     </row>
     <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E457" s="91"/>
+      <c r="E457" s="92"/>
     </row>
     <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E458" s="91"/>
+      <c r="E458" s="92"/>
     </row>
     <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E459" s="91"/>
+      <c r="E459" s="92"/>
     </row>
     <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E460" s="91"/>
+      <c r="E460" s="92"/>
     </row>
     <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E461" s="91"/>
+      <c r="E461" s="92"/>
     </row>
     <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E462" s="91"/>
+      <c r="E462" s="92"/>
     </row>
     <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E463" s="91"/>
+      <c r="E463" s="92"/>
     </row>
     <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E464" s="91"/>
+      <c r="E464" s="92"/>
     </row>
     <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E465" s="91"/>
+      <c r="E465" s="92"/>
     </row>
     <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E466" s="91"/>
+      <c r="E466" s="92"/>
     </row>
     <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E467" s="91"/>
+      <c r="E467" s="92"/>
     </row>
     <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E468" s="91"/>
+      <c r="E468" s="92"/>
     </row>
     <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E469" s="91"/>
+      <c r="E469" s="92"/>
     </row>
     <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E470" s="91"/>
+      <c r="E470" s="92"/>
     </row>
     <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E471" s="91"/>
+      <c r="E471" s="92"/>
     </row>
     <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E472" s="91"/>
+      <c r="E472" s="92"/>
     </row>
     <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E473" s="91"/>
+      <c r="E473" s="92"/>
     </row>
     <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E474" s="91"/>
+      <c r="E474" s="92"/>
     </row>
     <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E475" s="91"/>
+      <c r="E475" s="92"/>
     </row>
     <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E476" s="91"/>
+      <c r="E476" s="92"/>
     </row>
     <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E477" s="91"/>
+      <c r="E477" s="92"/>
     </row>
     <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E478" s="91"/>
+      <c r="E478" s="92"/>
     </row>
     <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E479" s="91"/>
+      <c r="E479" s="92"/>
     </row>
     <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E480" s="91"/>
+      <c r="E480" s="92"/>
     </row>
     <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E481" s="91"/>
+      <c r="E481" s="92"/>
     </row>
     <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E482" s="91"/>
+      <c r="E482" s="92"/>
     </row>
     <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E483" s="91"/>
+      <c r="E483" s="92"/>
     </row>
     <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E484" s="91"/>
+      <c r="E484" s="92"/>
     </row>
     <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E485" s="91"/>
+      <c r="E485" s="92"/>
     </row>
     <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E486" s="91"/>
+      <c r="E486" s="92"/>
     </row>
     <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E487" s="91"/>
+      <c r="E487" s="92"/>
     </row>
     <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E488" s="91"/>
+      <c r="E488" s="92"/>
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E489" s="91"/>
+      <c r="E489" s="92"/>
     </row>
     <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E490" s="91"/>
+      <c r="E490" s="92"/>
     </row>
     <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E491" s="91"/>
+      <c r="E491" s="92"/>
     </row>
     <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E492" s="91"/>
+      <c r="E492" s="92"/>
     </row>
     <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E493" s="91"/>
+      <c r="E493" s="92"/>
     </row>
     <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E494" s="91"/>
+      <c r="E494" s="92"/>
     </row>
     <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E495" s="91"/>
+      <c r="E495" s="92"/>
     </row>
     <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E496" s="91"/>
+      <c r="E496" s="92"/>
     </row>
     <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E497" s="91"/>
+      <c r="E497" s="92"/>
     </row>
     <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E498" s="91"/>
+      <c r="E498" s="92"/>
     </row>
     <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E499" s="91"/>
+      <c r="E499" s="92"/>
     </row>
     <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E500" s="91"/>
+      <c r="E500" s="92"/>
     </row>
     <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E501" s="91"/>
+      <c r="E501" s="92"/>
     </row>
     <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E502" s="91"/>
+      <c r="E502" s="92"/>
     </row>
     <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E503" s="91"/>
+      <c r="E503" s="92"/>
     </row>
     <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E504" s="91"/>
+      <c r="E504" s="92"/>
     </row>
     <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E505" s="91"/>
+      <c r="E505" s="92"/>
     </row>
     <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E506" s="91"/>
+      <c r="E506" s="92"/>
     </row>
     <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E507" s="91"/>
+      <c r="E507" s="92"/>
     </row>
     <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E508" s="91"/>
+      <c r="E508" s="92"/>
     </row>
     <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E509" s="91"/>
+      <c r="E509" s="92"/>
     </row>
     <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E510" s="91"/>
+      <c r="E510" s="92"/>
     </row>
     <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E511" s="91"/>
+      <c r="E511" s="92"/>
     </row>
     <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E512" s="91"/>
+      <c r="E512" s="92"/>
     </row>
     <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E513" s="91"/>
+      <c r="E513" s="92"/>
     </row>
     <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E514" s="91"/>
+      <c r="E514" s="92"/>
     </row>
     <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E515" s="91"/>
+      <c r="E515" s="92"/>
     </row>
     <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E516" s="91"/>
+      <c r="E516" s="92"/>
     </row>
     <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E517" s="91"/>
+      <c r="E517" s="92"/>
     </row>
     <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E518" s="91"/>
+      <c r="E518" s="92"/>
     </row>
     <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E519" s="91"/>
+      <c r="E519" s="92"/>
     </row>
     <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E520" s="91"/>
+      <c r="E520" s="92"/>
     </row>
     <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E521" s="91"/>
+      <c r="E521" s="92"/>
     </row>
     <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E522" s="91"/>
+      <c r="E522" s="92"/>
     </row>
     <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E523" s="91"/>
+      <c r="E523" s="92"/>
     </row>
     <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E524" s="91"/>
+      <c r="E524" s="92"/>
     </row>
     <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E525" s="91"/>
+      <c r="E525" s="92"/>
     </row>
     <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E526" s="91"/>
+      <c r="E526" s="92"/>
     </row>
     <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E527" s="91"/>
+      <c r="E527" s="92"/>
     </row>
     <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E528" s="91"/>
+      <c r="E528" s="92"/>
     </row>
     <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E529" s="91"/>
+      <c r="E529" s="92"/>
     </row>
     <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E530" s="91"/>
+      <c r="E530" s="92"/>
     </row>
     <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E531" s="91"/>
+      <c r="E531" s="92"/>
     </row>
     <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E532" s="91"/>
+      <c r="E532" s="92"/>
     </row>
     <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E533" s="91"/>
+      <c r="E533" s="92"/>
     </row>
     <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E534" s="91"/>
+      <c r="E534" s="92"/>
     </row>
     <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E535" s="91"/>
+      <c r="E535" s="92"/>
     </row>
     <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E536" s="91"/>
+      <c r="E536" s="92"/>
     </row>
     <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E537" s="91"/>
+      <c r="E537" s="92"/>
     </row>
     <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E538" s="91"/>
+      <c r="E538" s="92"/>
     </row>
     <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E539" s="91"/>
+      <c r="E539" s="92"/>
     </row>
     <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E540" s="91"/>
+      <c r="E540" s="92"/>
     </row>
     <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E541" s="91"/>
+      <c r="E541" s="92"/>
     </row>
     <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E542" s="91"/>
+      <c r="E542" s="92"/>
     </row>
     <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E543" s="91"/>
+      <c r="E543" s="92"/>
     </row>
     <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E544" s="91"/>
+      <c r="E544" s="92"/>
     </row>
     <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E545" s="91"/>
+      <c r="E545" s="92"/>
     </row>
     <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E546" s="91"/>
+      <c r="E546" s="92"/>
     </row>
     <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E547" s="91"/>
+      <c r="E547" s="92"/>
     </row>
     <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E548" s="91"/>
+      <c r="E548" s="92"/>
     </row>
     <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E549" s="91"/>
+      <c r="E549" s="92"/>
     </row>
     <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E550" s="91"/>
+      <c r="E550" s="92"/>
     </row>
     <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E551" s="91"/>
+      <c r="E551" s="92"/>
     </row>
     <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E552" s="91"/>
+      <c r="E552" s="92"/>
     </row>
     <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E553" s="91"/>
+      <c r="E553" s="92"/>
     </row>
     <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E554" s="91"/>
+      <c r="E554" s="92"/>
     </row>
     <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E555" s="91"/>
+      <c r="E555" s="92"/>
     </row>
     <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E556" s="91"/>
+      <c r="E556" s="92"/>
     </row>
     <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E557" s="91"/>
+      <c r="E557" s="92"/>
     </row>
     <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E558" s="91"/>
+      <c r="E558" s="92"/>
     </row>
     <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E559" s="91"/>
+      <c r="E559" s="92"/>
     </row>
     <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E560" s="91"/>
+      <c r="E560" s="92"/>
     </row>
     <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E561" s="91"/>
+      <c r="E561" s="92"/>
     </row>
     <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E562" s="91"/>
+      <c r="E562" s="92"/>
     </row>
     <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E563" s="91"/>
+      <c r="E563" s="92"/>
     </row>
     <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E564" s="91"/>
+      <c r="E564" s="92"/>
     </row>
     <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E565" s="91"/>
+      <c r="E565" s="92"/>
     </row>
     <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E566" s="91"/>
+      <c r="E566" s="92"/>
     </row>
     <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E567" s="91"/>
+      <c r="E567" s="92"/>
     </row>
     <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E568" s="91"/>
+      <c r="E568" s="92"/>
     </row>
     <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E569" s="91"/>
+      <c r="E569" s="92"/>
     </row>
     <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E570" s="91"/>
+      <c r="E570" s="92"/>
     </row>
     <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E571" s="91"/>
+      <c r="E571" s="92"/>
     </row>
     <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E572" s="91"/>
+      <c r="E572" s="92"/>
     </row>
     <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E573" s="91"/>
+      <c r="E573" s="92"/>
     </row>
     <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E574" s="91"/>
+      <c r="E574" s="92"/>
     </row>
     <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E575" s="91"/>
+      <c r="E575" s="92"/>
     </row>
     <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E576" s="91"/>
+      <c r="E576" s="92"/>
     </row>
     <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E577" s="91"/>
+      <c r="E577" s="92"/>
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E578" s="91"/>
+      <c r="E578" s="92"/>
     </row>
     <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E579" s="91"/>
+      <c r="E579" s="92"/>
     </row>
     <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E580" s="91"/>
+      <c r="E580" s="92"/>
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E581" s="91"/>
+      <c r="E581" s="92"/>
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E582" s="91"/>
+      <c r="E582" s="92"/>
     </row>
     <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E583" s="91"/>
+      <c r="E583" s="92"/>
     </row>
     <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E584" s="91"/>
+      <c r="E584" s="92"/>
     </row>
     <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E585" s="91"/>
+      <c r="E585" s="92"/>
     </row>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E586" s="91"/>
+      <c r="E586" s="92"/>
     </row>
     <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E587" s="91"/>
+      <c r="E587" s="92"/>
     </row>
     <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E588" s="91"/>
+      <c r="E588" s="92"/>
     </row>
     <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E589" s="91"/>
+      <c r="E589" s="92"/>
     </row>
     <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E590" s="91"/>
+      <c r="E590" s="92"/>
     </row>
     <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E591" s="91"/>
+      <c r="E591" s="92"/>
     </row>
     <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E592" s="91"/>
+      <c r="E592" s="92"/>
     </row>
     <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E593" s="91"/>
+      <c r="E593" s="92"/>
     </row>
     <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E594" s="91"/>
+      <c r="E594" s="92"/>
     </row>
     <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E595" s="91"/>
+      <c r="E595" s="92"/>
     </row>
     <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E596" s="91"/>
+      <c r="E596" s="92"/>
     </row>
     <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E597" s="91"/>
+      <c r="E597" s="92"/>
     </row>
     <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E598" s="91"/>
+      <c r="E598" s="92"/>
     </row>
     <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E599" s="91"/>
+      <c r="E599" s="92"/>
     </row>
     <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E600" s="91"/>
+      <c r="E600" s="92"/>
     </row>
     <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E601" s="91"/>
+      <c r="E601" s="92"/>
     </row>
     <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E602" s="91"/>
+      <c r="E602" s="92"/>
     </row>
     <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E603" s="91"/>
+      <c r="E603" s="92"/>
     </row>
     <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E604" s="91"/>
+      <c r="E604" s="92"/>
     </row>
     <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E605" s="91"/>
+      <c r="E605" s="92"/>
     </row>
     <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E606" s="91"/>
+      <c r="E606" s="92"/>
     </row>
     <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E607" s="91"/>
+      <c r="E607" s="92"/>
     </row>
     <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E608" s="91"/>
+      <c r="E608" s="92"/>
     </row>
     <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E609" s="91"/>
+      <c r="E609" s="92"/>
     </row>
     <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E610" s="91"/>
+      <c r="E610" s="92"/>
     </row>
     <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E611" s="91"/>
+      <c r="E611" s="92"/>
     </row>
     <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E612" s="91"/>
+      <c r="E612" s="92"/>
     </row>
     <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E613" s="91"/>
+      <c r="E613" s="92"/>
     </row>
     <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E614" s="91"/>
+      <c r="E614" s="92"/>
     </row>
     <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E615" s="91"/>
+      <c r="E615" s="92"/>
     </row>
     <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E616" s="91"/>
+      <c r="E616" s="92"/>
     </row>
     <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E617" s="91"/>
+      <c r="E617" s="92"/>
     </row>
     <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E618" s="91"/>
+      <c r="E618" s="92"/>
     </row>
     <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E619" s="91"/>
+      <c r="E619" s="92"/>
     </row>
     <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E620" s="91"/>
+      <c r="E620" s="92"/>
     </row>
     <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E621" s="91"/>
+      <c r="E621" s="92"/>
     </row>
     <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E622" s="91"/>
+      <c r="E622" s="92"/>
     </row>
     <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E623" s="91"/>
+      <c r="E623" s="92"/>
     </row>
     <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E624" s="91"/>
+      <c r="E624" s="92"/>
     </row>
     <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E625" s="91"/>
+      <c r="E625" s="92"/>
     </row>
     <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E626" s="91"/>
+      <c r="E626" s="92"/>
     </row>
     <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E627" s="91"/>
+      <c r="E627" s="92"/>
     </row>
     <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E628" s="91"/>
+      <c r="E628" s="92"/>
     </row>
     <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E629" s="91"/>
+      <c r="E629" s="92"/>
     </row>
     <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E630" s="91"/>
+      <c r="E630" s="92"/>
     </row>
     <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E631" s="91"/>
+      <c r="E631" s="92"/>
     </row>
     <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E632" s="91"/>
+      <c r="E632" s="92"/>
     </row>
     <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E633" s="91"/>
+      <c r="E633" s="92"/>
     </row>
     <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E634" s="91"/>
+      <c r="E634" s="92"/>
     </row>
     <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E635" s="91"/>
+      <c r="E635" s="92"/>
     </row>
     <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E636" s="91"/>
+      <c r="E636" s="92"/>
     </row>
     <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E637" s="91"/>
+      <c r="E637" s="92"/>
     </row>
     <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E638" s="91"/>
+      <c r="E638" s="92"/>
     </row>
     <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E639" s="91"/>
+      <c r="E639" s="92"/>
     </row>
     <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E640" s="91"/>
+      <c r="E640" s="92"/>
     </row>
     <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E641" s="91"/>
+      <c r="E641" s="92"/>
     </row>
     <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E642" s="91"/>
+      <c r="E642" s="92"/>
     </row>
     <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E643" s="91"/>
+      <c r="E643" s="92"/>
     </row>
     <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E644" s="91"/>
+      <c r="E644" s="92"/>
     </row>
     <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E645" s="91"/>
+      <c r="E645" s="92"/>
     </row>
     <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E646" s="91"/>
+      <c r="E646" s="92"/>
     </row>
     <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E647" s="91"/>
+      <c r="E647" s="92"/>
     </row>
     <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E648" s="91"/>
+      <c r="E648" s="92"/>
     </row>
     <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E649" s="91"/>
+      <c r="E649" s="92"/>
     </row>
     <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E650" s="91"/>
+      <c r="E650" s="92"/>
     </row>
     <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E651" s="91"/>
+      <c r="E651" s="92"/>
     </row>
     <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E652" s="91"/>
+      <c r="E652" s="92"/>
     </row>
     <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E653" s="91"/>
+      <c r="E653" s="92"/>
     </row>
     <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E654" s="91"/>
+      <c r="E654" s="92"/>
     </row>
     <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E655" s="91"/>
+      <c r="E655" s="92"/>
     </row>
     <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E656" s="91"/>
+      <c r="E656" s="92"/>
     </row>
     <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E657" s="91"/>
+      <c r="E657" s="92"/>
     </row>
     <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E658" s="91"/>
+      <c r="E658" s="92"/>
     </row>
     <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E659" s="91"/>
+      <c r="E659" s="92"/>
     </row>
     <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E660" s="91"/>
+      <c r="E660" s="92"/>
     </row>
     <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E661" s="91"/>
+      <c r="E661" s="92"/>
     </row>
     <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E662" s="91"/>
+      <c r="E662" s="92"/>
     </row>
     <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E663" s="91"/>
+      <c r="E663" s="92"/>
     </row>
     <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E664" s="91"/>
+      <c r="E664" s="92"/>
     </row>
     <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E665" s="91"/>
+      <c r="E665" s="92"/>
     </row>
     <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E666" s="91"/>
+      <c r="E666" s="92"/>
     </row>
     <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E667" s="91"/>
+      <c r="E667" s="92"/>
     </row>
     <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E668" s="91"/>
+      <c r="E668" s="92"/>
     </row>
     <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E669" s="91"/>
+      <c r="E669" s="92"/>
     </row>
     <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E670" s="91"/>
+      <c r="E670" s="92"/>
     </row>
     <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E671" s="91"/>
+      <c r="E671" s="92"/>
     </row>
     <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E672" s="91"/>
+      <c r="E672" s="92"/>
     </row>
     <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E673" s="91"/>
+      <c r="E673" s="92"/>
     </row>
     <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E674" s="91"/>
+      <c r="E674" s="92"/>
     </row>
     <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E675" s="91"/>
+      <c r="E675" s="92"/>
     </row>
     <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E676" s="91"/>
+      <c r="E676" s="92"/>
     </row>
     <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E677" s="91"/>
+      <c r="E677" s="92"/>
     </row>
     <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E678" s="91"/>
+      <c r="E678" s="92"/>
     </row>
     <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E679" s="91"/>
+      <c r="E679" s="92"/>
     </row>
     <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E680" s="91"/>
+      <c r="E680" s="92"/>
     </row>
     <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E681" s="91"/>
+      <c r="E681" s="92"/>
     </row>
     <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E682" s="91"/>
+      <c r="E682" s="92"/>
     </row>
     <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E683" s="91"/>
+      <c r="E683" s="92"/>
     </row>
     <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E684" s="91"/>
+      <c r="E684" s="92"/>
     </row>
     <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E685" s="91"/>
+      <c r="E685" s="92"/>
     </row>
     <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E686" s="91"/>
+      <c r="E686" s="92"/>
     </row>
     <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E687" s="91"/>
+      <c r="E687" s="92"/>
     </row>
     <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E688" s="91"/>
+      <c r="E688" s="92"/>
     </row>
     <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E689" s="91"/>
+      <c r="E689" s="92"/>
     </row>
     <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E690" s="91"/>
+      <c r="E690" s="92"/>
     </row>
     <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E691" s="91"/>
+      <c r="E691" s="92"/>
     </row>
     <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E692" s="91"/>
+      <c r="E692" s="92"/>
     </row>
     <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E693" s="91"/>
+      <c r="E693" s="92"/>
     </row>
     <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E694" s="91"/>
+      <c r="E694" s="92"/>
     </row>
     <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E695" s="91"/>
+      <c r="E695" s="92"/>
     </row>
     <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E696" s="91"/>
+      <c r="E696" s="92"/>
     </row>
     <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E697" s="91"/>
+      <c r="E697" s="92"/>
     </row>
     <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E698" s="91"/>
+      <c r="E698" s="92"/>
     </row>
     <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E699" s="91"/>
+      <c r="E699" s="92"/>
     </row>
     <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E700" s="91"/>
+      <c r="E700" s="92"/>
     </row>
     <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E701" s="91"/>
+      <c r="E701" s="92"/>
     </row>
     <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E702" s="91"/>
+      <c r="E702" s="92"/>
     </row>
     <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E703" s="91"/>
+      <c r="E703" s="92"/>
     </row>
     <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E704" s="91"/>
+      <c r="E704" s="92"/>
     </row>
     <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E705" s="91"/>
+      <c r="E705" s="92"/>
     </row>
     <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E706" s="91"/>
+      <c r="E706" s="92"/>
     </row>
     <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E707" s="91"/>
+      <c r="E707" s="92"/>
     </row>
     <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E708" s="91"/>
+      <c r="E708" s="92"/>
     </row>
     <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E709" s="91"/>
+      <c r="E709" s="92"/>
     </row>
     <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E710" s="91"/>
+      <c r="E710" s="92"/>
     </row>
     <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E711" s="91"/>
+      <c r="E711" s="92"/>
     </row>
     <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E712" s="91"/>
+      <c r="E712" s="92"/>
     </row>
     <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E713" s="91"/>
+      <c r="E713" s="92"/>
     </row>
     <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E714" s="91"/>
+      <c r="E714" s="92"/>
     </row>
     <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E715" s="91"/>
+      <c r="E715" s="92"/>
     </row>
     <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E716" s="91"/>
+      <c r="E716" s="92"/>
     </row>
     <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E717" s="91"/>
+      <c r="E717" s="92"/>
     </row>
     <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E718" s="91"/>
+      <c r="E718" s="92"/>
     </row>
     <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E719" s="91"/>
+      <c r="E719" s="92"/>
     </row>
     <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E720" s="91"/>
+      <c r="E720" s="92"/>
     </row>
     <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E721" s="91"/>
+      <c r="E721" s="92"/>
     </row>
     <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E722" s="91"/>
+      <c r="E722" s="92"/>
     </row>
     <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E723" s="91"/>
+      <c r="E723" s="92"/>
     </row>
     <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E724" s="91"/>
+      <c r="E724" s="92"/>
     </row>
     <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E725" s="91"/>
+      <c r="E725" s="92"/>
     </row>
     <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E726" s="91"/>
+      <c r="E726" s="92"/>
     </row>
     <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E727" s="91"/>
+      <c r="E727" s="92"/>
     </row>
     <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E728" s="91"/>
+      <c r="E728" s="92"/>
     </row>
     <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E729" s="91"/>
+      <c r="E729" s="92"/>
     </row>
     <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E730" s="91"/>
+      <c r="E730" s="92"/>
     </row>
     <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E731" s="91"/>
+      <c r="E731" s="92"/>
     </row>
     <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E732" s="91"/>
+      <c r="E732" s="92"/>
     </row>
     <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E733" s="91"/>
+      <c r="E733" s="92"/>
     </row>
     <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E734" s="91"/>
+      <c r="E734" s="92"/>
     </row>
     <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E735" s="91"/>
+      <c r="E735" s="92"/>
     </row>
     <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E736" s="91"/>
+      <c r="E736" s="92"/>
     </row>
     <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E737" s="91"/>
+      <c r="E737" s="92"/>
     </row>
     <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E738" s="91"/>
+      <c r="E738" s="92"/>
     </row>
     <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E739" s="91"/>
+      <c r="E739" s="92"/>
     </row>
     <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E740" s="91"/>
+      <c r="E740" s="92"/>
     </row>
     <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E741" s="91"/>
+      <c r="E741" s="92"/>
     </row>
     <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E742" s="91"/>
+      <c r="E742" s="92"/>
     </row>
     <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E743" s="91"/>
+      <c r="E743" s="92"/>
     </row>
     <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E744" s="91"/>
+      <c r="E744" s="92"/>
     </row>
     <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E745" s="91"/>
+      <c r="E745" s="92"/>
     </row>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E746" s="91"/>
+      <c r="E746" s="92"/>
     </row>
     <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E747" s="91"/>
+      <c r="E747" s="92"/>
     </row>
     <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E748" s="91"/>
+      <c r="E748" s="92"/>
     </row>
     <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E749" s="91"/>
+      <c r="E749" s="92"/>
     </row>
     <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E750" s="91"/>
+      <c r="E750" s="92"/>
     </row>
     <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E751" s="91"/>
+      <c r="E751" s="92"/>
     </row>
     <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E752" s="91"/>
+      <c r="E752" s="92"/>
     </row>
     <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E753" s="91"/>
+      <c r="E753" s="92"/>
     </row>
     <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E754" s="91"/>
+      <c r="E754" s="92"/>
     </row>
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E755" s="91"/>
+      <c r="E755" s="92"/>
     </row>
     <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E756" s="91"/>
+      <c r="E756" s="92"/>
     </row>
     <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E757" s="91"/>
+      <c r="E757" s="92"/>
     </row>
     <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E758" s="91"/>
+      <c r="E758" s="92"/>
     </row>
     <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E759" s="91"/>
+      <c r="E759" s="92"/>
     </row>
     <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E760" s="91"/>
+      <c r="E760" s="92"/>
     </row>
     <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E761" s="91"/>
+      <c r="E761" s="92"/>
     </row>
     <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E762" s="91"/>
+      <c r="E762" s="92"/>
     </row>
     <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E763" s="91"/>
+      <c r="E763" s="92"/>
     </row>
     <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E764" s="91"/>
+      <c r="E764" s="92"/>
     </row>
     <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E765" s="91"/>
+      <c r="E765" s="92"/>
     </row>
     <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E766" s="91"/>
+      <c r="E766" s="92"/>
     </row>
     <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E767" s="91"/>
+      <c r="E767" s="92"/>
     </row>
     <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E768" s="91"/>
+      <c r="E768" s="92"/>
     </row>
     <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E769" s="91"/>
+      <c r="E769" s="92"/>
     </row>
     <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E770" s="91"/>
+      <c r="E770" s="92"/>
     </row>
     <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E771" s="91"/>
+      <c r="E771" s="92"/>
     </row>
     <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E772" s="91"/>
+      <c r="E772" s="92"/>
     </row>
     <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E773" s="91"/>
+      <c r="E773" s="92"/>
     </row>
     <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E774" s="91"/>
+      <c r="E774" s="92"/>
     </row>
     <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E775" s="91"/>
+      <c r="E775" s="92"/>
     </row>
     <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E776" s="91"/>
+      <c r="E776" s="92"/>
     </row>
     <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E777" s="91"/>
+      <c r="E777" s="92"/>
     </row>
     <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E778" s="91"/>
+      <c r="E778" s="92"/>
     </row>
     <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E779" s="91"/>
+      <c r="E779" s="92"/>
     </row>
     <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E780" s="91"/>
+      <c r="E780" s="92"/>
     </row>
     <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E781" s="91"/>
+      <c r="E781" s="92"/>
     </row>
     <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E782" s="91"/>
+      <c r="E782" s="92"/>
     </row>
     <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E783" s="91"/>
+      <c r="E783" s="92"/>
     </row>
     <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E784" s="91"/>
+      <c r="E784" s="92"/>
     </row>
     <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E785" s="91"/>
+      <c r="E785" s="92"/>
     </row>
     <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E786" s="91"/>
+      <c r="E786" s="92"/>
     </row>
     <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E787" s="91"/>
+      <c r="E787" s="92"/>
     </row>
     <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E788" s="91"/>
+      <c r="E788" s="92"/>
     </row>
     <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E789" s="91"/>
+      <c r="E789" s="92"/>
     </row>
     <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E790" s="91"/>
+      <c r="E790" s="92"/>
     </row>
     <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E791" s="91"/>
+      <c r="E791" s="92"/>
     </row>
     <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E792" s="91"/>
+      <c r="E792" s="92"/>
     </row>
     <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E793" s="91"/>
+      <c r="E793" s="92"/>
     </row>
     <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E794" s="91"/>
+      <c r="E794" s="92"/>
     </row>
     <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E795" s="91"/>
+      <c r="E795" s="92"/>
     </row>
     <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E796" s="91"/>
+      <c r="E796" s="92"/>
     </row>
     <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E797" s="91"/>
+      <c r="E797" s="92"/>
     </row>
     <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E798" s="91"/>
+      <c r="E798" s="92"/>
     </row>
     <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E799" s="91"/>
+      <c r="E799" s="92"/>
     </row>
     <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E800" s="91"/>
+      <c r="E800" s="92"/>
     </row>
     <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E801" s="91"/>
+      <c r="E801" s="92"/>
     </row>
     <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E802" s="91"/>
+      <c r="E802" s="92"/>
     </row>
     <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E803" s="91"/>
+      <c r="E803" s="92"/>
     </row>
     <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E804" s="91"/>
+      <c r="E804" s="92"/>
     </row>
     <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E805" s="91"/>
+      <c r="E805" s="92"/>
     </row>
     <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E806" s="91"/>
+      <c r="E806" s="92"/>
     </row>
     <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E807" s="91"/>
+      <c r="E807" s="92"/>
     </row>
     <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E808" s="91"/>
+      <c r="E808" s="92"/>
     </row>
     <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E809" s="91"/>
+      <c r="E809" s="92"/>
     </row>
     <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E810" s="91"/>
+      <c r="E810" s="92"/>
     </row>
     <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E811" s="91"/>
+      <c r="E811" s="92"/>
     </row>
     <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E812" s="91"/>
+      <c r="E812" s="92"/>
     </row>
     <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E813" s="91"/>
+      <c r="E813" s="92"/>
     </row>
     <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E814" s="91"/>
+      <c r="E814" s="92"/>
     </row>
     <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E815" s="91"/>
+      <c r="E815" s="92"/>
     </row>
     <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E816" s="91"/>
+      <c r="E816" s="92"/>
     </row>
     <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E817" s="91"/>
+      <c r="E817" s="92"/>
     </row>
     <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E818" s="91"/>
+      <c r="E818" s="92"/>
     </row>
     <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E819" s="91"/>
+      <c r="E819" s="92"/>
     </row>
     <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E820" s="91"/>
+      <c r="E820" s="92"/>
     </row>
     <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E821" s="91"/>
+      <c r="E821" s="92"/>
     </row>
     <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E822" s="91"/>
+      <c r="E822" s="92"/>
     </row>
     <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E823" s="91"/>
+      <c r="E823" s="92"/>
     </row>
     <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E824" s="91"/>
+      <c r="E824" s="92"/>
     </row>
     <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E825" s="91"/>
+      <c r="E825" s="92"/>
     </row>
     <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E826" s="91"/>
+      <c r="E826" s="92"/>
     </row>
     <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E827" s="91"/>
+      <c r="E827" s="92"/>
     </row>
     <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E828" s="91"/>
+      <c r="E828" s="92"/>
     </row>
     <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E829" s="91"/>
+      <c r="E829" s="92"/>
     </row>
     <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E830" s="91"/>
+      <c r="E830" s="92"/>
     </row>
     <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E831" s="91"/>
+      <c r="E831" s="92"/>
     </row>
     <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E832" s="91"/>
+      <c r="E832" s="92"/>
     </row>
     <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E833" s="91"/>
+      <c r="E833" s="92"/>
     </row>
     <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E834" s="91"/>
+      <c r="E834" s="92"/>
     </row>
     <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E835" s="91"/>
+      <c r="E835" s="92"/>
     </row>
     <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E836" s="91"/>
+      <c r="E836" s="92"/>
     </row>
     <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E837" s="91"/>
+      <c r="E837" s="92"/>
     </row>
     <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E838" s="91"/>
+      <c r="E838" s="92"/>
     </row>
     <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E839" s="91"/>
+      <c r="E839" s="92"/>
     </row>
     <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E840" s="91"/>
+      <c r="E840" s="92"/>
     </row>
     <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E841" s="91"/>
+      <c r="E841" s="92"/>
     </row>
     <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E842" s="91"/>
+      <c r="E842" s="92"/>
     </row>
     <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E843" s="91"/>
+      <c r="E843" s="92"/>
     </row>
     <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E844" s="91"/>
+      <c r="E844" s="92"/>
     </row>
     <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E845" s="91"/>
+      <c r="E845" s="92"/>
     </row>
     <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E846" s="91"/>
+      <c r="E846" s="92"/>
     </row>
     <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E847" s="91"/>
+      <c r="E847" s="92"/>
     </row>
     <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E848" s="91"/>
+      <c r="E848" s="92"/>
     </row>
     <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E849" s="91"/>
+      <c r="E849" s="92"/>
     </row>
     <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E850" s="91"/>
+      <c r="E850" s="92"/>
     </row>
     <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E851" s="91"/>
+      <c r="E851" s="92"/>
     </row>
     <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E852" s="91"/>
+      <c r="E852" s="92"/>
     </row>
     <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E853" s="91"/>
+      <c r="E853" s="92"/>
     </row>
     <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E854" s="91"/>
+      <c r="E854" s="92"/>
     </row>
     <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E855" s="91"/>
+      <c r="E855" s="92"/>
     </row>
     <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E856" s="91"/>
+      <c r="E856" s="92"/>
     </row>
     <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E857" s="91"/>
+      <c r="E857" s="92"/>
     </row>
     <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E858" s="91"/>
+      <c r="E858" s="92"/>
     </row>
     <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E859" s="91"/>
+      <c r="E859" s="92"/>
     </row>
     <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E860" s="91"/>
+      <c r="E860" s="92"/>
     </row>
     <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E861" s="91"/>
+      <c r="E861" s="92"/>
     </row>
     <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E862" s="91"/>
+      <c r="E862" s="92"/>
     </row>
     <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E863" s="91"/>
+      <c r="E863" s="92"/>
     </row>
     <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E864" s="91"/>
+      <c r="E864" s="92"/>
     </row>
     <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E865" s="91"/>
+      <c r="E865" s="92"/>
     </row>
     <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E866" s="91"/>
+      <c r="E866" s="92"/>
     </row>
     <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E867" s="91"/>
+      <c r="E867" s="92"/>
     </row>
     <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E868" s="91"/>
+      <c r="E868" s="92"/>
     </row>
     <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E869" s="91"/>
+      <c r="E869" s="92"/>
     </row>
     <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E870" s="91"/>
+      <c r="E870" s="92"/>
     </row>
     <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E871" s="91"/>
+      <c r="E871" s="92"/>
     </row>
     <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E872" s="91"/>
+      <c r="E872" s="92"/>
     </row>
     <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E873" s="91"/>
+      <c r="E873" s="92"/>
     </row>
     <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E874" s="91"/>
+      <c r="E874" s="92"/>
     </row>
     <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E875" s="91"/>
+      <c r="E875" s="92"/>
     </row>
     <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E876" s="91"/>
+      <c r="E876" s="92"/>
     </row>
     <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E877" s="91"/>
+      <c r="E877" s="92"/>
     </row>
     <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E878" s="91"/>
+      <c r="E878" s="92"/>
     </row>
     <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E879" s="91"/>
+      <c r="E879" s="92"/>
     </row>
     <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E880" s="91"/>
+      <c r="E880" s="92"/>
     </row>
     <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E881" s="91"/>
+      <c r="E881" s="92"/>
     </row>
     <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E882" s="91"/>
+      <c r="E882" s="92"/>
     </row>
     <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E883" s="91"/>
+      <c r="E883" s="92"/>
     </row>
     <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E884" s="91"/>
+      <c r="E884" s="92"/>
     </row>
     <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E885" s="91"/>
+      <c r="E885" s="92"/>
     </row>
     <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E886" s="91"/>
+      <c r="E886" s="92"/>
     </row>
     <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E887" s="91"/>
+      <c r="E887" s="92"/>
     </row>
     <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E888" s="91"/>
+      <c r="E888" s="92"/>
     </row>
     <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E889" s="91"/>
+      <c r="E889" s="92"/>
     </row>
     <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E890" s="91"/>
+      <c r="E890" s="92"/>
     </row>
     <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E891" s="91"/>
+      <c r="E891" s="92"/>
     </row>
     <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E892" s="91"/>
+      <c r="E892" s="92"/>
     </row>
     <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E893" s="91"/>
+      <c r="E893" s="92"/>
     </row>
     <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E894" s="91"/>
+      <c r="E894" s="92"/>
     </row>
     <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E895" s="91"/>
+      <c r="E895" s="92"/>
     </row>
     <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E896" s="91"/>
+      <c r="E896" s="92"/>
     </row>
     <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E897" s="91"/>
+      <c r="E897" s="92"/>
     </row>
     <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E898" s="91"/>
+      <c r="E898" s="92"/>
     </row>
     <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E899" s="91"/>
+      <c r="E899" s="92"/>
     </row>
     <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E900" s="91"/>
+      <c r="E900" s="92"/>
     </row>
     <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E901" s="91"/>
+      <c r="E901" s="92"/>
     </row>
     <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E902" s="91"/>
+      <c r="E902" s="92"/>
     </row>
     <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E903" s="91"/>
+      <c r="E903" s="92"/>
     </row>
     <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E904" s="91"/>
+      <c r="E904" s="92"/>
     </row>
     <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E905" s="91"/>
+      <c r="E905" s="92"/>
     </row>
     <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E906" s="91"/>
+      <c r="E906" s="92"/>
     </row>
     <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E907" s="91"/>
+      <c r="E907" s="92"/>
     </row>
     <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E908" s="91"/>
+      <c r="E908" s="92"/>
     </row>
     <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E909" s="91"/>
+      <c r="E909" s="92"/>
     </row>
     <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E910" s="91"/>
+      <c r="E910" s="92"/>
     </row>
     <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E911" s="91"/>
+      <c r="E911" s="92"/>
     </row>
     <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E912" s="91"/>
+      <c r="E912" s="92"/>
     </row>
     <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E913" s="91"/>
+      <c r="E913" s="92"/>
     </row>
     <row r="914" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E914" s="91"/>
+      <c r="E914" s="92"/>
     </row>
     <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E915" s="91"/>
+      <c r="E915" s="92"/>
     </row>
     <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E916" s="91"/>
+      <c r="E916" s="92"/>
     </row>
     <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E917" s="91"/>
+      <c r="E917" s="92"/>
     </row>
     <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E918" s="91"/>
+      <c r="E918" s="92"/>
     </row>
     <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E919" s="91"/>
+      <c r="E919" s="92"/>
     </row>
     <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E920" s="91"/>
+      <c r="E920" s="92"/>
     </row>
     <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E921" s="91"/>
+      <c r="E921" s="92"/>
     </row>
     <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E922" s="91"/>
+      <c r="E922" s="92"/>
     </row>
     <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E923" s="91"/>
+      <c r="E923" s="92"/>
     </row>
     <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E924" s="91"/>
+      <c r="E924" s="92"/>
     </row>
     <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E925" s="91"/>
+      <c r="E925" s="92"/>
     </row>
     <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E926" s="91"/>
+      <c r="E926" s="92"/>
     </row>
     <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E927" s="91"/>
+      <c r="E927" s="92"/>
     </row>
     <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E928" s="91"/>
+      <c r="E928" s="92"/>
     </row>
     <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E929" s="91"/>
+      <c r="E929" s="92"/>
     </row>
     <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E930" s="91"/>
+      <c r="E930" s="92"/>
     </row>
     <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E931" s="91"/>
+      <c r="E931" s="92"/>
     </row>
     <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E932" s="91"/>
+      <c r="E932" s="92"/>
     </row>
     <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E933" s="91"/>
+      <c r="E933" s="92"/>
     </row>
     <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E934" s="91"/>
+      <c r="E934" s="92"/>
     </row>
     <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E935" s="91"/>
+      <c r="E935" s="92"/>
     </row>
     <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E936" s="91"/>
+      <c r="E936" s="92"/>
     </row>
     <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E937" s="91"/>
+      <c r="E937" s="92"/>
     </row>
     <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E938" s="91"/>
+      <c r="E938" s="92"/>
     </row>
     <row r="939" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E939" s="91"/>
+      <c r="E939" s="92"/>
     </row>
     <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E940" s="91"/>
+      <c r="E940" s="92"/>
     </row>
     <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E941" s="91"/>
+      <c r="E941" s="92"/>
     </row>
     <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E942" s="91"/>
+      <c r="E942" s="92"/>
     </row>
     <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E943" s="91"/>
+      <c r="E943" s="92"/>
     </row>
     <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E944" s="91"/>
+      <c r="E944" s="92"/>
     </row>
     <row r="945" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E945" s="91"/>
+      <c r="E945" s="92"/>
     </row>
     <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E946" s="91"/>
+      <c r="E946" s="92"/>
     </row>
     <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E947" s="91"/>
+      <c r="E947" s="92"/>
     </row>
     <row r="948" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E948" s="91"/>
+      <c r="E948" s="92"/>
     </row>
     <row r="949" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E949" s="91"/>
+      <c r="E949" s="92"/>
     </row>
     <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E950" s="91"/>
+      <c r="E950" s="92"/>
     </row>
     <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E951" s="91"/>
+      <c r="E951" s="92"/>
     </row>
     <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E952" s="91"/>
+      <c r="E952" s="92"/>
     </row>
     <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E953" s="91"/>
+      <c r="E953" s="92"/>
     </row>
     <row r="954" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E954" s="91"/>
+      <c r="E954" s="92"/>
     </row>
     <row r="955" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E955" s="91"/>
+      <c r="E955" s="92"/>
     </row>
     <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E956" s="91"/>
+      <c r="E956" s="92"/>
     </row>
     <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E957" s="91"/>
+      <c r="E957" s="92"/>
     </row>
     <row r="958" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E958" s="91"/>
+      <c r="E958" s="92"/>
     </row>
     <row r="959" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E959" s="91"/>
+      <c r="E959" s="92"/>
     </row>
     <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E960" s="91"/>
+      <c r="E960" s="92"/>
     </row>
     <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E961" s="91"/>
+      <c r="E961" s="92"/>
     </row>
     <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E962" s="91"/>
+      <c r="E962" s="92"/>
     </row>
     <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E963" s="91"/>
+      <c r="E963" s="92"/>
     </row>
     <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E964" s="91"/>
+      <c r="E964" s="92"/>
     </row>
     <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E965" s="91"/>
+      <c r="E965" s="92"/>
     </row>
     <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E966" s="91"/>
+      <c r="E966" s="92"/>
     </row>
     <row r="967" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E967" s="91"/>
+      <c r="E967" s="92"/>
     </row>
     <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E968" s="91"/>
+      <c r="E968" s="92"/>
     </row>
     <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E969" s="91"/>
+      <c r="E969" s="92"/>
     </row>
     <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E970" s="91"/>
+      <c r="E970" s="92"/>
     </row>
     <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E971" s="91"/>
+      <c r="E971" s="92"/>
     </row>
     <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E972" s="91"/>
+      <c r="E972" s="92"/>
     </row>
     <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E973" s="91"/>
+      <c r="E973" s="92"/>
     </row>
     <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E974" s="91"/>
+      <c r="E974" s="92"/>
     </row>
     <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E975" s="91"/>
+      <c r="E975" s="92"/>
     </row>
     <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E976" s="91"/>
+      <c r="E976" s="92"/>
     </row>
     <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E977" s="91"/>
+      <c r="E977" s="92"/>
     </row>
     <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E978" s="91"/>
+      <c r="E978" s="92"/>
     </row>
     <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E979" s="91"/>
+      <c r="E979" s="92"/>
     </row>
     <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E980" s="91"/>
+      <c r="E980" s="92"/>
     </row>
     <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E981" s="91"/>
+      <c r="E981" s="92"/>
     </row>
     <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E982" s="91"/>
+      <c r="E982" s="92"/>
     </row>
     <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E983" s="91"/>
+      <c r="E983" s="92"/>
     </row>
     <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E984" s="91"/>
+      <c r="E984" s="92"/>
     </row>
     <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E985" s="91"/>
+      <c r="E985" s="92"/>
     </row>
     <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E986" s="91"/>
+      <c r="E986" s="92"/>
     </row>
     <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E987" s="91"/>
+      <c r="E987" s="92"/>
     </row>
     <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E988" s="91"/>
+      <c r="E988" s="92"/>
     </row>
     <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E989" s="91"/>
+      <c r="E989" s="92"/>
     </row>
     <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E990" s="91"/>
+      <c r="E990" s="92"/>
     </row>
     <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E991" s="91"/>
+      <c r="E991" s="92"/>
     </row>
     <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E992" s="91"/>
+      <c r="E992" s="92"/>
     </row>
     <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E993" s="91"/>
+      <c r="E993" s="92"/>
     </row>
     <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E994" s="91"/>
+      <c r="E994" s="92"/>
     </row>
     <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E995" s="91"/>
+      <c r="E995" s="92"/>
     </row>
     <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E996" s="91"/>
+      <c r="E996" s="92"/>
     </row>
     <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E997" s="91"/>
+      <c r="E997" s="92"/>
     </row>
     <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E998" s="91"/>
+      <c r="E998" s="92"/>
     </row>
     <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E999" s="91"/>
+      <c r="E999" s="92"/>
     </row>
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E1000" s="91"/>
+      <c r="E1000" s="92"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C112">
@@ -44094,1163 +44110,1163 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="92" t="s">
-        <v>870</v>
-      </c>
-      <c r="B1" s="91" t="s">
-        <v>871</v>
+      <c r="A1" s="93" t="s">
+        <v>872</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="93" t="n">
+      <c r="A2" s="94" t="n">
         <v>4203</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>872</v>
+      <c r="B2" s="95" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="n">
         <v>4203100001</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>873</v>
+      <c r="B3" s="96" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="n">
         <v>4203100009</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>874</v>
+      <c r="B4" s="96" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="93" t="n">
+      <c r="A5" s="94" t="n">
         <v>6106</v>
       </c>
-      <c r="B5" s="94" t="s">
-        <v>875</v>
+      <c r="B5" s="95" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="n">
         <v>6106100000</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>876</v>
+      <c r="B6" s="97" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="n">
         <v>6106200000</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>877</v>
+      <c r="B7" s="97" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="n">
         <v>6106901000</v>
       </c>
-      <c r="B8" s="95" t="s">
-        <v>878</v>
+      <c r="B8" s="96" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="n">
         <v>6106903000</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>879</v>
+      <c r="B9" s="96" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
         <v>6106905000</v>
       </c>
-      <c r="B10" s="95" t="s">
-        <v>880</v>
+      <c r="B10" s="96" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="n">
         <v>6106909000</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>881</v>
+      <c r="B11" s="96" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="93" t="n">
+      <c r="A12" s="94" t="n">
         <v>6201</v>
       </c>
-      <c r="B12" s="94" t="s">
-        <v>882</v>
+      <c r="B12" s="95" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="n">
         <v>6201200000</v>
       </c>
-      <c r="B13" s="95" t="s">
-        <v>883</v>
+      <c r="B13" s="96" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
         <v>6201300000</v>
       </c>
-      <c r="B14" s="95" t="s">
-        <v>884</v>
+      <c r="B14" s="96" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
         <v>6201400000</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>885</v>
+      <c r="B15" s="96" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
         <v>6201900000</v>
       </c>
-      <c r="B16" s="95" t="s">
-        <v>886</v>
+      <c r="B16" s="96" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="93" t="n">
+      <c r="A17" s="94" t="n">
         <v>6202</v>
       </c>
-      <c r="B17" s="94" t="s">
-        <v>887</v>
+      <c r="B17" s="95" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
         <v>6202200000</v>
       </c>
-      <c r="B18" s="95" t="s">
-        <v>888</v>
+      <c r="B18" s="96" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="n">
         <v>6202300000</v>
       </c>
-      <c r="B19" s="95" t="s">
-        <v>889</v>
+      <c r="B19" s="96" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
         <v>6202400001</v>
       </c>
-      <c r="B20" s="95" t="s">
-        <v>890</v>
+      <c r="B20" s="96" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="n">
         <v>6202400009</v>
       </c>
-      <c r="B21" s="95" t="s">
-        <v>891</v>
+      <c r="B21" s="96" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="n">
         <v>6202900001</v>
       </c>
-      <c r="B22" s="95" t="s">
-        <v>892</v>
+      <c r="B22" s="96" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="n">
         <v>6202900009</v>
       </c>
-      <c r="B23" s="95" t="s">
-        <v>893</v>
+      <c r="B23" s="96" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="93" t="n">
+      <c r="A24" s="94" t="n">
         <v>6302</v>
       </c>
-      <c r="B24" s="94" t="s">
-        <v>894</v>
+      <c r="B24" s="95" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
         <v>6302100001</v>
       </c>
-      <c r="B25" s="95" t="s">
-        <v>895</v>
+      <c r="B25" s="96" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="n">
         <v>6302100009</v>
       </c>
-      <c r="B26" s="95" t="s">
-        <v>896</v>
+      <c r="B26" s="96" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
         <v>6302210000</v>
       </c>
-      <c r="B27" s="95" t="s">
-        <v>897</v>
+      <c r="B27" s="96" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="n">
         <v>6302221000</v>
       </c>
-      <c r="B28" s="95" t="s">
-        <v>898</v>
+      <c r="B28" s="96" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="n">
         <v>6302229000</v>
       </c>
-      <c r="B29" s="95" t="s">
-        <v>899</v>
+      <c r="B29" s="96" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="n">
         <v>6302310001</v>
       </c>
-      <c r="B30" s="95" t="s">
-        <v>900</v>
+      <c r="B30" s="96" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="n">
         <v>6302310009</v>
       </c>
-      <c r="B31" s="95" t="s">
-        <v>901</v>
+      <c r="B31" s="96" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
         <v>6302321000</v>
       </c>
-      <c r="B32" s="95" t="s">
-        <v>902</v>
+      <c r="B32" s="96" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="n">
         <v>6302329000</v>
       </c>
-      <c r="B33" s="95" t="s">
-        <v>903</v>
+      <c r="B33" s="96" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="n">
         <v>6302392001</v>
       </c>
-      <c r="B34" s="95" t="s">
-        <v>904</v>
+      <c r="B34" s="96" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="n">
         <v>6302392009</v>
       </c>
-      <c r="B35" s="95" t="s">
-        <v>905</v>
+      <c r="B35" s="96" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22" t="n">
         <v>6302399000</v>
       </c>
-      <c r="B36" s="95" t="s">
-        <v>906</v>
+      <c r="B36" s="96" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="22" t="n">
         <v>6302400000</v>
       </c>
-      <c r="B37" s="95" t="s">
-        <v>907</v>
+      <c r="B37" s="96" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="22" t="n">
         <v>6302510001</v>
       </c>
-      <c r="B38" s="95" t="s">
-        <v>908</v>
+      <c r="B38" s="96" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="22" t="n">
         <v>6302510009</v>
       </c>
-      <c r="B39" s="95" t="s">
-        <v>909</v>
+      <c r="B39" s="96" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22" t="n">
         <v>6302531000</v>
       </c>
-      <c r="B40" s="95" t="s">
-        <v>910</v>
+      <c r="B40" s="96" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22" t="n">
         <v>6302539000</v>
       </c>
-      <c r="B41" s="95" t="s">
-        <v>911</v>
+      <c r="B41" s="96" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22" t="n">
         <v>6302591000</v>
       </c>
-      <c r="B42" s="95" t="s">
-        <v>912</v>
+      <c r="B42" s="96" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="22" t="n">
         <v>6302599000</v>
       </c>
-      <c r="B43" s="95" t="s">
-        <v>913</v>
+      <c r="B43" s="96" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="22" t="n">
         <v>6302600000</v>
       </c>
-      <c r="B44" s="95" t="s">
-        <v>914</v>
+      <c r="B44" s="96" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="22" t="n">
         <v>6302910000</v>
       </c>
-      <c r="B45" s="95" t="s">
-        <v>915</v>
+      <c r="B45" s="96" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="22" t="n">
         <v>6302931000</v>
       </c>
-      <c r="B46" s="95" t="s">
-        <v>916</v>
+      <c r="B46" s="96" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="n">
         <v>6302939000</v>
       </c>
-      <c r="B47" s="95" t="s">
-        <v>917</v>
+      <c r="B47" s="96" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="22" t="n">
         <v>6302991000</v>
       </c>
-      <c r="B48" s="95" t="s">
-        <v>918</v>
+      <c r="B48" s="96" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="22" t="n">
         <v>6302999000</v>
       </c>
-      <c r="B49" s="95" t="s">
-        <v>919</v>
+      <c r="B49" s="96" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="93" t="n">
+      <c r="A50" s="94" t="n">
         <v>4303</v>
       </c>
-      <c r="B50" s="94" t="s">
-        <v>920</v>
+      <c r="B50" s="95" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="22" t="n">
         <v>4303109010</v>
       </c>
-      <c r="B51" s="95" t="s">
-        <v>921</v>
+      <c r="B51" s="96" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="22" t="n">
         <v>4303109020</v>
       </c>
-      <c r="B52" s="95" t="s">
-        <v>922</v>
+      <c r="B52" s="96" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="22" t="n">
         <v>4303109030</v>
       </c>
-      <c r="B53" s="95" t="s">
-        <v>923</v>
+      <c r="B53" s="96" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="22" t="n">
         <v>4303109040</v>
       </c>
-      <c r="B54" s="95" t="s">
-        <v>924</v>
+      <c r="B54" s="96" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="22" t="n">
         <v>4303109050</v>
       </c>
-      <c r="B55" s="95" t="s">
-        <v>925</v>
+      <c r="B55" s="96" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="22" t="n">
         <v>4303109060</v>
       </c>
-      <c r="B56" s="95" t="s">
-        <v>926</v>
+      <c r="B56" s="96" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="22" t="n">
         <v>4303109080</v>
       </c>
-      <c r="B57" s="95" t="s">
-        <v>927</v>
+      <c r="B57" s="96" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="93" t="n">
+      <c r="A58" s="94" t="n">
         <v>3303</v>
       </c>
-      <c r="B58" s="97" t="s">
-        <v>928</v>
+      <c r="B58" s="98" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="n">
         <v>3303001000</v>
       </c>
-      <c r="B59" s="95" t="s">
-        <v>929</v>
+      <c r="B59" s="96" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="22" t="n">
         <v>3303009000</v>
       </c>
-      <c r="B60" s="95" t="s">
-        <v>930</v>
+      <c r="B60" s="96" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="93" t="n">
+      <c r="A61" s="94" t="n">
         <v>4011</v>
       </c>
-      <c r="B61" s="94" t="s">
-        <v>931</v>
+      <c r="B61" s="95" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="22" t="n">
         <v>4011100003</v>
       </c>
-      <c r="B62" s="95" t="s">
-        <v>932</v>
+      <c r="B62" s="96" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="n">
         <v>4011100009</v>
       </c>
-      <c r="B63" s="95" t="s">
-        <v>933</v>
+      <c r="B63" s="96" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="22" t="n">
         <v>4011201000</v>
       </c>
-      <c r="B64" s="95" t="s">
-        <v>934</v>
+      <c r="B64" s="96" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="22" t="n">
         <v>4011209000</v>
       </c>
-      <c r="B65" s="95" t="s">
-        <v>935</v>
+      <c r="B65" s="96" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="22" t="n">
         <v>4011400000</v>
       </c>
-      <c r="B66" s="95" t="s">
-        <v>936</v>
+      <c r="B66" s="96" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="22" t="n">
         <v>4011700000</v>
       </c>
-      <c r="B67" s="95" t="s">
-        <v>937</v>
+      <c r="B67" s="96" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="22" t="n">
         <v>4011800000</v>
       </c>
-      <c r="B68" s="95" t="s">
-        <v>938</v>
+      <c r="B68" s="96" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="22" t="n">
         <v>4011900000</v>
       </c>
-      <c r="B69" s="95" t="s">
-        <v>939</v>
+      <c r="B69" s="96" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="93" t="n">
+      <c r="A70" s="94" t="n">
         <v>6401</v>
       </c>
-      <c r="B70" s="94" t="s">
-        <v>940</v>
+      <c r="B70" s="95" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="22" t="n">
         <v>6401100000</v>
       </c>
-      <c r="B71" s="95" t="s">
-        <v>941</v>
+      <c r="B71" s="96" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="22" t="n">
         <v>6401921000</v>
       </c>
-      <c r="B72" s="95" t="s">
-        <v>942</v>
+      <c r="B72" s="96" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="22" t="n">
         <v>6401929000</v>
       </c>
-      <c r="B73" s="95" t="s">
-        <v>943</v>
+      <c r="B73" s="96" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="22" t="n">
         <v>6401990000</v>
       </c>
-      <c r="B74" s="95" t="s">
-        <v>944</v>
+      <c r="B74" s="96" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="93" t="n">
+      <c r="A75" s="94" t="n">
         <v>6402</v>
       </c>
-      <c r="B75" s="94" t="s">
-        <v>945</v>
+      <c r="B75" s="95" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="22" t="n">
         <v>6402121000</v>
       </c>
-      <c r="B76" s="95" t="s">
-        <v>946</v>
+      <c r="B76" s="96" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="22" t="n">
         <v>6402129000</v>
       </c>
-      <c r="B77" s="95" t="s">
-        <v>947</v>
+      <c r="B77" s="96" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="22" t="n">
         <v>6402190000</v>
       </c>
-      <c r="B78" s="95" t="s">
-        <v>948</v>
+      <c r="B78" s="96" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="22" t="n">
         <v>6402200000</v>
       </c>
-      <c r="B79" s="95" t="s">
-        <v>949</v>
+      <c r="B79" s="96" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="22" t="n">
         <v>6402911000</v>
       </c>
-      <c r="B80" s="95" t="s">
-        <v>950</v>
+      <c r="B80" s="96" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="22" t="n">
         <v>6402919000</v>
       </c>
-      <c r="B81" s="95" t="s">
-        <v>951</v>
+      <c r="B81" s="96" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="22" t="n">
         <v>6402990500</v>
       </c>
-      <c r="B82" s="95" t="s">
-        <v>952</v>
+      <c r="B82" s="96" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="22" t="n">
         <v>6402991000</v>
       </c>
-      <c r="B83" s="95" t="s">
-        <v>953</v>
+      <c r="B83" s="96" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="22" t="n">
         <v>6402993100</v>
       </c>
-      <c r="B84" s="95" t="s">
-        <v>954</v>
+      <c r="B84" s="96" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="22" t="n">
         <v>6402993900</v>
       </c>
-      <c r="B85" s="95" t="s">
-        <v>955</v>
+      <c r="B85" s="96" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="22" t="n">
         <v>6402995000</v>
       </c>
-      <c r="B86" s="95" t="s">
-        <v>956</v>
+      <c r="B86" s="96" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="22" t="n">
         <v>6402999100</v>
       </c>
-      <c r="B87" s="95" t="s">
-        <v>957</v>
+      <c r="B87" s="96" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="22" t="n">
         <v>6402999300</v>
       </c>
-      <c r="B88" s="95" t="s">
-        <v>958</v>
+      <c r="B88" s="96" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="22" t="n">
         <v>6402999600</v>
       </c>
-      <c r="B89" s="95" t="s">
-        <v>959</v>
+      <c r="B89" s="96" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="22" t="n">
         <v>6402999800</v>
       </c>
-      <c r="B90" s="95" t="s">
-        <v>959</v>
+      <c r="B90" s="96" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="93" t="n">
+      <c r="A91" s="94" t="n">
         <v>6403</v>
       </c>
-      <c r="B91" s="94" t="s">
-        <v>960</v>
+      <c r="B91" s="95" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="22" t="n">
         <v>6403120000</v>
       </c>
-      <c r="B92" s="95" t="s">
-        <v>961</v>
+      <c r="B92" s="96" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="22" t="n">
         <v>6403190000</v>
       </c>
-      <c r="B93" s="95" t="s">
-        <v>962</v>
+      <c r="B93" s="96" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="22" t="n">
         <v>6403200000</v>
       </c>
-      <c r="B94" s="95" t="s">
-        <v>963</v>
+      <c r="B94" s="96" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="22" t="n">
         <v>6403400000</v>
       </c>
-      <c r="B95" s="95" t="s">
-        <v>964</v>
+      <c r="B95" s="96" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="22" t="n">
         <v>6403510500</v>
       </c>
-      <c r="B96" s="95" t="s">
-        <v>965</v>
+      <c r="B96" s="96" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="22" t="n">
         <v>6403511100</v>
       </c>
-      <c r="B97" s="95" t="s">
-        <v>966</v>
+      <c r="B97" s="96" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="22" t="n">
         <v>6403511500</v>
       </c>
-      <c r="B98" s="95" t="s">
-        <v>967</v>
+      <c r="B98" s="96" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="22" t="n">
         <v>6403511900</v>
       </c>
-      <c r="B99" s="95" t="s">
-        <v>968</v>
+      <c r="B99" s="96" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="22" t="n">
         <v>6403519100</v>
       </c>
-      <c r="B100" s="95" t="s">
-        <v>969</v>
+      <c r="B100" s="96" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="22" t="n">
         <v>6403519500</v>
       </c>
-      <c r="B101" s="95" t="s">
-        <v>970</v>
+      <c r="B101" s="96" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="22" t="n">
         <v>6403519900</v>
       </c>
-      <c r="B102" s="95" t="s">
-        <v>971</v>
+      <c r="B102" s="96" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="22" t="n">
         <v>6403590500</v>
       </c>
-      <c r="B103" s="95" t="s">
-        <v>972</v>
+      <c r="B103" s="96" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="22" t="n">
         <v>6403591100</v>
       </c>
-      <c r="B104" s="95" t="s">
-        <v>973</v>
+      <c r="B104" s="96" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="22" t="n">
         <v>6403593100</v>
       </c>
-      <c r="B105" s="95" t="s">
-        <v>974</v>
+      <c r="B105" s="96" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="22" t="n">
         <v>6403593500</v>
       </c>
-      <c r="B106" s="95" t="s">
-        <v>975</v>
+      <c r="B106" s="96" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="22" t="n">
         <v>6403593900</v>
       </c>
-      <c r="B107" s="95" t="s">
-        <v>976</v>
+      <c r="B107" s="96" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="22" t="n">
         <v>6403595000</v>
       </c>
-      <c r="B108" s="95" t="s">
-        <v>977</v>
+      <c r="B108" s="96" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="22" t="n">
         <v>6403599100</v>
       </c>
-      <c r="B109" s="95" t="s">
-        <v>978</v>
+      <c r="B109" s="96" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="22" t="n">
         <v>6403599500</v>
       </c>
-      <c r="B110" s="95" t="s">
-        <v>979</v>
+      <c r="B110" s="96" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="22" t="n">
         <v>6403599900</v>
       </c>
-      <c r="B111" s="95" t="s">
-        <v>980</v>
+      <c r="B111" s="96" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="22" t="n">
         <v>6403910500</v>
       </c>
-      <c r="B112" s="95" t="s">
-        <v>981</v>
+      <c r="B112" s="96" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="22" t="n">
         <v>6403911100</v>
       </c>
-      <c r="B113" s="95" t="s">
-        <v>982</v>
+      <c r="B113" s="96" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="22" t="n">
         <v>6403911300</v>
       </c>
-      <c r="B114" s="95" t="s">
-        <v>983</v>
+      <c r="B114" s="96" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="22" t="n">
         <v>6403911600</v>
       </c>
-      <c r="B115" s="95" t="s">
-        <v>984</v>
+      <c r="B115" s="96" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="22" t="n">
         <v>6403911800</v>
       </c>
-      <c r="B116" s="95" t="s">
-        <v>985</v>
+      <c r="B116" s="96" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="22" t="n">
         <v>6403919100</v>
       </c>
-      <c r="B117" s="95" t="s">
-        <v>986</v>
+      <c r="B117" s="96" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="22" t="n">
         <v>6403919300</v>
       </c>
-      <c r="B118" s="95" t="s">
-        <v>987</v>
+      <c r="B118" s="96" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="22" t="n">
         <v>6403919600</v>
       </c>
-      <c r="B119" s="95" t="s">
-        <v>988</v>
+      <c r="B119" s="96" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="22" t="n">
         <v>6403919800</v>
       </c>
-      <c r="B120" s="95" t="s">
-        <v>989</v>
+      <c r="B120" s="96" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="22" t="n">
         <v>6403990500</v>
       </c>
-      <c r="B121" s="95" t="s">
-        <v>990</v>
+      <c r="B121" s="96" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="22" t="n">
         <v>6403991100</v>
       </c>
-      <c r="B122" s="95" t="s">
-        <v>991</v>
+      <c r="B122" s="96" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="22" t="n">
         <v>6403993100</v>
       </c>
-      <c r="B123" s="95" t="s">
-        <v>992</v>
+      <c r="B123" s="96" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="22" t="n">
         <v>6403993300</v>
       </c>
-      <c r="B124" s="95" t="s">
-        <v>993</v>
+      <c r="B124" s="96" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="22" t="n">
         <v>6403993600</v>
       </c>
-      <c r="B125" s="95" t="s">
-        <v>994</v>
+      <c r="B125" s="96" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="22" t="n">
         <v>6403993800</v>
       </c>
-      <c r="B126" s="95" t="s">
-        <v>995</v>
+      <c r="B126" s="96" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="22" t="n">
         <v>6403995000</v>
       </c>
-      <c r="B127" s="95" t="s">
-        <v>996</v>
+      <c r="B127" s="96" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="22" t="n">
         <v>6403999100</v>
       </c>
-      <c r="B128" s="95" t="s">
-        <v>997</v>
+      <c r="B128" s="96" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="22" t="n">
         <v>6403999300</v>
       </c>
-      <c r="B129" s="95" t="s">
-        <v>998</v>
+      <c r="B129" s="96" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="22" t="n">
         <v>6403999600</v>
       </c>
-      <c r="B130" s="95" t="s">
-        <v>999</v>
+      <c r="B130" s="96" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="22" t="n">
         <v>6403999800</v>
       </c>
-      <c r="B131" s="95" t="s">
-        <v>1000</v>
+      <c r="B131" s="96" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="93" t="n">
+      <c r="A132" s="94" t="n">
         <v>6404</v>
       </c>
-      <c r="B132" s="94" t="s">
-        <v>1001</v>
+      <c r="B132" s="95" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="22" t="n">
         <v>6404110000</v>
       </c>
-      <c r="B133" s="95" t="s">
-        <v>1002</v>
+      <c r="B133" s="96" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="22" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B134" s="95" t="s">
-        <v>1003</v>
+      <c r="B134" s="96" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="22" t="n">
         <v>6404199000</v>
       </c>
-      <c r="B135" s="95" t="s">
-        <v>1004</v>
+      <c r="B135" s="96" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="22" t="n">
         <v>6404191000</v>
       </c>
-      <c r="B136" s="95" t="s">
-        <v>1005</v>
+      <c r="B136" s="96" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="22" t="n">
         <v>6404209000</v>
       </c>
-      <c r="B137" s="95" t="s">
-        <v>1006</v>
+      <c r="B137" s="96" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="93" t="n">
+      <c r="A138" s="94" t="n">
         <v>6405</v>
       </c>
-      <c r="B138" s="94" t="s">
-        <v>1007</v>
+      <c r="B138" s="95" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="22" t="n">
         <v>6405100001</v>
       </c>
-      <c r="B139" s="95" t="s">
-        <v>1008</v>
+      <c r="B139" s="96" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="22" t="n">
         <v>6405100009</v>
       </c>
-      <c r="B140" s="95" t="s">
-        <v>1009</v>
+      <c r="B140" s="96" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="22" t="n">
         <v>6405201000</v>
       </c>
-      <c r="B141" s="95" t="s">
-        <v>1010</v>
+      <c r="B141" s="96" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="22" t="n">
         <v>6405209100</v>
       </c>
-      <c r="B142" s="95" t="s">
-        <v>1011</v>
+      <c r="B142" s="96" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="22" t="n">
         <v>6405209900</v>
       </c>
-      <c r="B143" s="95" t="s">
-        <v>1012</v>
+      <c r="B143" s="96" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="22" t="n">
         <v>6405901000</v>
       </c>
-      <c r="B144" s="95" t="s">
-        <v>1013</v>
+      <c r="B144" s="96" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="22" t="n">
         <v>6405909000</v>
       </c>
-      <c r="B145" s="95" t="s">
-        <v>1014</v>
+      <c r="B145" s="96" t="s">
+        <v>1016</v>
       </c>
     </row>
   </sheetData>

--- a/app/download_dir/system_files/обувь_по коробам.xlsx
+++ b/app/download_dir/system_files/обувь_по коробам.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="1016">
   <si>
     <t xml:space="preserve">V_MANUFACTURER_CODE</t>
   </si>
@@ -375,7 +375,7 @@
     <t xml:space="preserve">Мужские</t>
   </si>
   <si>
-    <t xml:space="preserve">Отказное письмо</t>
+    <t xml:space="preserve">Сертификат</t>
   </si>
   <si>
     <t xml:space="preserve">АВСТРИЯ</t>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t xml:space="preserve">Унисекс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификат</t>
   </si>
   <si>
     <t xml:space="preserve">АЗЕРБАЙДЖАН</t>
@@ -4566,7 +4563,7 @@
   <dimension ref="A1:AMJ2686"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="R7" activeCellId="0" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38324,7 +38321,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R7:R1702" type="list">
-      <formula1>Справочники!$J$2:$J$4</formula1>
+      <formula1>Справочники!$J$2:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V101" type="none">
@@ -38353,8 +38350,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38495,118 +38492,115 @@
       <c r="I4" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="90" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="D5" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="E5" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="F5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="89" t="s">
         <v>126</v>
-      </c>
-      <c r="I5" s="89" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="D6" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="E6" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="F6" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="89" t="s">
         <v>135</v>
-      </c>
-      <c r="I6" s="89" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="D7" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="E7" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="F7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="89" t="s">
         <v>144</v>
-      </c>
-      <c r="I7" s="89" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="D8" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="E8" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>81</v>
@@ -38614,221 +38608,221 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="C9" s="87" t="s">
         <v>82</v>
       </c>
       <c r="D9" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="F9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="C10" s="87" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="F10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="E11" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="F11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="D12" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="E12" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="F12" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="D13" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="E13" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="F13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="D14" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="E14" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="F14" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="D15" s="88" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="E15" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="F15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="87" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="D16" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="E16" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="F16" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="86" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="D17" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="E17" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="F17" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>106</v>
@@ -38836,298 +38830,298 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="D18" s="88" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="E18" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="F18" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="D19" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="E19" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="F19" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="D20" s="88" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="88" t="s">
+      <c r="E20" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="E20" s="88" t="s">
+      <c r="F20" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="D21" s="88" t="s">
         <v>236</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="E21" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="F21" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="D22" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="E22" s="88" t="s">
         <v>244</v>
       </c>
-      <c r="E22" s="88" t="s">
+      <c r="F22" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="D23" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="E23" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="88" t="s">
+      <c r="F23" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="87" t="s">
+      <c r="D24" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="E24" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="E24" s="88" t="s">
+      <c r="F24" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="D25" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="E25" s="88" t="s">
         <v>265</v>
       </c>
-      <c r="E25" s="88" t="s">
+      <c r="F25" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="D26" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="88" t="s">
+      <c r="E26" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="E26" s="88" t="s">
+      <c r="F26" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="D27" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="E27" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="E27" s="88" t="s">
+      <c r="F27" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="87" t="s">
         <v>284</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="D28" s="88" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="E28" s="88" t="s">
         <v>286</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="F28" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="87" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="D29" s="88" t="s">
         <v>292</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="E29" s="88" t="s">
         <v>293</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="F29" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="87" t="s">
         <v>298</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="D30" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="D30" s="88" t="s">
+      <c r="E30" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="E30" s="88" t="s">
+      <c r="F30" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>81</v>
@@ -39135,22 +39129,22 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="D31" s="88" t="s">
         <v>305</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="E31" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="E31" s="88" t="s">
+      <c r="F31" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>71</v>
@@ -39158,1177 +39152,1177 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="86" t="s">
+        <v>308</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="C32" s="87" t="s">
         <v>310</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="D32" s="88" t="s">
         <v>311</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="E32" s="88" t="s">
         <v>312</v>
       </c>
-      <c r="E32" s="88" t="s">
+      <c r="F32" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="C33" s="87" t="s">
         <v>317</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="D33" s="88" t="s">
         <v>318</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="E33" s="88" t="s">
         <v>319</v>
       </c>
-      <c r="E33" s="88" t="s">
+      <c r="F33" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="86" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="87" t="s">
         <v>323</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="D34" s="88" t="s">
         <v>324</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="E34" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="E34" s="88" t="s">
+      <c r="F34" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="87" t="s">
         <v>330</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="D35" s="88" t="s">
         <v>331</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="E35" s="88" t="s">
         <v>332</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="F35" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="86" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="D36" s="88" t="s">
         <v>338</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="E36" s="88" t="s">
         <v>339</v>
       </c>
-      <c r="E36" s="88" t="s">
+      <c r="F36" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="87" t="s">
         <v>344</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="D37" s="88" t="s">
         <v>345</v>
       </c>
-      <c r="D37" s="88" t="s">
+      <c r="E37" s="88" t="s">
         <v>346</v>
       </c>
-      <c r="E37" s="88" t="s">
+      <c r="F37" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="C38" s="87" t="s">
+      <c r="D38" s="88" t="s">
         <v>352</v>
       </c>
-      <c r="D38" s="88" t="s">
+      <c r="E38" s="88" t="s">
         <v>353</v>
       </c>
-      <c r="E38" s="88" t="s">
+      <c r="F38" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="C39" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="D39" s="88" t="s">
         <v>359</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="E39" s="88" t="s">
         <v>360</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="F39" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="86" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="C40" s="87" t="s">
         <v>365</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="D40" s="88" t="s">
         <v>366</v>
       </c>
-      <c r="D40" s="88" t="s">
+      <c r="E40" s="88" t="s">
         <v>367</v>
       </c>
-      <c r="E40" s="88" t="s">
+      <c r="F40" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="86" t="s">
+        <v>370</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C41" s="87" t="s">
         <v>372</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="D41" s="88" t="s">
         <v>373</v>
       </c>
-      <c r="D41" s="88" t="s">
+      <c r="E41" s="88" t="s">
         <v>374</v>
       </c>
-      <c r="E41" s="88" t="s">
+      <c r="F41" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="87" t="s">
         <v>379</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="D42" s="88" t="s">
         <v>380</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="E42" s="88" t="s">
         <v>381</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="F42" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="C43" s="87" t="s">
         <v>386</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="D43" s="88" t="s">
         <v>387</v>
       </c>
-      <c r="D43" s="88" t="s">
+      <c r="E43" s="88" t="s">
         <v>388</v>
       </c>
-      <c r="E43" s="88" t="s">
+      <c r="F43" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="86" t="s">
+        <v>390</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="87" t="s">
         <v>392</v>
       </c>
-      <c r="C44" s="87" t="s">
+      <c r="D44" s="88" t="s">
         <v>393</v>
       </c>
-      <c r="D44" s="88" t="s">
+      <c r="E44" s="88" t="s">
         <v>394</v>
       </c>
-      <c r="E44" s="88" t="s">
+      <c r="F44" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="86" t="s">
+        <v>396</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="87" t="s">
         <v>398</v>
       </c>
-      <c r="C45" s="87" t="s">
+      <c r="D45" s="88" t="s">
         <v>399</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="E45" s="88" t="s">
         <v>400</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="F45" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C46" s="87" t="s">
         <v>404</v>
       </c>
-      <c r="C46" s="87" t="s">
+      <c r="D46" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="D46" s="88" t="s">
+      <c r="E46" s="88" t="s">
         <v>406</v>
       </c>
-      <c r="E46" s="88" t="s">
+      <c r="F46" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="86" t="s">
+        <v>408</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="C47" s="87" t="s">
         <v>410</v>
       </c>
-      <c r="C47" s="87" t="s">
+      <c r="D47" s="88" t="s">
         <v>411</v>
       </c>
-      <c r="D47" s="88" t="s">
+      <c r="E47" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="E47" s="88" t="s">
+      <c r="F47" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="86" t="s">
+        <v>414</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="87" t="s">
         <v>416</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="D48" s="88" t="s">
         <v>417</v>
       </c>
-      <c r="D48" s="88" t="s">
+      <c r="E48" s="88" t="s">
         <v>418</v>
       </c>
-      <c r="E48" s="88" t="s">
+      <c r="F48" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="86" t="s">
+        <v>420</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="87" t="s">
         <v>422</v>
       </c>
-      <c r="C49" s="87" t="s">
+      <c r="D49" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="D49" s="88" t="s">
+      <c r="E49" s="88" t="s">
         <v>424</v>
       </c>
-      <c r="E49" s="88" t="s">
+      <c r="F49" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="86" t="s">
+        <v>426</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="C50" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="C50" s="87" t="s">
+      <c r="D50" s="88" t="s">
         <v>429</v>
       </c>
-      <c r="D50" s="88" t="s">
+      <c r="E50" s="88" t="s">
         <v>430</v>
-      </c>
-      <c r="E50" s="88" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="86" t="s">
+        <v>431</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="87" t="s">
         <v>433</v>
       </c>
-      <c r="C51" s="87" t="s">
+      <c r="D51" s="88" t="s">
         <v>434</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="E51" s="88" t="s">
         <v>435</v>
-      </c>
-      <c r="E51" s="88" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="86" t="s">
+        <v>436</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="C52" s="87" t="s">
+      <c r="D52" s="88" t="s">
         <v>439</v>
       </c>
-      <c r="D52" s="88" t="s">
+      <c r="E52" s="88" t="s">
         <v>440</v>
-      </c>
-      <c r="E52" s="88" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="86" t="s">
+        <v>441</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="C53" s="87" t="s">
         <v>443</v>
       </c>
-      <c r="C53" s="87" t="s">
+      <c r="D53" s="88" t="s">
         <v>444</v>
       </c>
-      <c r="D53" s="88" t="s">
+      <c r="E53" s="88" t="s">
         <v>445</v>
-      </c>
-      <c r="E53" s="88" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="86" t="s">
+        <v>446</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="87" t="s">
         <v>448</v>
       </c>
-      <c r="C54" s="87" t="s">
+      <c r="D54" s="88" t="s">
         <v>449</v>
       </c>
-      <c r="D54" s="88" t="s">
+      <c r="E54" s="88" t="s">
         <v>450</v>
-      </c>
-      <c r="E54" s="88" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="86" t="s">
+        <v>451</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="C55" s="87" t="s">
         <v>453</v>
       </c>
-      <c r="C55" s="87" t="s">
+      <c r="D55" s="88" t="s">
         <v>454</v>
       </c>
-      <c r="D55" s="88" t="s">
+      <c r="E55" s="88" t="s">
         <v>455</v>
-      </c>
-      <c r="E55" s="88" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="86" t="s">
+        <v>456</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="87" t="s">
         <v>458</v>
       </c>
-      <c r="C56" s="87" t="s">
+      <c r="D56" s="88" t="s">
         <v>459</v>
       </c>
-      <c r="D56" s="88" t="s">
+      <c r="E56" s="88" t="s">
         <v>460</v>
-      </c>
-      <c r="E56" s="88" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="86" t="s">
+        <v>461</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="C57" s="87" t="s">
         <v>463</v>
       </c>
-      <c r="C57" s="87" t="s">
+      <c r="D57" s="88" t="s">
         <v>464</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="E57" s="88" t="s">
         <v>465</v>
-      </c>
-      <c r="E57" s="88" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="C58" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="C58" s="87" t="s">
+      <c r="D58" s="88" t="s">
         <v>469</v>
       </c>
-      <c r="D58" s="88" t="s">
+      <c r="E58" s="88" t="s">
         <v>470</v>
-      </c>
-      <c r="E58" s="88" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="86" t="s">
+        <v>471</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="C59" s="87" t="s">
         <v>473</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="D59" s="88" t="s">
         <v>474</v>
       </c>
-      <c r="D59" s="88" t="s">
+      <c r="E59" s="88" t="s">
         <v>475</v>
-      </c>
-      <c r="E59" s="88" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="86" t="s">
+        <v>476</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="87" t="s">
         <v>478</v>
       </c>
-      <c r="C60" s="87" t="s">
+      <c r="D60" s="88" t="s">
         <v>479</v>
       </c>
-      <c r="D60" s="88" t="s">
+      <c r="E60" s="88" t="s">
         <v>480</v>
-      </c>
-      <c r="E60" s="88" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="86" t="s">
+        <v>481</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="87" t="s">
         <v>483</v>
       </c>
-      <c r="C61" s="87" t="s">
+      <c r="D61" s="88" t="s">
         <v>484</v>
       </c>
-      <c r="D61" s="88" t="s">
+      <c r="E61" s="88" t="s">
         <v>485</v>
-      </c>
-      <c r="E61" s="88" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="86" t="s">
+        <v>486</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="C62" s="87" t="s">
         <v>488</v>
       </c>
-      <c r="C62" s="87" t="s">
+      <c r="D62" s="88" t="s">
         <v>489</v>
       </c>
-      <c r="D62" s="88" t="s">
+      <c r="E62" s="88" t="s">
         <v>490</v>
-      </c>
-      <c r="E62" s="88" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="86" t="s">
+        <v>491</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="C63" s="87" t="s">
         <v>493</v>
       </c>
-      <c r="C63" s="87" t="s">
+      <c r="D63" s="88" t="s">
         <v>494</v>
       </c>
-      <c r="D63" s="88" t="s">
+      <c r="E63" s="88" t="s">
         <v>495</v>
-      </c>
-      <c r="E63" s="88" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="86" t="s">
+        <v>496</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="C64" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="C64" s="87" t="s">
+      <c r="D64" s="88" t="s">
         <v>499</v>
       </c>
-      <c r="D64" s="88" t="s">
+      <c r="E64" s="88" t="s">
         <v>500</v>
-      </c>
-      <c r="E64" s="88" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="86" t="s">
+        <v>501</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="C65" s="87" t="s">
         <v>503</v>
       </c>
-      <c r="C65" s="87" t="s">
+      <c r="D65" s="88" t="s">
         <v>504</v>
       </c>
-      <c r="D65" s="88" t="s">
+      <c r="E65" s="88" t="s">
         <v>505</v>
-      </c>
-      <c r="E65" s="88" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="86" t="s">
+        <v>506</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="87" t="s">
         <v>508</v>
       </c>
-      <c r="C66" s="87" t="s">
+      <c r="D66" s="88" t="s">
         <v>509</v>
       </c>
-      <c r="D66" s="88" t="s">
+      <c r="E66" s="88" t="s">
         <v>510</v>
-      </c>
-      <c r="E66" s="88" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="86" t="s">
+        <v>511</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="C67" s="87" t="s">
         <v>513</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="D67" s="88" t="s">
         <v>514</v>
       </c>
-      <c r="D67" s="88" t="s">
+      <c r="E67" s="88" t="s">
         <v>515</v>
-      </c>
-      <c r="E67" s="88" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="86" t="s">
+        <v>516</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="C68" s="87" t="s">
         <v>518</v>
       </c>
-      <c r="C68" s="87" t="s">
+      <c r="D68" s="88" t="s">
         <v>519</v>
       </c>
-      <c r="D68" s="88" t="s">
+      <c r="E68" s="88" t="s">
         <v>520</v>
-      </c>
-      <c r="E68" s="88" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="86" t="s">
+        <v>521</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="C69" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="C69" s="87" t="s">
+      <c r="D69" s="88" t="s">
         <v>524</v>
       </c>
-      <c r="D69" s="88" t="s">
+      <c r="E69" s="88" t="s">
         <v>525</v>
-      </c>
-      <c r="E69" s="88" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="86" t="s">
+        <v>526</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="C70" s="87" t="s">
         <v>528</v>
       </c>
-      <c r="C70" s="87" t="s">
+      <c r="D70" s="88" t="s">
         <v>529</v>
       </c>
-      <c r="D70" s="88" t="s">
+      <c r="E70" s="88" t="s">
         <v>530</v>
-      </c>
-      <c r="E70" s="88" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="86" t="s">
+        <v>531</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="C71" s="87" t="s">
         <v>533</v>
       </c>
-      <c r="C71" s="87" t="s">
+      <c r="D71" s="88" t="s">
         <v>534</v>
       </c>
-      <c r="D71" s="88" t="s">
+      <c r="E71" s="88" t="s">
         <v>535</v>
-      </c>
-      <c r="E71" s="88" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="86" t="s">
+        <v>536</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="C72" s="87" t="s">
         <v>538</v>
       </c>
-      <c r="C72" s="87" t="s">
+      <c r="D72" s="88" t="s">
         <v>539</v>
       </c>
-      <c r="D72" s="88" t="s">
+      <c r="E72" s="88" t="s">
         <v>540</v>
-      </c>
-      <c r="E72" s="88" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="86" t="s">
+        <v>541</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="C73" s="87" t="s">
         <v>543</v>
       </c>
-      <c r="C73" s="87" t="s">
+      <c r="D73" s="88" t="s">
         <v>544</v>
       </c>
-      <c r="D73" s="88" t="s">
+      <c r="E73" s="88" t="s">
         <v>545</v>
-      </c>
-      <c r="E73" s="88" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="86" t="s">
+        <v>546</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="C74" s="87" t="s">
         <v>548</v>
       </c>
-      <c r="C74" s="87" t="s">
+      <c r="D74" s="88" t="s">
         <v>549</v>
       </c>
-      <c r="D74" s="88" t="s">
+      <c r="E74" s="88" t="s">
         <v>550</v>
-      </c>
-      <c r="E74" s="88" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="86" t="s">
+        <v>551</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="C75" s="87" t="s">
         <v>553</v>
       </c>
-      <c r="C75" s="87" t="s">
+      <c r="D75" s="88" t="s">
         <v>554</v>
       </c>
-      <c r="D75" s="88" t="s">
+      <c r="E75" s="88" t="s">
         <v>555</v>
-      </c>
-      <c r="E75" s="88" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="86" t="s">
+        <v>556</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="C76" s="87" t="s">
         <v>558</v>
       </c>
-      <c r="C76" s="87" t="s">
+      <c r="D76" s="88" t="s">
         <v>559</v>
       </c>
-      <c r="D76" s="88" t="s">
+      <c r="E76" s="88" t="s">
         <v>560</v>
-      </c>
-      <c r="E76" s="88" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="86" t="s">
+        <v>561</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="C77" s="87" t="s">
         <v>563</v>
       </c>
-      <c r="C77" s="87" t="s">
+      <c r="D77" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="D77" s="88" t="s">
+      <c r="E77" s="88" t="s">
         <v>565</v>
-      </c>
-      <c r="E77" s="88" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="86" t="s">
+        <v>566</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="C78" s="87" t="s">
         <v>568</v>
       </c>
-      <c r="C78" s="87" t="s">
+      <c r="D78" s="88" t="s">
         <v>569</v>
       </c>
-      <c r="D78" s="88" t="s">
+      <c r="E78" s="88" t="s">
         <v>570</v>
-      </c>
-      <c r="E78" s="88" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="86" t="s">
+        <v>571</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="87" t="s">
         <v>573</v>
       </c>
-      <c r="C79" s="87" t="s">
+      <c r="D79" s="88" t="s">
         <v>574</v>
       </c>
-      <c r="D79" s="88" t="s">
+      <c r="E79" s="88" t="s">
         <v>575</v>
-      </c>
-      <c r="E79" s="88" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="86" t="s">
+        <v>576</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="C80" s="87" t="s">
         <v>578</v>
       </c>
-      <c r="C80" s="87" t="s">
+      <c r="D80" s="88" t="s">
         <v>579</v>
       </c>
-      <c r="D80" s="88" t="s">
+      <c r="E80" s="88" t="s">
         <v>580</v>
-      </c>
-      <c r="E80" s="88" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="86" t="s">
+        <v>581</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="C81" s="87" t="s">
         <v>583</v>
       </c>
-      <c r="C81" s="87" t="s">
+      <c r="D81" s="88" t="s">
         <v>584</v>
       </c>
-      <c r="D81" s="88" t="s">
+      <c r="E81" s="88" t="s">
         <v>585</v>
-      </c>
-      <c r="E81" s="88" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="86" t="s">
+        <v>586</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="C82" s="87" t="s">
         <v>588</v>
       </c>
-      <c r="C82" s="87" t="s">
+      <c r="D82" s="88" t="s">
         <v>589</v>
       </c>
-      <c r="D82" s="88" t="s">
+      <c r="E82" s="88" t="s">
         <v>590</v>
-      </c>
-      <c r="E82" s="88" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="86" t="s">
+        <v>591</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="C83" s="87" t="s">
         <v>593</v>
       </c>
-      <c r="C83" s="87" t="s">
+      <c r="D83" s="88" t="s">
         <v>594</v>
       </c>
-      <c r="D83" s="88" t="s">
+      <c r="E83" s="88" t="s">
         <v>595</v>
-      </c>
-      <c r="E83" s="88" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="86" t="s">
+        <v>596</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="C84" s="87" t="s">
         <v>598</v>
       </c>
-      <c r="C84" s="87" t="s">
+      <c r="D84" s="88" t="s">
         <v>599</v>
       </c>
-      <c r="D84" s="88" t="s">
+      <c r="E84" s="88" t="s">
         <v>600</v>
-      </c>
-      <c r="E84" s="88" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="86" t="s">
+        <v>601</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="87" t="s">
         <v>603</v>
       </c>
-      <c r="C85" s="87" t="s">
+      <c r="D85" s="88" t="s">
         <v>604</v>
       </c>
-      <c r="D85" s="88" t="s">
+      <c r="E85" s="88" t="s">
         <v>605</v>
-      </c>
-      <c r="E85" s="88" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="86" t="s">
+        <v>606</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="C86" s="87" t="s">
         <v>608</v>
       </c>
-      <c r="C86" s="87" t="s">
+      <c r="D86" s="88" t="s">
         <v>609</v>
       </c>
-      <c r="D86" s="88" t="s">
+      <c r="E86" s="88" t="s">
         <v>610</v>
-      </c>
-      <c r="E86" s="88" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="86" t="s">
+        <v>611</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="C87" s="87" t="s">
         <v>613</v>
       </c>
-      <c r="C87" s="87" t="s">
+      <c r="D87" s="88" t="s">
         <v>614</v>
       </c>
-      <c r="D87" s="88" t="s">
+      <c r="E87" s="88" t="s">
         <v>615</v>
-      </c>
-      <c r="E87" s="88" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="86" t="s">
+        <v>616</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="C88" s="87" t="s">
         <v>618</v>
       </c>
-      <c r="C88" s="87" t="s">
+      <c r="D88" s="88" t="s">
         <v>619</v>
       </c>
-      <c r="D88" s="88" t="s">
+      <c r="E88" s="88" t="s">
         <v>620</v>
-      </c>
-      <c r="E88" s="88" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="86" t="s">
+        <v>621</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="C89" s="87" t="s">
         <v>623</v>
       </c>
-      <c r="C89" s="87" t="s">
+      <c r="D89" s="88" t="s">
         <v>624</v>
       </c>
-      <c r="D89" s="88" t="s">
+      <c r="E89" s="88" t="s">
         <v>625</v>
-      </c>
-      <c r="E89" s="88" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="86" t="s">
+        <v>626</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="87" t="s">
         <v>628</v>
       </c>
-      <c r="C90" s="87" t="s">
+      <c r="D90" s="88" t="s">
         <v>629</v>
       </c>
-      <c r="D90" s="88" t="s">
+      <c r="E90" s="88" t="s">
         <v>630</v>
-      </c>
-      <c r="E90" s="88" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="86" t="s">
+        <v>631</v>
+      </c>
+      <c r="B91" s="86" t="s">
         <v>632</v>
       </c>
-      <c r="B91" s="86" t="s">
+      <c r="C91" s="87" t="s">
         <v>633</v>
       </c>
-      <c r="C91" s="87" t="s">
+      <c r="D91" s="88" t="s">
         <v>634</v>
       </c>
-      <c r="D91" s="88" t="s">
+      <c r="E91" s="88" t="s">
         <v>635</v>
-      </c>
-      <c r="E91" s="88" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="86" t="s">
+        <v>636</v>
+      </c>
+      <c r="B92" s="86" t="s">
         <v>637</v>
       </c>
-      <c r="B92" s="86" t="s">
+      <c r="C92" s="87" t="s">
         <v>638</v>
       </c>
-      <c r="C92" s="87" t="s">
+      <c r="D92" s="88" t="s">
         <v>639</v>
       </c>
-      <c r="D92" s="88" t="s">
+      <c r="E92" s="88" t="s">
         <v>640</v>
-      </c>
-      <c r="E92" s="88" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="86" t="s">
+        <v>641</v>
+      </c>
+      <c r="B93" s="86" t="s">
         <v>642</v>
       </c>
-      <c r="B93" s="86" t="s">
+      <c r="C93" s="87" t="s">
         <v>643</v>
       </c>
-      <c r="C93" s="87" t="s">
+      <c r="D93" s="88" t="s">
         <v>644</v>
       </c>
-      <c r="D93" s="88" t="s">
+      <c r="E93" s="88" t="s">
         <v>645</v>
-      </c>
-      <c r="E93" s="88" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="86" t="s">
+        <v>646</v>
+      </c>
+      <c r="B94" s="86" t="s">
         <v>647</v>
       </c>
-      <c r="B94" s="86" t="s">
+      <c r="C94" s="87" t="s">
         <v>648</v>
       </c>
-      <c r="C94" s="87" t="s">
+      <c r="D94" s="88" t="s">
         <v>649</v>
       </c>
-      <c r="D94" s="88" t="s">
+      <c r="E94" s="88" t="s">
         <v>650</v>
-      </c>
-      <c r="E94" s="88" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="86" t="s">
+        <v>651</v>
+      </c>
+      <c r="B95" s="86" t="s">
         <v>652</v>
       </c>
-      <c r="B95" s="86" t="s">
+      <c r="C95" s="87" t="s">
         <v>653</v>
       </c>
-      <c r="C95" s="87" t="s">
+      <c r="D95" s="88" t="s">
         <v>654</v>
       </c>
-      <c r="D95" s="88" t="s">
+      <c r="E95" s="88" t="s">
         <v>655</v>
-      </c>
-      <c r="E95" s="88" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -40336,360 +40330,360 @@
         <v>74</v>
       </c>
       <c r="B96" s="86" t="s">
+        <v>656</v>
+      </c>
+      <c r="C96" s="87" t="s">
         <v>657</v>
       </c>
-      <c r="C96" s="87" t="s">
+      <c r="D96" s="88" t="s">
         <v>658</v>
       </c>
-      <c r="D96" s="88" t="s">
+      <c r="E96" s="88" t="s">
         <v>659</v>
-      </c>
-      <c r="E96" s="88" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="86" t="s">
+        <v>660</v>
+      </c>
+      <c r="B97" s="86" t="s">
         <v>661</v>
       </c>
-      <c r="B97" s="86" t="s">
+      <c r="C97" s="87" t="s">
         <v>662</v>
       </c>
-      <c r="C97" s="87" t="s">
+      <c r="D97" s="88" t="s">
         <v>663</v>
       </c>
-      <c r="D97" s="88" t="s">
+      <c r="E97" s="88" t="s">
         <v>664</v>
-      </c>
-      <c r="E97" s="88" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="86" t="s">
+        <v>665</v>
+      </c>
+      <c r="B98" s="86" t="s">
         <v>666</v>
       </c>
-      <c r="B98" s="86" t="s">
+      <c r="C98" s="87" t="s">
         <v>667</v>
       </c>
-      <c r="C98" s="87" t="s">
+      <c r="D98" s="88" t="s">
         <v>668</v>
       </c>
-      <c r="D98" s="88" t="s">
+      <c r="E98" s="88" t="s">
         <v>669</v>
-      </c>
-      <c r="E98" s="88" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="86" t="s">
+        <v>670</v>
+      </c>
+      <c r="B99" s="86" t="s">
         <v>671</v>
       </c>
-      <c r="B99" s="86" t="s">
+      <c r="C99" s="87" t="s">
         <v>672</v>
       </c>
-      <c r="C99" s="87" t="s">
+      <c r="D99" s="88" t="s">
         <v>673</v>
       </c>
-      <c r="D99" s="88" t="s">
+      <c r="E99" s="88" t="s">
         <v>674</v>
-      </c>
-      <c r="E99" s="88" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="86" t="s">
+        <v>675</v>
+      </c>
+      <c r="B100" s="86" t="s">
         <v>676</v>
       </c>
-      <c r="B100" s="86" t="s">
+      <c r="C100" s="87" t="s">
         <v>677</v>
       </c>
-      <c r="C100" s="87" t="s">
+      <c r="D100" s="88" t="s">
         <v>678</v>
       </c>
-      <c r="D100" s="88" t="s">
+      <c r="E100" s="88" t="s">
         <v>679</v>
-      </c>
-      <c r="E100" s="88" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="86" t="s">
+        <v>680</v>
+      </c>
+      <c r="B101" s="86" t="s">
         <v>681</v>
       </c>
-      <c r="B101" s="86" t="s">
+      <c r="C101" s="87" t="s">
         <v>682</v>
       </c>
-      <c r="C101" s="87" t="s">
+      <c r="D101" s="88" t="s">
         <v>683</v>
       </c>
-      <c r="D101" s="88" t="s">
+      <c r="E101" s="88" t="s">
         <v>684</v>
-      </c>
-      <c r="E101" s="88" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="86" t="s">
+        <v>685</v>
+      </c>
+      <c r="B102" s="86" t="s">
         <v>686</v>
       </c>
-      <c r="B102" s="86" t="s">
+      <c r="C102" s="87" t="s">
         <v>687</v>
       </c>
-      <c r="C102" s="87" t="s">
+      <c r="D102" s="88" t="s">
         <v>688</v>
-      </c>
-      <c r="D102" s="88" t="s">
-        <v>689</v>
       </c>
       <c r="E102" s="86"/>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="86" t="s">
+        <v>689</v>
+      </c>
+      <c r="B103" s="86" t="s">
         <v>690</v>
       </c>
-      <c r="B103" s="86" t="s">
+      <c r="C103" s="87" t="s">
         <v>691</v>
       </c>
-      <c r="C103" s="87" t="s">
+      <c r="D103" s="88" t="s">
         <v>692</v>
-      </c>
-      <c r="D103" s="88" t="s">
-        <v>693</v>
       </c>
       <c r="E103" s="86"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="86" t="s">
+        <v>693</v>
+      </c>
+      <c r="B104" s="86" t="s">
         <v>694</v>
       </c>
-      <c r="B104" s="86" t="s">
+      <c r="C104" s="87" t="s">
         <v>695</v>
       </c>
-      <c r="C104" s="87" t="s">
+      <c r="D104" s="88" t="s">
         <v>696</v>
-      </c>
-      <c r="D104" s="88" t="s">
-        <v>697</v>
       </c>
       <c r="E104" s="86"/>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="86" t="s">
+        <v>697</v>
+      </c>
+      <c r="B105" s="86" t="s">
         <v>698</v>
       </c>
-      <c r="B105" s="86" t="s">
+      <c r="C105" s="87" t="s">
         <v>699</v>
       </c>
-      <c r="C105" s="87" t="s">
+      <c r="D105" s="88" t="s">
         <v>700</v>
-      </c>
-      <c r="D105" s="88" t="s">
-        <v>701</v>
       </c>
       <c r="E105" s="86"/>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="86" t="s">
+        <v>701</v>
+      </c>
+      <c r="B106" s="86" t="s">
         <v>702</v>
       </c>
-      <c r="B106" s="86" t="s">
+      <c r="C106" s="87" t="s">
         <v>703</v>
       </c>
-      <c r="C106" s="87" t="s">
+      <c r="D106" s="88" t="s">
         <v>704</v>
-      </c>
-      <c r="D106" s="88" t="s">
-        <v>705</v>
       </c>
       <c r="E106" s="86"/>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="86" t="s">
+        <v>705</v>
+      </c>
+      <c r="B107" s="86" t="s">
         <v>706</v>
       </c>
-      <c r="B107" s="86" t="s">
+      <c r="C107" s="87" t="s">
         <v>707</v>
       </c>
-      <c r="C107" s="87" t="s">
+      <c r="D107" s="88" t="s">
         <v>708</v>
-      </c>
-      <c r="D107" s="88" t="s">
-        <v>709</v>
       </c>
       <c r="E107" s="86"/>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="86" t="s">
+        <v>709</v>
+      </c>
+      <c r="B108" s="86" t="s">
         <v>710</v>
       </c>
-      <c r="B108" s="86" t="s">
+      <c r="C108" s="87" t="s">
         <v>711</v>
       </c>
-      <c r="C108" s="87" t="s">
+      <c r="D108" s="88" t="s">
         <v>712</v>
-      </c>
-      <c r="D108" s="88" t="s">
-        <v>713</v>
       </c>
       <c r="E108" s="86"/>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="86" t="s">
+        <v>713</v>
+      </c>
+      <c r="B109" s="86" t="s">
         <v>714</v>
       </c>
-      <c r="B109" s="86" t="s">
+      <c r="C109" s="87" t="s">
         <v>715</v>
       </c>
-      <c r="C109" s="87" t="s">
+      <c r="D109" s="88" t="s">
         <v>716</v>
-      </c>
-      <c r="D109" s="88" t="s">
-        <v>717</v>
       </c>
       <c r="E109" s="86"/>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="86" t="s">
+        <v>717</v>
+      </c>
+      <c r="B110" s="86" t="s">
         <v>718</v>
       </c>
-      <c r="B110" s="86" t="s">
+      <c r="C110" s="87" t="s">
         <v>719</v>
       </c>
-      <c r="C110" s="87" t="s">
+      <c r="D110" s="88" t="s">
         <v>720</v>
-      </c>
-      <c r="D110" s="88" t="s">
-        <v>721</v>
       </c>
       <c r="E110" s="86"/>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="86" t="s">
+        <v>721</v>
+      </c>
+      <c r="B111" s="86" t="s">
         <v>722</v>
       </c>
-      <c r="B111" s="86" t="s">
+      <c r="C111" s="91" t="s">
         <v>723</v>
       </c>
-      <c r="C111" s="91" t="s">
+      <c r="D111" s="88" t="s">
         <v>724</v>
-      </c>
-      <c r="D111" s="88" t="s">
-        <v>725</v>
       </c>
       <c r="E111" s="86"/>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="86" t="s">
+        <v>725</v>
+      </c>
+      <c r="B112" s="86" t="s">
         <v>726</v>
       </c>
-      <c r="B112" s="86" t="s">
+      <c r="C112" s="91" t="s">
         <v>727</v>
       </c>
-      <c r="C112" s="91" t="s">
+      <c r="D112" s="88" t="s">
         <v>728</v>
-      </c>
-      <c r="D112" s="88" t="s">
-        <v>729</v>
       </c>
       <c r="E112" s="86"/>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="86" t="s">
+        <v>729</v>
+      </c>
+      <c r="B113" s="86" t="s">
         <v>730</v>
-      </c>
-      <c r="B113" s="86" t="s">
-        <v>731</v>
       </c>
       <c r="C113" s="87"/>
       <c r="D113" s="88" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E113" s="86"/>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="86" t="s">
+        <v>732</v>
+      </c>
+      <c r="B114" s="86" t="s">
         <v>733</v>
-      </c>
-      <c r="B114" s="86" t="s">
-        <v>734</v>
       </c>
       <c r="C114" s="87"/>
       <c r="D114" s="88" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E114" s="86"/>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="86" t="s">
+        <v>735</v>
+      </c>
+      <c r="B115" s="86" t="s">
         <v>736</v>
-      </c>
-      <c r="B115" s="86" t="s">
-        <v>737</v>
       </c>
       <c r="C115" s="87"/>
       <c r="D115" s="88" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E115" s="86"/>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="86" t="s">
+        <v>738</v>
+      </c>
+      <c r="B116" s="86" t="s">
         <v>739</v>
-      </c>
-      <c r="B116" s="86" t="s">
-        <v>740</v>
       </c>
       <c r="C116" s="87"/>
       <c r="D116" s="88" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E116" s="86"/>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="86" t="s">
+        <v>741</v>
+      </c>
+      <c r="B117" s="86" t="s">
         <v>742</v>
-      </c>
-      <c r="B117" s="86" t="s">
-        <v>743</v>
       </c>
       <c r="C117" s="87"/>
       <c r="D117" s="88" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E117" s="86"/>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="86" t="s">
+        <v>744</v>
+      </c>
+      <c r="B118" s="86" t="s">
         <v>745</v>
-      </c>
-      <c r="B118" s="86" t="s">
-        <v>746</v>
       </c>
       <c r="C118" s="87"/>
       <c r="D118" s="88" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E118" s="86"/>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="86" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B119" s="86"/>
       <c r="C119" s="87"/>
       <c r="D119" s="88" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E119" s="86"/>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="86" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B120" s="86"/>
       <c r="C120" s="87"/>
@@ -40698,7 +40692,7 @@
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="86" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B121" s="86"/>
       <c r="C121" s="87"/>
@@ -40707,7 +40701,7 @@
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="86" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B122" s="86"/>
       <c r="C122" s="87"/>
@@ -40716,7 +40710,7 @@
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="86" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B123" s="86"/>
       <c r="C123" s="87"/>
@@ -40725,7 +40719,7 @@
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="86" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B124" s="86"/>
       <c r="C124" s="87"/>
@@ -40734,7 +40728,7 @@
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="86" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B125" s="86"/>
       <c r="C125" s="87"/>
@@ -40743,7 +40737,7 @@
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="86" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B126" s="86"/>
       <c r="C126" s="87"/>
@@ -40752,7 +40746,7 @@
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="86" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B127" s="86"/>
       <c r="C127" s="87"/>
@@ -40761,7 +40755,7 @@
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="86" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B128" s="86"/>
       <c r="C128" s="87"/>
@@ -40770,7 +40764,7 @@
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="86" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B129" s="86"/>
       <c r="C129" s="87"/>
@@ -40779,7 +40773,7 @@
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="86" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B130" s="86"/>
       <c r="C130" s="87"/>
@@ -40788,7 +40782,7 @@
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="86" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B131" s="86"/>
       <c r="C131" s="87"/>
@@ -40797,7 +40791,7 @@
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="86" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B132" s="86"/>
       <c r="C132" s="87"/>
@@ -40806,7 +40800,7 @@
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="86" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B133" s="86"/>
       <c r="C133" s="87"/>
@@ -40815,7 +40809,7 @@
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="86" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B134" s="86"/>
       <c r="C134" s="87"/>
@@ -40824,7 +40818,7 @@
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="86" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B135" s="86"/>
       <c r="C135" s="87"/>
@@ -40833,7 +40827,7 @@
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="86" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B136" s="86"/>
       <c r="C136" s="87"/>
@@ -40842,7 +40836,7 @@
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="86" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B137" s="86"/>
       <c r="C137" s="87"/>
@@ -40851,7 +40845,7 @@
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="86" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B138" s="86"/>
       <c r="C138" s="87"/>
@@ -40860,7 +40854,7 @@
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="86" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B139" s="86"/>
       <c r="C139" s="87"/>
@@ -40869,7 +40863,7 @@
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="86" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B140" s="86"/>
       <c r="C140" s="87"/>
@@ -40878,7 +40872,7 @@
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="86" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B141" s="86"/>
       <c r="C141" s="87"/>
@@ -40887,7 +40881,7 @@
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="86" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B142" s="86"/>
       <c r="C142" s="87"/>
@@ -40896,7 +40890,7 @@
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="86" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B143" s="86"/>
       <c r="C143" s="87"/>
@@ -40905,7 +40899,7 @@
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="86" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B144" s="86"/>
       <c r="C144" s="87"/>
@@ -40914,7 +40908,7 @@
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="86" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B145" s="86"/>
       <c r="C145" s="87"/>
@@ -40923,7 +40917,7 @@
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="86" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B146" s="86"/>
       <c r="C146" s="87"/>
@@ -40932,7 +40926,7 @@
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="86" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B147" s="86"/>
       <c r="C147" s="87"/>
@@ -40941,7 +40935,7 @@
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="86" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B148" s="86"/>
       <c r="C148" s="87"/>
@@ -40950,7 +40944,7 @@
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="86" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B149" s="86"/>
       <c r="C149" s="87"/>
@@ -40959,7 +40953,7 @@
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="86" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B150" s="86"/>
       <c r="C150" s="87"/>
@@ -40968,7 +40962,7 @@
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="86" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B151" s="86"/>
       <c r="C151" s="87"/>
@@ -40977,7 +40971,7 @@
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="86" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B152" s="86"/>
       <c r="C152" s="87"/>
@@ -40986,7 +40980,7 @@
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="86" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B153" s="86"/>
       <c r="C153" s="87"/>
@@ -40995,7 +40989,7 @@
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="86" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B154" s="86"/>
       <c r="C154" s="87"/>
@@ -41004,7 +40998,7 @@
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="86" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B155" s="86"/>
       <c r="C155" s="87"/>
@@ -41013,7 +41007,7 @@
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="86" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B156" s="86"/>
       <c r="C156" s="87"/>
@@ -41022,7 +41016,7 @@
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="86" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B157" s="86"/>
       <c r="C157" s="87"/>
@@ -41031,7 +41025,7 @@
     </row>
     <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="86" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B158" s="86"/>
       <c r="C158" s="87"/>
@@ -41040,7 +41034,7 @@
     </row>
     <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="86" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B159" s="86"/>
       <c r="C159" s="87"/>
@@ -41049,7 +41043,7 @@
     </row>
     <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="86" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B160" s="86"/>
       <c r="C160" s="87"/>
@@ -41058,7 +41052,7 @@
     </row>
     <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="86" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B161" s="86"/>
       <c r="C161" s="87"/>
@@ -41067,7 +41061,7 @@
     </row>
     <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="86" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B162" s="86"/>
       <c r="C162" s="87"/>
@@ -41076,7 +41070,7 @@
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="86" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B163" s="86"/>
       <c r="C163" s="87"/>
@@ -41085,7 +41079,7 @@
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="86" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B164" s="86"/>
       <c r="C164" s="87"/>
@@ -41094,7 +41088,7 @@
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="86" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B165" s="86"/>
       <c r="C165" s="87"/>
@@ -41103,7 +41097,7 @@
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="86" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B166" s="86"/>
       <c r="C166" s="87"/>
@@ -41112,7 +41106,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="86" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B167" s="86"/>
       <c r="C167" s="87"/>
@@ -41121,7 +41115,7 @@
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="86" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B168" s="86"/>
       <c r="C168" s="87"/>
@@ -41130,7 +41124,7 @@
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="86" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B169" s="86"/>
       <c r="C169" s="87"/>
@@ -41139,7 +41133,7 @@
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="86" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B170" s="86"/>
       <c r="C170" s="87"/>
@@ -41148,7 +41142,7 @@
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="86" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B171" s="86"/>
       <c r="C171" s="87"/>
@@ -41157,7 +41151,7 @@
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="86" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B172" s="86"/>
       <c r="C172" s="87"/>
@@ -41166,7 +41160,7 @@
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="86" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B173" s="86"/>
       <c r="C173" s="87"/>
@@ -41175,7 +41169,7 @@
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="86" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B174" s="86"/>
       <c r="C174" s="87"/>
@@ -41184,7 +41178,7 @@
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="86" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B175" s="86"/>
       <c r="C175" s="87"/>
@@ -41193,7 +41187,7 @@
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="86" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B176" s="86"/>
       <c r="C176" s="87"/>
@@ -41202,7 +41196,7 @@
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="86" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B177" s="86"/>
       <c r="C177" s="87"/>
@@ -41211,7 +41205,7 @@
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="86" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B178" s="86"/>
       <c r="C178" s="87"/>
@@ -41220,7 +41214,7 @@
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="86" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B179" s="86"/>
       <c r="C179" s="87"/>
@@ -41229,7 +41223,7 @@
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="86" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B180" s="86"/>
       <c r="C180" s="87"/>
@@ -41238,7 +41232,7 @@
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="86" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B181" s="86"/>
       <c r="C181" s="87"/>
@@ -41247,7 +41241,7 @@
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="86" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B182" s="86"/>
       <c r="C182" s="87"/>
@@ -41256,7 +41250,7 @@
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="86" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B183" s="86"/>
       <c r="C183" s="87"/>
@@ -41265,7 +41259,7 @@
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="86" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B184" s="86"/>
       <c r="C184" s="87"/>
@@ -41274,7 +41268,7 @@
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="86" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B185" s="86"/>
       <c r="C185" s="87"/>
@@ -41283,7 +41277,7 @@
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="86" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B186" s="86"/>
       <c r="C186" s="87"/>
@@ -41292,7 +41286,7 @@
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="86" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B187" s="86"/>
       <c r="C187" s="87"/>
@@ -41301,7 +41295,7 @@
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="86" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B188" s="86"/>
       <c r="C188" s="87"/>
@@ -41310,7 +41304,7 @@
     </row>
     <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="86" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B189" s="86"/>
       <c r="C189" s="87"/>
@@ -41319,7 +41313,7 @@
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="86" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B190" s="86"/>
       <c r="C190" s="87"/>
@@ -41328,7 +41322,7 @@
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="86" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B191" s="86"/>
       <c r="C191" s="87"/>
@@ -41337,7 +41331,7 @@
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="86" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B192" s="86"/>
       <c r="C192" s="87"/>
@@ -41346,7 +41340,7 @@
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="86" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B193" s="86"/>
       <c r="C193" s="87"/>
@@ -41355,7 +41349,7 @@
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="86" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B194" s="86"/>
       <c r="C194" s="87"/>
@@ -41364,7 +41358,7 @@
     </row>
     <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="86" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B195" s="86"/>
       <c r="C195" s="87"/>
@@ -41373,7 +41367,7 @@
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="86" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B196" s="86"/>
       <c r="C196" s="87"/>
@@ -41382,7 +41376,7 @@
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="86" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B197" s="86"/>
       <c r="C197" s="87"/>
@@ -41391,7 +41385,7 @@
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="86" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B198" s="86"/>
       <c r="C198" s="87"/>
@@ -41400,7 +41394,7 @@
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="86" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B199" s="86"/>
       <c r="C199" s="87"/>
@@ -41409,7 +41403,7 @@
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="86" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B200" s="86"/>
       <c r="C200" s="87"/>
@@ -41418,7 +41412,7 @@
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="86" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B201" s="86"/>
       <c r="C201" s="87"/>
@@ -41427,7 +41421,7 @@
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="86" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B202" s="86"/>
       <c r="C202" s="87"/>
@@ -41436,7 +41430,7 @@
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="86" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B203" s="86"/>
       <c r="C203" s="87"/>
@@ -41445,7 +41439,7 @@
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="86" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B204" s="86"/>
       <c r="C204" s="87"/>
@@ -41454,7 +41448,7 @@
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="86" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B205" s="86"/>
       <c r="C205" s="87"/>
@@ -41463,7 +41457,7 @@
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="86" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B206" s="86"/>
       <c r="C206" s="87"/>
@@ -41472,7 +41466,7 @@
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="86" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B207" s="86"/>
       <c r="C207" s="87"/>
@@ -41481,7 +41475,7 @@
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="86" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B208" s="86"/>
       <c r="C208" s="87"/>
@@ -41490,7 +41484,7 @@
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="86" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B209" s="86"/>
       <c r="C209" s="87"/>
@@ -41499,7 +41493,7 @@
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="86" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B210" s="86"/>
       <c r="C210" s="87"/>
@@ -41508,7 +41502,7 @@
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="86" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B211" s="86"/>
       <c r="C211" s="87"/>
@@ -41517,7 +41511,7 @@
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="86" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B212" s="86"/>
       <c r="C212" s="87"/>
@@ -41526,7 +41520,7 @@
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="86" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B213" s="86"/>
       <c r="C213" s="87"/>
@@ -41535,7 +41529,7 @@
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="86" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B214" s="86"/>
       <c r="C214" s="87"/>
@@ -41544,7 +41538,7 @@
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="86" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B215" s="86"/>
       <c r="C215" s="87"/>
@@ -41553,7 +41547,7 @@
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="86" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B216" s="86"/>
       <c r="C216" s="87"/>
@@ -41562,7 +41556,7 @@
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="86" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B217" s="86"/>
       <c r="C217" s="87"/>
@@ -41571,7 +41565,7 @@
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="86" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B218" s="86"/>
       <c r="C218" s="87"/>
@@ -41580,7 +41574,7 @@
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="86" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B219" s="86"/>
       <c r="C219" s="87"/>
@@ -41589,7 +41583,7 @@
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="86" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B220" s="86"/>
       <c r="C220" s="87"/>
@@ -41598,7 +41592,7 @@
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="86" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B221" s="86"/>
       <c r="C221" s="87"/>
@@ -41607,7 +41601,7 @@
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="86" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B222" s="86"/>
       <c r="C222" s="87"/>
@@ -41616,7 +41610,7 @@
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="86" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B223" s="86"/>
       <c r="C223" s="87"/>
@@ -41625,7 +41619,7 @@
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="86" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B224" s="86"/>
       <c r="C224" s="87"/>
@@ -41634,7 +41628,7 @@
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="86" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B225" s="86"/>
       <c r="C225" s="87"/>
@@ -41643,7 +41637,7 @@
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="86" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B226" s="86"/>
       <c r="C226" s="87"/>
@@ -41652,7 +41646,7 @@
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="86" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B227" s="86"/>
       <c r="C227" s="87"/>
@@ -41661,7 +41655,7 @@
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="86" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B228" s="86"/>
       <c r="C228" s="87"/>
@@ -41670,7 +41664,7 @@
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="86" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B229" s="86"/>
       <c r="C229" s="87"/>
@@ -41679,7 +41673,7 @@
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="86" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B230" s="86"/>
       <c r="C230" s="87"/>
@@ -41688,7 +41682,7 @@
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="86" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B231" s="86"/>
       <c r="C231" s="87"/>
@@ -41697,7 +41691,7 @@
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="86" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B232" s="86"/>
       <c r="C232" s="87"/>
@@ -41706,7 +41700,7 @@
     </row>
     <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="86" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B233" s="86"/>
       <c r="C233" s="87"/>
@@ -41715,7 +41709,7 @@
     </row>
     <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="86" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B234" s="86"/>
       <c r="C234" s="87"/>
@@ -41724,7 +41718,7 @@
     </row>
     <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="86" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B235" s="86"/>
       <c r="C235" s="87"/>
@@ -41733,7 +41727,7 @@
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="86" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B236" s="86"/>
       <c r="C236" s="87"/>
@@ -41742,7 +41736,7 @@
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="86" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B237" s="86"/>
       <c r="C237" s="87"/>
@@ -41760,7 +41754,7 @@
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="86" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B239" s="86"/>
       <c r="C239" s="87"/>
@@ -41769,7 +41763,7 @@
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="86" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B240" s="86"/>
       <c r="C240" s="87"/>
@@ -41778,7 +41772,7 @@
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="86" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B241" s="86"/>
       <c r="C241" s="87"/>
@@ -41787,7 +41781,7 @@
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="86" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B242" s="86"/>
       <c r="C242" s="87"/>
@@ -44111,10 +44105,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="93" t="s">
+        <v>871</v>
+      </c>
+      <c r="B1" s="92" t="s">
         <v>872</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44122,7 +44116,7 @@
         <v>4203</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44130,7 +44124,7 @@
         <v>4203100001</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44138,7 +44132,7 @@
         <v>4203100009</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44146,7 +44140,7 @@
         <v>6106</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44154,7 +44148,7 @@
         <v>6106100000</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44162,7 +44156,7 @@
         <v>6106200000</v>
       </c>
       <c r="B7" s="97" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44170,7 +44164,7 @@
         <v>6106901000</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44178,7 +44172,7 @@
         <v>6106903000</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44186,7 +44180,7 @@
         <v>6106905000</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44194,7 +44188,7 @@
         <v>6106909000</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44202,7 +44196,7 @@
         <v>6201</v>
       </c>
       <c r="B12" s="95" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44210,7 +44204,7 @@
         <v>6201200000</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44218,7 +44212,7 @@
         <v>6201300000</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44226,7 +44220,7 @@
         <v>6201400000</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44234,7 +44228,7 @@
         <v>6201900000</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44242,7 +44236,7 @@
         <v>6202</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44250,7 +44244,7 @@
         <v>6202200000</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44258,7 +44252,7 @@
         <v>6202300000</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44266,7 +44260,7 @@
         <v>6202400001</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44274,7 +44268,7 @@
         <v>6202400009</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44282,7 +44276,7 @@
         <v>6202900001</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44290,7 +44284,7 @@
         <v>6202900009</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44298,7 +44292,7 @@
         <v>6302</v>
       </c>
       <c r="B24" s="95" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44306,7 +44300,7 @@
         <v>6302100001</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44314,7 +44308,7 @@
         <v>6302100009</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44322,7 +44316,7 @@
         <v>6302210000</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44330,7 +44324,7 @@
         <v>6302221000</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44338,7 +44332,7 @@
         <v>6302229000</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44346,7 +44340,7 @@
         <v>6302310001</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44354,7 +44348,7 @@
         <v>6302310009</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44362,7 +44356,7 @@
         <v>6302321000</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44370,7 +44364,7 @@
         <v>6302329000</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44378,7 +44372,7 @@
         <v>6302392001</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44386,7 +44380,7 @@
         <v>6302392009</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44394,7 +44388,7 @@
         <v>6302399000</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44402,7 +44396,7 @@
         <v>6302400000</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44410,7 +44404,7 @@
         <v>6302510001</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44418,7 +44412,7 @@
         <v>6302510009</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44426,7 +44420,7 @@
         <v>6302531000</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44434,7 +44428,7 @@
         <v>6302539000</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44442,7 +44436,7 @@
         <v>6302591000</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44450,7 +44444,7 @@
         <v>6302599000</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44458,7 +44452,7 @@
         <v>6302600000</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44466,7 +44460,7 @@
         <v>6302910000</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44474,7 +44468,7 @@
         <v>6302931000</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44482,7 +44476,7 @@
         <v>6302939000</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44490,7 +44484,7 @@
         <v>6302991000</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44498,7 +44492,7 @@
         <v>6302999000</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44506,7 +44500,7 @@
         <v>4303</v>
       </c>
       <c r="B50" s="95" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44514,7 +44508,7 @@
         <v>4303109010</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44522,7 +44516,7 @@
         <v>4303109020</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44530,7 +44524,7 @@
         <v>4303109030</v>
       </c>
       <c r="B53" s="96" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44538,7 +44532,7 @@
         <v>4303109040</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44546,7 +44540,7 @@
         <v>4303109050</v>
       </c>
       <c r="B55" s="96" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44554,7 +44548,7 @@
         <v>4303109060</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44562,7 +44556,7 @@
         <v>4303109080</v>
       </c>
       <c r="B57" s="96" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44570,7 +44564,7 @@
         <v>3303</v>
       </c>
       <c r="B58" s="98" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44578,7 +44572,7 @@
         <v>3303001000</v>
       </c>
       <c r="B59" s="96" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44586,7 +44580,7 @@
         <v>3303009000</v>
       </c>
       <c r="B60" s="96" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44594,7 +44588,7 @@
         <v>4011</v>
       </c>
       <c r="B61" s="95" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44602,7 +44596,7 @@
         <v>4011100003</v>
       </c>
       <c r="B62" s="96" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44610,7 +44604,7 @@
         <v>4011100009</v>
       </c>
       <c r="B63" s="96" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44618,7 +44612,7 @@
         <v>4011201000</v>
       </c>
       <c r="B64" s="96" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44626,7 +44620,7 @@
         <v>4011209000</v>
       </c>
       <c r="B65" s="96" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44634,7 +44628,7 @@
         <v>4011400000</v>
       </c>
       <c r="B66" s="96" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44642,7 +44636,7 @@
         <v>4011700000</v>
       </c>
       <c r="B67" s="96" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44650,7 +44644,7 @@
         <v>4011800000</v>
       </c>
       <c r="B68" s="96" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44658,7 +44652,7 @@
         <v>4011900000</v>
       </c>
       <c r="B69" s="96" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44666,7 +44660,7 @@
         <v>6401</v>
       </c>
       <c r="B70" s="95" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44674,7 +44668,7 @@
         <v>6401100000</v>
       </c>
       <c r="B71" s="96" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44682,7 +44676,7 @@
         <v>6401921000</v>
       </c>
       <c r="B72" s="96" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44690,7 +44684,7 @@
         <v>6401929000</v>
       </c>
       <c r="B73" s="96" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44698,7 +44692,7 @@
         <v>6401990000</v>
       </c>
       <c r="B74" s="96" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44706,7 +44700,7 @@
         <v>6402</v>
       </c>
       <c r="B75" s="95" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44714,7 +44708,7 @@
         <v>6402121000</v>
       </c>
       <c r="B76" s="96" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44722,7 +44716,7 @@
         <v>6402129000</v>
       </c>
       <c r="B77" s="96" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44730,7 +44724,7 @@
         <v>6402190000</v>
       </c>
       <c r="B78" s="96" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44738,7 +44732,7 @@
         <v>6402200000</v>
       </c>
       <c r="B79" s="96" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44746,7 +44740,7 @@
         <v>6402911000</v>
       </c>
       <c r="B80" s="96" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44754,7 +44748,7 @@
         <v>6402919000</v>
       </c>
       <c r="B81" s="96" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44762,7 +44756,7 @@
         <v>6402990500</v>
       </c>
       <c r="B82" s="96" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44770,7 +44764,7 @@
         <v>6402991000</v>
       </c>
       <c r="B83" s="96" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44778,7 +44772,7 @@
         <v>6402993100</v>
       </c>
       <c r="B84" s="96" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44786,7 +44780,7 @@
         <v>6402993900</v>
       </c>
       <c r="B85" s="96" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44794,7 +44788,7 @@
         <v>6402995000</v>
       </c>
       <c r="B86" s="96" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44802,7 +44796,7 @@
         <v>6402999100</v>
       </c>
       <c r="B87" s="96" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44810,7 +44804,7 @@
         <v>6402999300</v>
       </c>
       <c r="B88" s="96" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44818,7 +44812,7 @@
         <v>6402999600</v>
       </c>
       <c r="B89" s="96" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44826,7 +44820,7 @@
         <v>6402999800</v>
       </c>
       <c r="B90" s="96" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44834,7 +44828,7 @@
         <v>6403</v>
       </c>
       <c r="B91" s="95" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44842,7 +44836,7 @@
         <v>6403120000</v>
       </c>
       <c r="B92" s="96" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44850,7 +44844,7 @@
         <v>6403190000</v>
       </c>
       <c r="B93" s="96" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44858,7 +44852,7 @@
         <v>6403200000</v>
       </c>
       <c r="B94" s="96" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44866,7 +44860,7 @@
         <v>6403400000</v>
       </c>
       <c r="B95" s="96" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44874,7 +44868,7 @@
         <v>6403510500</v>
       </c>
       <c r="B96" s="96" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44882,7 +44876,7 @@
         <v>6403511100</v>
       </c>
       <c r="B97" s="96" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44890,7 +44884,7 @@
         <v>6403511500</v>
       </c>
       <c r="B98" s="96" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44898,7 +44892,7 @@
         <v>6403511900</v>
       </c>
       <c r="B99" s="96" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44906,7 +44900,7 @@
         <v>6403519100</v>
       </c>
       <c r="B100" s="96" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44914,7 +44908,7 @@
         <v>6403519500</v>
       </c>
       <c r="B101" s="96" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44922,7 +44916,7 @@
         <v>6403519900</v>
       </c>
       <c r="B102" s="96" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44930,7 +44924,7 @@
         <v>6403590500</v>
       </c>
       <c r="B103" s="96" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44938,7 +44932,7 @@
         <v>6403591100</v>
       </c>
       <c r="B104" s="96" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44946,7 +44940,7 @@
         <v>6403593100</v>
       </c>
       <c r="B105" s="96" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44954,7 +44948,7 @@
         <v>6403593500</v>
       </c>
       <c r="B106" s="96" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44962,7 +44956,7 @@
         <v>6403593900</v>
       </c>
       <c r="B107" s="96" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44970,7 +44964,7 @@
         <v>6403595000</v>
       </c>
       <c r="B108" s="96" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44978,7 +44972,7 @@
         <v>6403599100</v>
       </c>
       <c r="B109" s="96" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44986,7 +44980,7 @@
         <v>6403599500</v>
       </c>
       <c r="B110" s="96" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44994,7 +44988,7 @@
         <v>6403599900</v>
       </c>
       <c r="B111" s="96" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45002,7 +44996,7 @@
         <v>6403910500</v>
       </c>
       <c r="B112" s="96" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45010,7 +45004,7 @@
         <v>6403911100</v>
       </c>
       <c r="B113" s="96" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45018,7 +45012,7 @@
         <v>6403911300</v>
       </c>
       <c r="B114" s="96" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45026,7 +45020,7 @@
         <v>6403911600</v>
       </c>
       <c r="B115" s="96" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45034,7 +45028,7 @@
         <v>6403911800</v>
       </c>
       <c r="B116" s="96" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45042,7 +45036,7 @@
         <v>6403919100</v>
       </c>
       <c r="B117" s="96" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45050,7 +45044,7 @@
         <v>6403919300</v>
       </c>
       <c r="B118" s="96" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45058,7 +45052,7 @@
         <v>6403919600</v>
       </c>
       <c r="B119" s="96" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45066,7 +45060,7 @@
         <v>6403919800</v>
       </c>
       <c r="B120" s="96" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45074,7 +45068,7 @@
         <v>6403990500</v>
       </c>
       <c r="B121" s="96" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45082,7 +45076,7 @@
         <v>6403991100</v>
       </c>
       <c r="B122" s="96" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45090,7 +45084,7 @@
         <v>6403993100</v>
       </c>
       <c r="B123" s="96" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45098,7 +45092,7 @@
         <v>6403993300</v>
       </c>
       <c r="B124" s="96" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45106,7 +45100,7 @@
         <v>6403993600</v>
       </c>
       <c r="B125" s="96" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45114,7 +45108,7 @@
         <v>6403993800</v>
       </c>
       <c r="B126" s="96" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45122,7 +45116,7 @@
         <v>6403995000</v>
       </c>
       <c r="B127" s="96" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45130,7 +45124,7 @@
         <v>6403999100</v>
       </c>
       <c r="B128" s="96" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45138,7 +45132,7 @@
         <v>6403999300</v>
       </c>
       <c r="B129" s="96" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45146,7 +45140,7 @@
         <v>6403999600</v>
       </c>
       <c r="B130" s="96" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45154,7 +45148,7 @@
         <v>6403999800</v>
       </c>
       <c r="B131" s="96" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45162,7 +45156,7 @@
         <v>6404</v>
       </c>
       <c r="B132" s="95" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45170,7 +45164,7 @@
         <v>6404110000</v>
       </c>
       <c r="B133" s="96" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45178,7 +45172,7 @@
         <v>6404191000</v>
       </c>
       <c r="B134" s="96" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45186,7 +45180,7 @@
         <v>6404199000</v>
       </c>
       <c r="B135" s="96" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45194,7 +45188,7 @@
         <v>6404191000</v>
       </c>
       <c r="B136" s="96" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45202,7 +45196,7 @@
         <v>6404209000</v>
       </c>
       <c r="B137" s="96" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45210,7 +45204,7 @@
         <v>6405</v>
       </c>
       <c r="B138" s="95" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45218,7 +45212,7 @@
         <v>6405100001</v>
       </c>
       <c r="B139" s="96" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45226,7 +45220,7 @@
         <v>6405100009</v>
       </c>
       <c r="B140" s="96" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45234,7 +45228,7 @@
         <v>6405201000</v>
       </c>
       <c r="B141" s="96" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45242,7 +45236,7 @@
         <v>6405209100</v>
       </c>
       <c r="B142" s="96" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45250,7 +45244,7 @@
         <v>6405209900</v>
       </c>
       <c r="B143" s="96" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45258,7 +45252,7 @@
         <v>6405901000</v>
       </c>
       <c r="B144" s="96" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45266,7 +45260,7 @@
         <v>6405909000</v>
       </c>
       <c r="B145" s="96" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
